--- a/[Work]/170数值/170数值规划.xlsx
+++ b/[Work]/170数值/170数值规划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Notes\[Work]\170数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/[Work]/170数值/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83CF8A6-D418-4D30-8E09-91A17D7E0BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0314F-4A36-6848-ACC0-903904786D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整体大纲" sheetId="11" r:id="rId1"/>
@@ -33,12 +33,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="984">
   <si>
     <t>神秘猿·S 当前高级玩家使用量最多的坦克</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3132,6 +3138,21 @@
   </si>
   <si>
     <t>消耗部件数</t>
+  </si>
+  <si>
+    <t>下级替代系数</t>
+  </si>
+  <si>
+    <t>预估每天投放量</t>
+  </si>
+  <si>
+    <t>T1替代比例</t>
+  </si>
+  <si>
+    <t>T2替代比例</t>
+  </si>
+  <si>
+    <t>T3替代比例</t>
   </si>
 </sst>
 </file>
@@ -3139,21 +3160,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3162,7 +3183,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3192,7 +3213,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3250,7 +3271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3261,31 +3282,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3324,7 +3347,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3386,7 +3409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3689,7 +3712,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224580568"/>
@@ -3748,7 +3771,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="224579912"/>
@@ -3790,7 +3813,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3827,7 +3850,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4691,42 +4714,42 @@
       <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4745,17 +4768,17 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="11" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="11" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -4811,7 +4834,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -4870,7 +4893,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -4929,7 +4952,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>968</v>
       </c>
@@ -4988,7 +5011,7 @@
         <v>1.7599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -5047,7 +5070,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -5106,7 +5129,7 @@
         <v>2.2800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>967</v>
       </c>
@@ -5165,7 +5188,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -5224,7 +5247,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -5283,7 +5306,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -5342,7 +5365,7 @@
         <v>3.0199999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -5401,7 +5424,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -5460,7 +5483,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -5519,7 +5542,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="12" t="s">
         <v>168</v>
       </c>
@@ -5535,12 +5558,12 @@
         <v>2.9923076923076923</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:14">
       <c r="I19" s="1" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:14">
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
         <v>963</v>
@@ -5555,7 +5578,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:14">
       <c r="I21" s="3" t="s">
         <v>959</v>
       </c>
@@ -5573,7 +5596,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:14">
       <c r="I22" s="3" t="s">
         <v>960</v>
       </c>
@@ -5591,7 +5614,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:14">
       <c r="I24" s="3" t="s">
         <v>964</v>
       </c>
@@ -5600,7 +5623,7 @@
         <v>9.243260609430088</v>
       </c>
     </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:14">
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
         <v>970</v>
@@ -5618,7 +5641,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:14">
       <c r="I28" s="3" t="s">
         <v>959</v>
       </c>
@@ -5643,7 +5666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:14">
       <c r="I29" s="3" t="s">
         <v>960</v>
       </c>
@@ -5668,7 +5691,7 @@
         <v>84.042253521126767</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -5688,7 +5711,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>966</v>
       </c>
@@ -5708,7 +5731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -5728,7 +5751,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>965</v>
       </c>
@@ -5764,49 +5787,49 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>171</v>
       </c>
@@ -5820,7 +5843,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>172</v>
       </c>
@@ -5834,7 +5857,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>173</v>
       </c>
@@ -5848,7 +5871,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>174</v>
       </c>
@@ -5862,37 +5885,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="16" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="16" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="16" t="s">
         <v>183</v>
       </c>
@@ -5912,32 +5935,32 @@
       <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="17" width="10.625" customWidth="1"/>
-    <col min="18" max="18" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="17" width="10.6640625" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" customWidth="1"/>
     <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="4.625" customWidth="1"/>
-    <col min="26" max="26" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="10.125" style="19" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="10.1640625" style="19" customWidth="1"/>
     <col min="44" max="44" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48">
       <c r="A1" t="s">
         <v>185</v>
       </c>
@@ -6002,7 +6025,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6173,7 +6196,7 @@
         <v>[1,500]</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:48">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6344,7 +6367,7 @@
         <v>[1,1000]</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:48">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6515,7 +6538,7 @@
         <v>[1,2000]</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6686,7 +6709,7 @@
         <v>[2,500]</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48">
       <c r="A6">
         <v>1</v>
       </c>
@@ -6857,7 +6880,7 @@
         <v>[1,1000]</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7028,7 +7051,7 @@
         <v>[5,2000]</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7199,7 +7222,7 @@
         <v>[1000,500]</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7370,7 +7393,7 @@
         <v>[2,1000]</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48">
       <c r="A10">
         <v>1</v>
       </c>
@@ -7541,7 +7564,7 @@
         <v>[1,2000]</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7712,7 +7735,7 @@
         <v>[1000,500]</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7883,7 +7906,7 @@
         <v>[2,1000]</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8054,7 +8077,7 @@
         <v>[1,2000]</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8225,7 +8248,7 @@
         <v>[1500,500]</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48">
       <c r="A15">
         <v>3</v>
       </c>
@@ -8396,7 +8419,7 @@
         <v>[2,1000]</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8567,7 +8590,7 @@
         <v>[2,2000]</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48">
       <c r="A17">
         <v>1</v>
       </c>
@@ -8738,7 +8761,7 @@
         <v>[2000,500]</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8909,7 +8932,7 @@
         <v>[1,1000]</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9080,7 +9103,7 @@
         <v>[2,2000]</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48">
       <c r="A20">
         <v>4</v>
       </c>
@@ -9251,7 +9274,7 @@
         <v>[2500,500]</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48">
       <c r="A21">
         <v>4</v>
       </c>
@@ -9422,7 +9445,7 @@
         <v>[1,1000]</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48">
       <c r="A22">
         <v>4</v>
       </c>
@@ -9593,7 +9616,7 @@
         <v>[1,2000]</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48">
       <c r="A23">
         <v>5</v>
       </c>
@@ -9764,7 +9787,7 @@
         <v>[3000,500]</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48">
       <c r="A24">
         <v>5</v>
       </c>
@@ -9935,7 +9958,7 @@
         <v>[1,1000]</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10106,7 +10129,7 @@
         <v>[2,2000]</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48">
       <c r="A26">
         <v>1</v>
       </c>
@@ -10277,7 +10300,7 @@
         <v>[3500,500]</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10448,7 +10471,7 @@
         <v>[2,1000]</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48">
       <c r="A28">
         <v>3</v>
       </c>
@@ -10619,7 +10642,7 @@
         <v>[2,2000]</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48">
       <c r="A29">
         <v>4</v>
       </c>
@@ -10790,7 +10813,7 @@
         <v>[3500,500]</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48">
       <c r="A30">
         <v>4</v>
       </c>
@@ -10961,7 +10984,7 @@
         <v>[1,1000]</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48">
       <c r="A31">
         <v>4</v>
       </c>
@@ -11132,7 +11155,7 @@
         <v>[2,2000]</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48">
       <c r="A32">
         <v>5</v>
       </c>
@@ -11303,7 +11326,7 @@
         <v>[3500,500]</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48">
       <c r="A33">
         <v>5</v>
       </c>
@@ -11474,7 +11497,7 @@
         <v>[1,1000]</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48">
       <c r="A34">
         <v>5</v>
       </c>
@@ -11660,12 +11683,12 @@
       <selection activeCell="K664" sqref="K664"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -11673,7 +11696,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -11681,7 +11704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -11689,7 +11712,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>205</v>
       </c>
@@ -11697,7 +11720,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -11705,7 +11728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>207</v>
       </c>
@@ -11713,7 +11736,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -11721,7 +11744,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>209</v>
       </c>
@@ -11729,7 +11752,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>210</v>
       </c>
@@ -11737,7 +11760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>211</v>
       </c>
@@ -11745,7 +11768,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>212</v>
       </c>
@@ -11753,7 +11776,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -11761,7 +11784,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>214</v>
       </c>
@@ -11769,7 +11792,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -11777,7 +11800,7 @@
         <v>100301</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -11785,7 +11808,7 @@
         <v>100302</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -11793,7 +11816,7 @@
         <v>100501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -11801,7 +11824,7 @@
         <v>100502</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -11809,7 +11832,7 @@
         <v>100503</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>221</v>
       </c>
@@ -11817,7 +11840,7 @@
         <v>100801</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>222</v>
       </c>
@@ -11825,7 +11848,7 @@
         <v>100802</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>223</v>
       </c>
@@ -11833,7 +11856,7 @@
         <v>100803</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>224</v>
       </c>
@@ -11841,7 +11864,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -11849,7 +11872,7 @@
         <v>80101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -11857,7 +11880,7 @@
         <v>81901</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -11865,7 +11888,7 @@
         <v>83701</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -11873,7 +11896,7 @@
         <v>80102</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -11881,7 +11904,7 @@
         <v>81902</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -11889,7 +11912,7 @@
         <v>83702</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>232</v>
       </c>
@@ -11897,7 +11920,7 @@
         <v>80301</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>233</v>
       </c>
@@ -11905,7 +11928,7 @@
         <v>82101</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>234</v>
       </c>
@@ -11913,7 +11936,7 @@
         <v>83901</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>235</v>
       </c>
@@ -11921,7 +11944,7 @@
         <v>80302</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>236</v>
       </c>
@@ -11929,7 +11952,7 @@
         <v>82102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>237</v>
       </c>
@@ -11937,7 +11960,7 @@
         <v>83902</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>238</v>
       </c>
@@ -11945,7 +11968,7 @@
         <v>80201</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>239</v>
       </c>
@@ -11953,7 +11976,7 @@
         <v>82001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>240</v>
       </c>
@@ -11961,7 +11984,7 @@
         <v>83801</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>241</v>
       </c>
@@ -11969,7 +11992,7 @@
         <v>80202</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>242</v>
       </c>
@@ -11977,7 +12000,7 @@
         <v>82002</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>243</v>
       </c>
@@ -11985,7 +12008,7 @@
         <v>83802</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>244</v>
       </c>
@@ -11993,7 +12016,7 @@
         <v>80401</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>245</v>
       </c>
@@ -12001,7 +12024,7 @@
         <v>82201</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -12009,7 +12032,7 @@
         <v>84001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>247</v>
       </c>
@@ -12017,7 +12040,7 @@
         <v>80402</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>248</v>
       </c>
@@ -12025,7 +12048,7 @@
         <v>82202</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>249</v>
       </c>
@@ -12033,7 +12056,7 @@
         <v>84002</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>250</v>
       </c>
@@ -12041,7 +12064,7 @@
         <v>80501</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>251</v>
       </c>
@@ -12049,7 +12072,7 @@
         <v>82301</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -12057,7 +12080,7 @@
         <v>84101</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>253</v>
       </c>
@@ -12065,7 +12088,7 @@
         <v>80502</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -12073,7 +12096,7 @@
         <v>82302</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -12081,7 +12104,7 @@
         <v>84102</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>256</v>
       </c>
@@ -12089,7 +12112,7 @@
         <v>80503</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -12097,7 +12120,7 @@
         <v>82303</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>258</v>
       </c>
@@ -12105,7 +12128,7 @@
         <v>84103</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>259</v>
       </c>
@@ -12113,7 +12136,7 @@
         <v>80601</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>260</v>
       </c>
@@ -12121,7 +12144,7 @@
         <v>82401</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>261</v>
       </c>
@@ -12129,7 +12152,7 @@
         <v>84201</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>262</v>
       </c>
@@ -12137,7 +12160,7 @@
         <v>80602</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>263</v>
       </c>
@@ -12145,7 +12168,7 @@
         <v>82402</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>264</v>
       </c>
@@ -12153,7 +12176,7 @@
         <v>84202</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>265</v>
       </c>
@@ -12161,7 +12184,7 @@
         <v>80603</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>266</v>
       </c>
@@ -12169,7 +12192,7 @@
         <v>82403</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>267</v>
       </c>
@@ -12177,7 +12200,7 @@
         <v>84203</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>268</v>
       </c>
@@ -12185,7 +12208,7 @@
         <v>80701</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>269</v>
       </c>
@@ -12193,7 +12216,7 @@
         <v>82501</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>270</v>
       </c>
@@ -12201,7 +12224,7 @@
         <v>84301</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>271</v>
       </c>
@@ -12209,7 +12232,7 @@
         <v>80702</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>272</v>
       </c>
@@ -12217,7 +12240,7 @@
         <v>82502</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>273</v>
       </c>
@@ -12225,7 +12248,7 @@
         <v>84302</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>274</v>
       </c>
@@ -12233,7 +12256,7 @@
         <v>80703</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>275</v>
       </c>
@@ -12241,7 +12264,7 @@
         <v>82503</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>276</v>
       </c>
@@ -12249,7 +12272,7 @@
         <v>84303</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -12257,7 +12280,7 @@
         <v>80801</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>278</v>
       </c>
@@ -12265,7 +12288,7 @@
         <v>82601</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>279</v>
       </c>
@@ -12273,7 +12296,7 @@
         <v>84401</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>280</v>
       </c>
@@ -12281,7 +12304,7 @@
         <v>80802</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>281</v>
       </c>
@@ -12289,7 +12312,7 @@
         <v>82602</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -12297,7 +12320,7 @@
         <v>84402</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>283</v>
       </c>
@@ -12305,7 +12328,7 @@
         <v>80803</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>284</v>
       </c>
@@ -12313,7 +12336,7 @@
         <v>82603</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>285</v>
       </c>
@@ -12321,7 +12344,7 @@
         <v>84403</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>286</v>
       </c>
@@ -12329,7 +12352,7 @@
         <v>80901</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>287</v>
       </c>
@@ -12337,7 +12360,7 @@
         <v>82701</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>288</v>
       </c>
@@ -12345,7 +12368,7 @@
         <v>84501</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>289</v>
       </c>
@@ -12353,7 +12376,7 @@
         <v>80902</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>290</v>
       </c>
@@ -12361,7 +12384,7 @@
         <v>82702</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>291</v>
       </c>
@@ -12369,7 +12392,7 @@
         <v>84502</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -12377,7 +12400,7 @@
         <v>80903</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>293</v>
       </c>
@@ -12385,7 +12408,7 @@
         <v>82703</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>294</v>
       </c>
@@ -12393,7 +12416,7 @@
         <v>84503</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>295</v>
       </c>
@@ -12401,7 +12424,7 @@
         <v>81001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>296</v>
       </c>
@@ -12409,7 +12432,7 @@
         <v>82801</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>297</v>
       </c>
@@ -12417,7 +12440,7 @@
         <v>84601</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>298</v>
       </c>
@@ -12425,7 +12448,7 @@
         <v>81002</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>299</v>
       </c>
@@ -12433,7 +12456,7 @@
         <v>82802</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>300</v>
       </c>
@@ -12441,7 +12464,7 @@
         <v>84602</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>301</v>
       </c>
@@ -12449,7 +12472,7 @@
         <v>81003</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>302</v>
       </c>
@@ -12457,7 +12480,7 @@
         <v>82803</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>303</v>
       </c>
@@ -12465,7 +12488,7 @@
         <v>84603</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>304</v>
       </c>
@@ -12473,7 +12496,7 @@
         <v>81101</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>305</v>
       </c>
@@ -12481,7 +12504,7 @@
         <v>82901</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>306</v>
       </c>
@@ -12489,7 +12512,7 @@
         <v>84701</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>307</v>
       </c>
@@ -12497,7 +12520,7 @@
         <v>81102</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>308</v>
       </c>
@@ -12505,7 +12528,7 @@
         <v>82902</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>309</v>
       </c>
@@ -12513,7 +12536,7 @@
         <v>84702</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>310</v>
       </c>
@@ -12521,7 +12544,7 @@
         <v>81103</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>311</v>
       </c>
@@ -12529,7 +12552,7 @@
         <v>82903</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>312</v>
       </c>
@@ -12537,7 +12560,7 @@
         <v>84703</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>313</v>
       </c>
@@ -12545,7 +12568,7 @@
         <v>81201</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>314</v>
       </c>
@@ -12553,7 +12576,7 @@
         <v>83001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>315</v>
       </c>
@@ -12561,7 +12584,7 @@
         <v>84801</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>316</v>
       </c>
@@ -12569,7 +12592,7 @@
         <v>81202</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>317</v>
       </c>
@@ -12577,7 +12600,7 @@
         <v>83002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>318</v>
       </c>
@@ -12585,7 +12608,7 @@
         <v>84802</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>319</v>
       </c>
@@ -12593,7 +12616,7 @@
         <v>81203</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>320</v>
       </c>
@@ -12601,7 +12624,7 @@
         <v>83003</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>321</v>
       </c>
@@ -12609,7 +12632,7 @@
         <v>84803</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>322</v>
       </c>
@@ -12617,7 +12640,7 @@
         <v>81301</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>323</v>
       </c>
@@ -12625,7 +12648,7 @@
         <v>83101</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>324</v>
       </c>
@@ -12633,7 +12656,7 @@
         <v>84901</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>325</v>
       </c>
@@ -12641,7 +12664,7 @@
         <v>81302</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>326</v>
       </c>
@@ -12649,7 +12672,7 @@
         <v>83102</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>327</v>
       </c>
@@ -12657,7 +12680,7 @@
         <v>84902</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>328</v>
       </c>
@@ -12665,7 +12688,7 @@
         <v>81303</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>329</v>
       </c>
@@ -12673,7 +12696,7 @@
         <v>83103</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>330</v>
       </c>
@@ -12681,7 +12704,7 @@
         <v>84903</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>331</v>
       </c>
@@ -12689,7 +12712,7 @@
         <v>81401</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>332</v>
       </c>
@@ -12697,7 +12720,7 @@
         <v>83201</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>333</v>
       </c>
@@ -12705,7 +12728,7 @@
         <v>85001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>334</v>
       </c>
@@ -12713,7 +12736,7 @@
         <v>81402</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>335</v>
       </c>
@@ -12721,7 +12744,7 @@
         <v>83202</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>336</v>
       </c>
@@ -12729,7 +12752,7 @@
         <v>85002</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>337</v>
       </c>
@@ -12737,7 +12760,7 @@
         <v>81403</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>338</v>
       </c>
@@ -12745,7 +12768,7 @@
         <v>83203</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>339</v>
       </c>
@@ -12753,7 +12776,7 @@
         <v>85003</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>340</v>
       </c>
@@ -12761,7 +12784,7 @@
         <v>81501</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>341</v>
       </c>
@@ -12769,7 +12792,7 @@
         <v>83301</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>342</v>
       </c>
@@ -12777,7 +12800,7 @@
         <v>85101</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>343</v>
       </c>
@@ -12785,7 +12808,7 @@
         <v>81502</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>344</v>
       </c>
@@ -12793,7 +12816,7 @@
         <v>83302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>345</v>
       </c>
@@ -12801,7 +12824,7 @@
         <v>85102</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>346</v>
       </c>
@@ -12809,7 +12832,7 @@
         <v>81503</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>347</v>
       </c>
@@ -12817,7 +12840,7 @@
         <v>83303</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>348</v>
       </c>
@@ -12825,7 +12848,7 @@
         <v>85103</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>349</v>
       </c>
@@ -12833,7 +12856,7 @@
         <v>81601</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>350</v>
       </c>
@@ -12841,7 +12864,7 @@
         <v>83401</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>351</v>
       </c>
@@ -12849,7 +12872,7 @@
         <v>85201</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>352</v>
       </c>
@@ -12857,7 +12880,7 @@
         <v>81602</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>353</v>
       </c>
@@ -12865,7 +12888,7 @@
         <v>83402</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>354</v>
       </c>
@@ -12873,7 +12896,7 @@
         <v>85202</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>355</v>
       </c>
@@ -12881,7 +12904,7 @@
         <v>81603</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>356</v>
       </c>
@@ -12889,7 +12912,7 @@
         <v>83403</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>357</v>
       </c>
@@ -12897,7 +12920,7 @@
         <v>85203</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>358</v>
       </c>
@@ -12905,7 +12928,7 @@
         <v>81701</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>359</v>
       </c>
@@ -12913,7 +12936,7 @@
         <v>83501</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>360</v>
       </c>
@@ -12921,7 +12944,7 @@
         <v>85301</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>361</v>
       </c>
@@ -12929,7 +12952,7 @@
         <v>81702</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>362</v>
       </c>
@@ -12937,7 +12960,7 @@
         <v>83502</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>363</v>
       </c>
@@ -12945,7 +12968,7 @@
         <v>85302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>364</v>
       </c>
@@ -12953,7 +12976,7 @@
         <v>81703</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>365</v>
       </c>
@@ -12961,7 +12984,7 @@
         <v>83503</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>366</v>
       </c>
@@ -12969,7 +12992,7 @@
         <v>85303</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>367</v>
       </c>
@@ -12977,7 +13000,7 @@
         <v>81801</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>368</v>
       </c>
@@ -12985,7 +13008,7 @@
         <v>83601</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>369</v>
       </c>
@@ -12993,7 +13016,7 @@
         <v>85401</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>370</v>
       </c>
@@ -13001,7 +13024,7 @@
         <v>81802</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>371</v>
       </c>
@@ -13009,7 +13032,7 @@
         <v>83602</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>372</v>
       </c>
@@ -13017,7 +13040,7 @@
         <v>85402</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>373</v>
       </c>
@@ -13025,7 +13048,7 @@
         <v>81803</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>374</v>
       </c>
@@ -13033,7 +13056,7 @@
         <v>83603</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>375</v>
       </c>
@@ -13041,7 +13064,7 @@
         <v>85403</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>376</v>
       </c>
@@ -13049,7 +13072,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>377</v>
       </c>
@@ -13057,7 +13080,7 @@
         <v>91001</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>378</v>
       </c>
@@ -13065,7 +13088,7 @@
         <v>91002</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>379</v>
       </c>
@@ -13073,7 +13096,7 @@
         <v>91003</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>380</v>
       </c>
@@ -13081,7 +13104,7 @@
         <v>91004</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>381</v>
       </c>
@@ -13089,7 +13112,7 @@
         <v>91005</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>382</v>
       </c>
@@ -13097,7 +13120,7 @@
         <v>91006</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>383</v>
       </c>
@@ -13105,7 +13128,7 @@
         <v>91101</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>384</v>
       </c>
@@ -13113,7 +13136,7 @@
         <v>91102</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>385</v>
       </c>
@@ -13121,7 +13144,7 @@
         <v>91103</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>386</v>
       </c>
@@ -13129,7 +13152,7 @@
         <v>91104</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>387</v>
       </c>
@@ -13137,7 +13160,7 @@
         <v>91105</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>388</v>
       </c>
@@ -13145,7 +13168,7 @@
         <v>91106</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>389</v>
       </c>
@@ -13153,7 +13176,7 @@
         <v>91201</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>390</v>
       </c>
@@ -13161,7 +13184,7 @@
         <v>91202</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>391</v>
       </c>
@@ -13169,7 +13192,7 @@
         <v>91203</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>392</v>
       </c>
@@ -13177,7 +13200,7 @@
         <v>91204</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>393</v>
       </c>
@@ -13185,7 +13208,7 @@
         <v>91205</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>394</v>
       </c>
@@ -13193,7 +13216,7 @@
         <v>91206</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>395</v>
       </c>
@@ -13201,7 +13224,7 @@
         <v>92001</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>396</v>
       </c>
@@ -13209,7 +13232,7 @@
         <v>92002</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>397</v>
       </c>
@@ -13217,7 +13240,7 @@
         <v>92003</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>398</v>
       </c>
@@ -13225,7 +13248,7 @@
         <v>92004</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>399</v>
       </c>
@@ -13233,7 +13256,7 @@
         <v>92005</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>400</v>
       </c>
@@ -13241,7 +13264,7 @@
         <v>92006</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>401</v>
       </c>
@@ -13249,7 +13272,7 @@
         <v>92101</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -13257,7 +13280,7 @@
         <v>92102</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>403</v>
       </c>
@@ -13265,7 +13288,7 @@
         <v>92103</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>404</v>
       </c>
@@ -13273,7 +13296,7 @@
         <v>92104</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>405</v>
       </c>
@@ -13281,7 +13304,7 @@
         <v>92105</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -13289,7 +13312,7 @@
         <v>92106</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>407</v>
       </c>
@@ -13297,7 +13320,7 @@
         <v>92201</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>408</v>
       </c>
@@ -13305,7 +13328,7 @@
         <v>92202</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>409</v>
       </c>
@@ -13313,7 +13336,7 @@
         <v>92203</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>410</v>
       </c>
@@ -13321,7 +13344,7 @@
         <v>92204</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>411</v>
       </c>
@@ -13329,7 +13352,7 @@
         <v>92205</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>412</v>
       </c>
@@ -13337,7 +13360,7 @@
         <v>92206</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>413</v>
       </c>
@@ -13345,7 +13368,7 @@
         <v>93001</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>414</v>
       </c>
@@ -13353,7 +13376,7 @@
         <v>93002</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>415</v>
       </c>
@@ -13361,7 +13384,7 @@
         <v>93003</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>416</v>
       </c>
@@ -13369,7 +13392,7 @@
         <v>93004</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>417</v>
       </c>
@@ -13377,7 +13400,7 @@
         <v>93005</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>418</v>
       </c>
@@ -13385,7 +13408,7 @@
         <v>93006</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>419</v>
       </c>
@@ -13393,7 +13416,7 @@
         <v>93101</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>420</v>
       </c>
@@ -13401,7 +13424,7 @@
         <v>93102</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>421</v>
       </c>
@@ -13409,7 +13432,7 @@
         <v>93103</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>422</v>
       </c>
@@ -13417,7 +13440,7 @@
         <v>93104</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>423</v>
       </c>
@@ -13425,7 +13448,7 @@
         <v>93105</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>424</v>
       </c>
@@ -13433,7 +13456,7 @@
         <v>93106</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>425</v>
       </c>
@@ -13441,7 +13464,7 @@
         <v>93201</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>426</v>
       </c>
@@ -13449,7 +13472,7 @@
         <v>93202</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>427</v>
       </c>
@@ -13457,7 +13480,7 @@
         <v>93203</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>428</v>
       </c>
@@ -13465,7 +13488,7 @@
         <v>93204</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>429</v>
       </c>
@@ -13473,7 +13496,7 @@
         <v>93205</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>430</v>
       </c>
@@ -13481,7 +13504,7 @@
         <v>93206</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>431</v>
       </c>
@@ -13489,7 +13512,7 @@
         <v>94001</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>432</v>
       </c>
@@ -13497,7 +13520,7 @@
         <v>94002</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>433</v>
       </c>
@@ -13505,7 +13528,7 @@
         <v>94003</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>434</v>
       </c>
@@ -13513,7 +13536,7 @@
         <v>94004</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>435</v>
       </c>
@@ -13521,7 +13544,7 @@
         <v>94005</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>436</v>
       </c>
@@ -13529,7 +13552,7 @@
         <v>94006</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>437</v>
       </c>
@@ -13537,7 +13560,7 @@
         <v>94101</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>438</v>
       </c>
@@ -13545,7 +13568,7 @@
         <v>94102</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>439</v>
       </c>
@@ -13553,7 +13576,7 @@
         <v>94103</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>440</v>
       </c>
@@ -13561,7 +13584,7 @@
         <v>94104</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>441</v>
       </c>
@@ -13569,7 +13592,7 @@
         <v>94105</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>442</v>
       </c>
@@ -13577,7 +13600,7 @@
         <v>94106</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>443</v>
       </c>
@@ -13585,7 +13608,7 @@
         <v>94201</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>444</v>
       </c>
@@ -13593,7 +13616,7 @@
         <v>94202</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>445</v>
       </c>
@@ -13601,7 +13624,7 @@
         <v>94203</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>446</v>
       </c>
@@ -13609,7 +13632,7 @@
         <v>94204</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>447</v>
       </c>
@@ -13617,7 +13640,7 @@
         <v>94205</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>448</v>
       </c>
@@ -13625,7 +13648,7 @@
         <v>94206</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>449</v>
       </c>
@@ -13633,7 +13656,7 @@
         <v>95001</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>450</v>
       </c>
@@ -13641,7 +13664,7 @@
         <v>95002</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>451</v>
       </c>
@@ -13649,7 +13672,7 @@
         <v>95003</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>452</v>
       </c>
@@ -13657,7 +13680,7 @@
         <v>95004</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>453</v>
       </c>
@@ -13665,7 +13688,7 @@
         <v>95005</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>454</v>
       </c>
@@ -13673,7 +13696,7 @@
         <v>95006</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>455</v>
       </c>
@@ -13681,7 +13704,7 @@
         <v>95101</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>456</v>
       </c>
@@ -13689,7 +13712,7 @@
         <v>95102</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>457</v>
       </c>
@@ -13697,7 +13720,7 @@
         <v>95103</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>458</v>
       </c>
@@ -13705,7 +13728,7 @@
         <v>95104</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>459</v>
       </c>
@@ -13713,7 +13736,7 @@
         <v>95105</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>460</v>
       </c>
@@ -13721,7 +13744,7 @@
         <v>95106</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>461</v>
       </c>
@@ -13729,7 +13752,7 @@
         <v>95201</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>462</v>
       </c>
@@ -13737,7 +13760,7 @@
         <v>95202</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>463</v>
       </c>
@@ -13745,7 +13768,7 @@
         <v>95203</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>464</v>
       </c>
@@ -13753,7 +13776,7 @@
         <v>95204</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>465</v>
       </c>
@@ -13761,7 +13784,7 @@
         <v>95205</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>466</v>
       </c>
@@ -13769,7 +13792,7 @@
         <v>95206</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>467</v>
       </c>
@@ -13777,7 +13800,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>469</v>
       </c>
@@ -13785,7 +13808,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>470</v>
       </c>
@@ -13793,7 +13816,7 @@
         <v>23001</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>471</v>
       </c>
@@ -13801,7 +13824,7 @@
         <v>23002</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>472</v>
       </c>
@@ -13809,7 +13832,7 @@
         <v>23003</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>473</v>
       </c>
@@ -13817,7 +13840,7 @@
         <v>23004</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>474</v>
       </c>
@@ -13825,7 +13848,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>475</v>
       </c>
@@ -13833,7 +13856,7 @@
         <v>23006</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>476</v>
       </c>
@@ -13841,7 +13864,7 @@
         <v>23007</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>477</v>
       </c>
@@ -13849,7 +13872,7 @@
         <v>23008</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>478</v>
       </c>
@@ -13857,7 +13880,7 @@
         <v>23009</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>479</v>
       </c>
@@ -13865,7 +13888,7 @@
         <v>23010</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>480</v>
       </c>
@@ -13873,7 +13896,7 @@
         <v>24001</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>481</v>
       </c>
@@ -13881,7 +13904,7 @@
         <v>24002</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>482</v>
       </c>
@@ -13889,7 +13912,7 @@
         <v>24003</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>483</v>
       </c>
@@ -13897,7 +13920,7 @@
         <v>24004</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>484</v>
       </c>
@@ -13905,7 +13928,7 @@
         <v>24005</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>485</v>
       </c>
@@ -13913,7 +13936,7 @@
         <v>24006</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>486</v>
       </c>
@@ -13921,7 +13944,7 @@
         <v>24007</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>487</v>
       </c>
@@ -13929,7 +13952,7 @@
         <v>24008</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>488</v>
       </c>
@@ -13937,7 +13960,7 @@
         <v>24009</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>489</v>
       </c>
@@ -13945,7 +13968,7 @@
         <v>24010</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>490</v>
       </c>
@@ -13953,7 +13976,7 @@
         <v>23101</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>491</v>
       </c>
@@ -13961,7 +13984,7 @@
         <v>23102</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>492</v>
       </c>
@@ -13969,7 +13992,7 @@
         <v>23103</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>493</v>
       </c>
@@ -13977,7 +14000,7 @@
         <v>23104</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>494</v>
       </c>
@@ -13985,7 +14008,7 @@
         <v>23105</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>495</v>
       </c>
@@ -13993,7 +14016,7 @@
         <v>23106</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>496</v>
       </c>
@@ -14001,7 +14024,7 @@
         <v>23107</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>497</v>
       </c>
@@ -14009,7 +14032,7 @@
         <v>23108</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>498</v>
       </c>
@@ -14017,7 +14040,7 @@
         <v>23109</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>499</v>
       </c>
@@ -14025,7 +14048,7 @@
         <v>23110</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>500</v>
       </c>
@@ -14033,7 +14056,7 @@
         <v>24101</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>501</v>
       </c>
@@ -14041,7 +14064,7 @@
         <v>24102</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>502</v>
       </c>
@@ -14049,7 +14072,7 @@
         <v>24103</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>503</v>
       </c>
@@ -14057,7 +14080,7 @@
         <v>24104</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>504</v>
       </c>
@@ -14065,7 +14088,7 @@
         <v>24105</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>505</v>
       </c>
@@ -14073,7 +14096,7 @@
         <v>24106</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>506</v>
       </c>
@@ -14081,7 +14104,7 @@
         <v>24107</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>507</v>
       </c>
@@ -14089,7 +14112,7 @@
         <v>24108</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>508</v>
       </c>
@@ -14097,7 +14120,7 @@
         <v>24109</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>509</v>
       </c>
@@ -14105,7 +14128,7 @@
         <v>24110</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>510</v>
       </c>
@@ -14113,7 +14136,7 @@
         <v>25001</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>511</v>
       </c>
@@ -14121,7 +14144,7 @@
         <v>25002</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>512</v>
       </c>
@@ -14129,7 +14152,7 @@
         <v>25003</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>513</v>
       </c>
@@ -14137,7 +14160,7 @@
         <v>25004</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>514</v>
       </c>
@@ -14145,7 +14168,7 @@
         <v>25005</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>515</v>
       </c>
@@ -14153,7 +14176,7 @@
         <v>25006</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>516</v>
       </c>
@@ -14161,7 +14184,7 @@
         <v>25007</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>517</v>
       </c>
@@ -14169,7 +14192,7 @@
         <v>25008</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>518</v>
       </c>
@@ -14177,7 +14200,7 @@
         <v>25009</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>519</v>
       </c>
@@ -14185,7 +14208,7 @@
         <v>25010</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>520</v>
       </c>
@@ -14193,7 +14216,7 @@
         <v>25051</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>521</v>
       </c>
@@ -14201,7 +14224,7 @@
         <v>25052</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>522</v>
       </c>
@@ -14209,7 +14232,7 @@
         <v>25053</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>523</v>
       </c>
@@ -14217,7 +14240,7 @@
         <v>25054</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>524</v>
       </c>
@@ -14225,7 +14248,7 @@
         <v>25055</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>525</v>
       </c>
@@ -14233,7 +14256,7 @@
         <v>25056</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>526</v>
       </c>
@@ -14241,7 +14264,7 @@
         <v>25057</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>527</v>
       </c>
@@ -14249,7 +14272,7 @@
         <v>25058</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>528</v>
       </c>
@@ -14257,7 +14280,7 @@
         <v>25059</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>529</v>
       </c>
@@ -14265,7 +14288,7 @@
         <v>25060</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>530</v>
       </c>
@@ -14273,7 +14296,7 @@
         <v>25101</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>531</v>
       </c>
@@ -14281,7 +14304,7 @@
         <v>25102</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>532</v>
       </c>
@@ -14289,7 +14312,7 @@
         <v>25103</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>533</v>
       </c>
@@ -14297,7 +14320,7 @@
         <v>25104</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>534</v>
       </c>
@@ -14305,7 +14328,7 @@
         <v>25105</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>535</v>
       </c>
@@ -14313,7 +14336,7 @@
         <v>25106</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>536</v>
       </c>
@@ -14321,7 +14344,7 @@
         <v>25107</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>537</v>
       </c>
@@ -14329,7 +14352,7 @@
         <v>25108</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>538</v>
       </c>
@@ -14337,7 +14360,7 @@
         <v>25109</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>539</v>
       </c>
@@ -14345,7 +14368,7 @@
         <v>25110</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>540</v>
       </c>
@@ -14353,7 +14376,7 @@
         <v>25151</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>541</v>
       </c>
@@ -14361,7 +14384,7 @@
         <v>25152</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>542</v>
       </c>
@@ -14369,7 +14392,7 @@
         <v>25153</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>543</v>
       </c>
@@ -14377,7 +14400,7 @@
         <v>25154</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>544</v>
       </c>
@@ -14385,7 +14408,7 @@
         <v>25155</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>545</v>
       </c>
@@ -14393,7 +14416,7 @@
         <v>25156</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2">
       <c r="A347" t="s">
         <v>546</v>
       </c>
@@ -14401,7 +14424,7 @@
         <v>25157</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>547</v>
       </c>
@@ -14409,7 +14432,7 @@
         <v>25158</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2">
       <c r="A349" t="s">
         <v>548</v>
       </c>
@@ -14417,7 +14440,7 @@
         <v>25159</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>549</v>
       </c>
@@ -14425,7 +14448,7 @@
         <v>25160</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>550</v>
       </c>
@@ -14433,7 +14456,7 @@
         <v>25201</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2">
       <c r="A352" t="s">
         <v>551</v>
       </c>
@@ -14441,7 +14464,7 @@
         <v>25202</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2">
       <c r="A353" t="s">
         <v>552</v>
       </c>
@@ -14449,7 +14472,7 @@
         <v>25203</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2">
       <c r="A354" t="s">
         <v>553</v>
       </c>
@@ -14457,7 +14480,7 @@
         <v>25204</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2">
       <c r="A355" t="s">
         <v>554</v>
       </c>
@@ -14465,7 +14488,7 @@
         <v>25205</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2">
       <c r="A356" t="s">
         <v>555</v>
       </c>
@@ -14473,7 +14496,7 @@
         <v>25206</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2">
       <c r="A357" t="s">
         <v>556</v>
       </c>
@@ -14481,7 +14504,7 @@
         <v>25207</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2">
       <c r="A358" t="s">
         <v>557</v>
       </c>
@@ -14489,7 +14512,7 @@
         <v>25208</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2">
       <c r="A359" t="s">
         <v>558</v>
       </c>
@@ -14497,7 +14520,7 @@
         <v>25209</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2">
       <c r="A360" t="s">
         <v>559</v>
       </c>
@@ -14505,7 +14528,7 @@
         <v>25210</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2">
       <c r="A361" t="s">
         <v>560</v>
       </c>
@@ -14513,7 +14536,7 @@
         <v>25251</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2">
       <c r="A362" t="s">
         <v>561</v>
       </c>
@@ -14521,7 +14544,7 @@
         <v>25252</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2">
       <c r="A363" t="s">
         <v>562</v>
       </c>
@@ -14529,7 +14552,7 @@
         <v>25253</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2">
       <c r="A364" t="s">
         <v>563</v>
       </c>
@@ -14537,7 +14560,7 @@
         <v>25254</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2">
       <c r="A365" t="s">
         <v>564</v>
       </c>
@@ -14545,7 +14568,7 @@
         <v>25255</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2">
       <c r="A366" t="s">
         <v>565</v>
       </c>
@@ -14553,7 +14576,7 @@
         <v>25256</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2">
       <c r="A367" t="s">
         <v>566</v>
       </c>
@@ -14561,7 +14584,7 @@
         <v>25257</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2">
       <c r="A368" t="s">
         <v>567</v>
       </c>
@@ -14569,7 +14592,7 @@
         <v>25258</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2">
       <c r="A369" t="s">
         <v>568</v>
       </c>
@@ -14577,7 +14600,7 @@
         <v>25259</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2">
       <c r="A370" t="s">
         <v>569</v>
       </c>
@@ -14585,7 +14608,7 @@
         <v>25260</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2">
       <c r="A371" t="s">
         <v>570</v>
       </c>
@@ -14593,7 +14616,7 @@
         <v>25301</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2">
       <c r="A372" t="s">
         <v>571</v>
       </c>
@@ -14601,7 +14624,7 @@
         <v>25302</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2">
       <c r="A373" t="s">
         <v>572</v>
       </c>
@@ -14609,7 +14632,7 @@
         <v>25303</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2">
       <c r="A374" t="s">
         <v>573</v>
       </c>
@@ -14617,7 +14640,7 @@
         <v>25304</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2">
       <c r="A375" t="s">
         <v>574</v>
       </c>
@@ -14625,7 +14648,7 @@
         <v>25305</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2">
       <c r="A376" t="s">
         <v>575</v>
       </c>
@@ -14633,7 +14656,7 @@
         <v>25306</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2">
       <c r="A377" t="s">
         <v>576</v>
       </c>
@@ -14641,7 +14664,7 @@
         <v>25307</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2">
       <c r="A378" t="s">
         <v>577</v>
       </c>
@@ -14649,7 +14672,7 @@
         <v>25308</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2">
       <c r="A379" t="s">
         <v>578</v>
       </c>
@@ -14657,7 +14680,7 @@
         <v>25309</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2">
       <c r="A380" t="s">
         <v>579</v>
       </c>
@@ -14665,7 +14688,7 @@
         <v>25310</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2">
       <c r="A381" t="s">
         <v>580</v>
       </c>
@@ -14673,7 +14696,7 @@
         <v>25351</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2">
       <c r="A382" t="s">
         <v>581</v>
       </c>
@@ -14681,7 +14704,7 @@
         <v>25352</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2">
       <c r="A383" t="s">
         <v>582</v>
       </c>
@@ -14689,7 +14712,7 @@
         <v>25353</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2">
       <c r="A384" t="s">
         <v>583</v>
       </c>
@@ -14697,7 +14720,7 @@
         <v>25354</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2">
       <c r="A385" t="s">
         <v>584</v>
       </c>
@@ -14705,7 +14728,7 @@
         <v>25355</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2">
       <c r="A386" t="s">
         <v>585</v>
       </c>
@@ -14713,7 +14736,7 @@
         <v>25356</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2">
       <c r="A387" t="s">
         <v>586</v>
       </c>
@@ -14721,7 +14744,7 @@
         <v>25357</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2">
       <c r="A388" t="s">
         <v>587</v>
       </c>
@@ -14729,7 +14752,7 @@
         <v>25358</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2">
       <c r="A389" t="s">
         <v>588</v>
       </c>
@@ -14737,7 +14760,7 @@
         <v>25359</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2">
       <c r="A390" t="s">
         <v>589</v>
       </c>
@@ -14745,7 +14768,7 @@
         <v>25360</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2">
       <c r="A391" t="s">
         <v>590</v>
       </c>
@@ -14753,7 +14776,7 @@
         <v>25401</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2">
       <c r="A392" t="s">
         <v>591</v>
       </c>
@@ -14761,7 +14784,7 @@
         <v>25402</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2">
       <c r="A393" t="s">
         <v>592</v>
       </c>
@@ -14769,7 +14792,7 @@
         <v>25403</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2">
       <c r="A394" t="s">
         <v>593</v>
       </c>
@@ -14777,7 +14800,7 @@
         <v>25404</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2">
       <c r="A395" t="s">
         <v>594</v>
       </c>
@@ -14785,7 +14808,7 @@
         <v>25405</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2">
       <c r="A396" t="s">
         <v>595</v>
       </c>
@@ -14793,7 +14816,7 @@
         <v>25406</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2">
       <c r="A397" t="s">
         <v>596</v>
       </c>
@@ -14801,7 +14824,7 @@
         <v>25407</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2">
       <c r="A398" t="s">
         <v>597</v>
       </c>
@@ -14809,7 +14832,7 @@
         <v>25408</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2">
       <c r="A399" t="s">
         <v>598</v>
       </c>
@@ -14817,7 +14840,7 @@
         <v>25409</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2">
       <c r="A400" t="s">
         <v>599</v>
       </c>
@@ -14825,7 +14848,7 @@
         <v>25410</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2">
       <c r="A401" t="s">
         <v>600</v>
       </c>
@@ -14833,7 +14856,7 @@
         <v>25451</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2">
       <c r="A402" t="s">
         <v>601</v>
       </c>
@@ -14841,7 +14864,7 @@
         <v>25452</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2">
       <c r="A403" t="s">
         <v>602</v>
       </c>
@@ -14849,7 +14872,7 @@
         <v>25453</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2">
       <c r="A404" t="s">
         <v>603</v>
       </c>
@@ -14857,7 +14880,7 @@
         <v>25454</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2">
       <c r="A405" t="s">
         <v>604</v>
       </c>
@@ -14865,7 +14888,7 @@
         <v>25455</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2">
       <c r="A406" t="s">
         <v>605</v>
       </c>
@@ -14873,7 +14896,7 @@
         <v>25456</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2">
       <c r="A407" t="s">
         <v>606</v>
       </c>
@@ -14881,7 +14904,7 @@
         <v>25457</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2">
       <c r="A408" t="s">
         <v>607</v>
       </c>
@@ -14889,7 +14912,7 @@
         <v>25458</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2">
       <c r="A409" t="s">
         <v>608</v>
       </c>
@@ -14897,7 +14920,7 @@
         <v>25459</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2">
       <c r="A410" t="s">
         <v>609</v>
       </c>
@@ -14905,7 +14928,7 @@
         <v>25460</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2">
       <c r="A411" t="s">
         <v>610</v>
       </c>
@@ -14913,7 +14936,7 @@
         <v>25501</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2">
       <c r="A412" t="s">
         <v>611</v>
       </c>
@@ -14921,7 +14944,7 @@
         <v>25502</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2">
       <c r="A413" t="s">
         <v>612</v>
       </c>
@@ -14929,7 +14952,7 @@
         <v>25503</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2">
       <c r="A414" t="s">
         <v>613</v>
       </c>
@@ -14937,7 +14960,7 @@
         <v>25504</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2">
       <c r="A415" t="s">
         <v>614</v>
       </c>
@@ -14945,7 +14968,7 @@
         <v>25505</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2">
       <c r="A416" t="s">
         <v>615</v>
       </c>
@@ -14953,7 +14976,7 @@
         <v>25506</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2">
       <c r="A417" t="s">
         <v>616</v>
       </c>
@@ -14961,7 +14984,7 @@
         <v>25507</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2">
       <c r="A418" t="s">
         <v>617</v>
       </c>
@@ -14969,7 +14992,7 @@
         <v>25508</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2">
       <c r="A419" t="s">
         <v>618</v>
       </c>
@@ -14977,7 +15000,7 @@
         <v>25509</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2">
       <c r="A420" t="s">
         <v>619</v>
       </c>
@@ -14985,7 +15008,7 @@
         <v>25510</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2">
       <c r="A421" t="s">
         <v>620</v>
       </c>
@@ -14993,7 +15016,7 @@
         <v>25551</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2">
       <c r="A422" t="s">
         <v>621</v>
       </c>
@@ -15001,7 +15024,7 @@
         <v>25552</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2">
       <c r="A423" t="s">
         <v>622</v>
       </c>
@@ -15009,7 +15032,7 @@
         <v>25553</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2">
       <c r="A424" t="s">
         <v>623</v>
       </c>
@@ -15017,7 +15040,7 @@
         <v>25554</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2">
       <c r="A425" t="s">
         <v>624</v>
       </c>
@@ -15025,7 +15048,7 @@
         <v>25555</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2">
       <c r="A426" t="s">
         <v>625</v>
       </c>
@@ -15033,7 +15056,7 @@
         <v>25556</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2">
       <c r="A427" t="s">
         <v>626</v>
       </c>
@@ -15041,7 +15064,7 @@
         <v>25557</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2">
       <c r="A428" t="s">
         <v>627</v>
       </c>
@@ -15049,7 +15072,7 @@
         <v>25558</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2">
       <c r="A429" t="s">
         <v>628</v>
       </c>
@@ -15057,7 +15080,7 @@
         <v>25559</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2">
       <c r="A430" t="s">
         <v>629</v>
       </c>
@@ -15065,7 +15088,7 @@
         <v>25560</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2">
       <c r="A431" t="s">
         <v>630</v>
       </c>
@@ -15073,7 +15096,7 @@
         <v>23201</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2">
       <c r="A432" t="s">
         <v>631</v>
       </c>
@@ -15081,7 +15104,7 @@
         <v>23202</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2">
       <c r="A433" t="s">
         <v>632</v>
       </c>
@@ -15089,7 +15112,7 @@
         <v>23203</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2">
       <c r="A434" t="s">
         <v>633</v>
       </c>
@@ -15097,7 +15120,7 @@
         <v>23204</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2">
       <c r="A435" t="s">
         <v>634</v>
       </c>
@@ -15105,7 +15128,7 @@
         <v>23205</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2">
       <c r="A436" t="s">
         <v>635</v>
       </c>
@@ -15113,7 +15136,7 @@
         <v>23206</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2">
       <c r="A437" t="s">
         <v>636</v>
       </c>
@@ -15121,7 +15144,7 @@
         <v>23207</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2">
       <c r="A438" t="s">
         <v>637</v>
       </c>
@@ -15129,7 +15152,7 @@
         <v>23208</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2">
       <c r="A439" t="s">
         <v>638</v>
       </c>
@@ -15137,7 +15160,7 @@
         <v>23209</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2">
       <c r="A440" t="s">
         <v>639</v>
       </c>
@@ -15145,7 +15168,7 @@
         <v>24201</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2">
       <c r="A441" t="s">
         <v>640</v>
       </c>
@@ -15153,7 +15176,7 @@
         <v>24202</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2">
       <c r="A442" t="s">
         <v>641</v>
       </c>
@@ -15161,7 +15184,7 @@
         <v>24203</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2">
       <c r="A443" t="s">
         <v>642</v>
       </c>
@@ -15169,7 +15192,7 @@
         <v>24204</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2">
       <c r="A444" t="s">
         <v>643</v>
       </c>
@@ -15177,7 +15200,7 @@
         <v>24205</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2">
       <c r="A445" t="s">
         <v>644</v>
       </c>
@@ -15185,7 +15208,7 @@
         <v>24206</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2">
       <c r="A446" t="s">
         <v>645</v>
       </c>
@@ -15193,7 +15216,7 @@
         <v>24207</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2">
       <c r="A447" t="s">
         <v>646</v>
       </c>
@@ -15201,7 +15224,7 @@
         <v>24208</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2">
       <c r="A449" t="s">
         <v>647</v>
       </c>
@@ -15209,7 +15232,7 @@
         <v>150101</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2">
       <c r="A450" t="s">
         <v>648</v>
       </c>
@@ -15217,7 +15240,7 @@
         <v>150102</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2">
       <c r="A451" t="s">
         <v>649</v>
       </c>
@@ -15225,7 +15248,7 @@
         <v>150103</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2">
       <c r="A452" t="s">
         <v>650</v>
       </c>
@@ -15233,7 +15256,7 @@
         <v>150104</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2">
       <c r="A453" t="s">
         <v>651</v>
       </c>
@@ -15241,7 +15264,7 @@
         <v>150105</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2">
       <c r="A454" t="s">
         <v>652</v>
       </c>
@@ -15249,7 +15272,7 @@
         <v>150106</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2">
       <c r="A455" t="s">
         <v>653</v>
       </c>
@@ -15257,7 +15280,7 @@
         <v>150107</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2">
       <c r="A456" t="s">
         <v>654</v>
       </c>
@@ -15265,7 +15288,7 @@
         <v>130102</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2">
       <c r="A457" t="s">
         <v>655</v>
       </c>
@@ -15273,7 +15296,7 @@
         <v>130103</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2">
       <c r="A458" t="s">
         <v>656</v>
       </c>
@@ -15281,7 +15304,7 @@
         <v>130104</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2">
       <c r="A459" t="s">
         <v>657</v>
       </c>
@@ -15289,7 +15312,7 @@
         <v>130105</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2">
       <c r="A460" t="s">
         <v>658</v>
       </c>
@@ -15297,7 +15320,7 @@
         <v>130106</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2">
       <c r="A461" t="s">
         <v>659</v>
       </c>
@@ -15305,7 +15328,7 @@
         <v>130107</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2">
       <c r="A462" t="s">
         <v>660</v>
       </c>
@@ -15313,7 +15336,7 @@
         <v>130108</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2">
       <c r="A463" t="s">
         <v>661</v>
       </c>
@@ -15321,7 +15344,7 @@
         <v>110101</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2">
       <c r="A464" t="s">
         <v>662</v>
       </c>
@@ -15329,7 +15352,7 @@
         <v>110102</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2">
       <c r="A465" t="s">
         <v>663</v>
       </c>
@@ -15337,7 +15360,7 @@
         <v>110103</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2">
       <c r="A466" t="s">
         <v>664</v>
       </c>
@@ -15345,7 +15368,7 @@
         <v>110104</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2">
       <c r="A467" t="s">
         <v>665</v>
       </c>
@@ -15353,7 +15376,7 @@
         <v>110105</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2">
       <c r="A468" t="s">
         <v>666</v>
       </c>
@@ -15361,7 +15384,7 @@
         <v>120101</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2">
       <c r="A469" t="s">
         <v>667</v>
       </c>
@@ -15369,7 +15392,7 @@
         <v>120102</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2">
       <c r="A470" t="s">
         <v>668</v>
       </c>
@@ -15377,7 +15400,7 @@
         <v>120103</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2">
       <c r="A471" t="s">
         <v>669</v>
       </c>
@@ -15385,7 +15408,7 @@
         <v>120104</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2">
       <c r="A472" t="s">
         <v>670</v>
       </c>
@@ -15393,7 +15416,7 @@
         <v>120201</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2">
       <c r="A473" t="s">
         <v>671</v>
       </c>
@@ -15401,7 +15424,7 @@
         <v>120202</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2">
       <c r="A474" t="s">
         <v>672</v>
       </c>
@@ -15409,7 +15432,7 @@
         <v>120203</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2">
       <c r="A475" t="s">
         <v>673</v>
       </c>
@@ -15417,7 +15440,7 @@
         <v>120204</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2">
       <c r="A476" t="s">
         <v>674</v>
       </c>
@@ -15425,7 +15448,7 @@
         <v>120301</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2">
       <c r="A477" t="s">
         <v>675</v>
       </c>
@@ -15433,7 +15456,7 @@
         <v>120302</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2">
       <c r="A478" t="s">
         <v>676</v>
       </c>
@@ -15441,7 +15464,7 @@
         <v>120303</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2">
       <c r="A479" t="s">
         <v>677</v>
       </c>
@@ -15449,7 +15472,7 @@
         <v>120304</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2">
       <c r="A480" t="s">
         <v>678</v>
       </c>
@@ -15457,7 +15480,7 @@
         <v>180001</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2">
       <c r="A481" t="s">
         <v>679</v>
       </c>
@@ -15465,7 +15488,7 @@
         <v>180002</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2">
       <c r="A482" t="s">
         <v>680</v>
       </c>
@@ -15473,7 +15496,7 @@
         <v>180003</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2">
       <c r="A483" t="s">
         <v>681</v>
       </c>
@@ -15481,7 +15504,7 @@
         <v>180004</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2">
       <c r="A484" t="s">
         <v>682</v>
       </c>
@@ -15489,7 +15512,7 @@
         <v>180005</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2">
       <c r="A485" t="s">
         <v>683</v>
       </c>
@@ -15497,7 +15520,7 @@
         <v>180006</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2">
       <c r="A486" t="s">
         <v>684</v>
       </c>
@@ -15505,7 +15528,7 @@
         <v>180007</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2">
       <c r="A487" t="s">
         <v>685</v>
       </c>
@@ -15513,7 +15536,7 @@
         <v>180008</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2">
       <c r="A488" t="s">
         <v>686</v>
       </c>
@@ -15521,7 +15544,7 @@
         <v>180009</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2">
       <c r="A489" t="s">
         <v>687</v>
       </c>
@@ -15529,7 +15552,7 @@
         <v>180010</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2">
       <c r="A490" t="s">
         <v>688</v>
       </c>
@@ -15537,7 +15560,7 @@
         <v>180013</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2">
       <c r="A491" t="s">
         <v>689</v>
       </c>
@@ -15545,7 +15568,7 @@
         <v>180014</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2">
       <c r="A492" t="s">
         <v>690</v>
       </c>
@@ -15553,7 +15576,7 @@
         <v>180015</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2">
       <c r="A493" t="s">
         <v>691</v>
       </c>
@@ -15561,7 +15584,7 @@
         <v>180016</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2">
       <c r="A494" t="s">
         <v>692</v>
       </c>
@@ -15569,7 +15592,7 @@
         <v>190001</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2">
       <c r="A495" t="s">
         <v>693</v>
       </c>
@@ -15577,7 +15600,7 @@
         <v>190002</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2">
       <c r="A496" t="s">
         <v>694</v>
       </c>
@@ -15585,7 +15608,7 @@
         <v>190003</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2">
       <c r="A497" t="s">
         <v>695</v>
       </c>
@@ -15593,7 +15616,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2">
       <c r="A498" t="s">
         <v>696</v>
       </c>
@@ -15601,7 +15624,7 @@
         <v>140101</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2">
       <c r="A499" t="s">
         <v>697</v>
       </c>
@@ -15609,7 +15632,7 @@
         <v>140102</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2">
       <c r="A500" t="s">
         <v>698</v>
       </c>
@@ -15617,7 +15640,7 @@
         <v>140103</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2">
       <c r="A501" t="s">
         <v>699</v>
       </c>
@@ -15625,7 +15648,7 @@
         <v>140104</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2">
       <c r="A502" t="s">
         <v>700</v>
       </c>
@@ -15633,7 +15656,7 @@
         <v>140105</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2">
       <c r="A503" t="s">
         <v>701</v>
       </c>
@@ -15641,7 +15664,7 @@
         <v>140106</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2">
       <c r="A504" t="s">
         <v>702</v>
       </c>
@@ -15649,7 +15672,7 @@
         <v>140107</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2">
       <c r="A505" t="s">
         <v>703</v>
       </c>
@@ -15657,7 +15680,7 @@
         <v>140108</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2">
       <c r="A506" t="s">
         <v>704</v>
       </c>
@@ -15665,7 +15688,7 @@
         <v>140109</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2">
       <c r="A507" t="s">
         <v>705</v>
       </c>
@@ -15673,7 +15696,7 @@
         <v>140110</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2">
       <c r="A508" t="s">
         <v>706</v>
       </c>
@@ -15681,7 +15704,7 @@
         <v>140111</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2">
       <c r="A509" t="s">
         <v>707</v>
       </c>
@@ -15689,7 +15712,7 @@
         <v>140112</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2">
       <c r="A510" t="s">
         <v>708</v>
       </c>
@@ -15697,7 +15720,7 @@
         <v>140113</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2">
       <c r="A511" t="s">
         <v>709</v>
       </c>
@@ -15705,7 +15728,7 @@
         <v>140114</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2">
       <c r="A512" t="s">
         <v>710</v>
       </c>
@@ -15713,7 +15736,7 @@
         <v>180017</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2">
       <c r="A513" t="s">
         <v>711</v>
       </c>
@@ -15721,7 +15744,7 @@
         <v>180018</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2">
       <c r="A514" t="s">
         <v>712</v>
       </c>
@@ -15729,7 +15752,7 @@
         <v>180020</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2">
       <c r="A515" t="s">
         <v>713</v>
       </c>
@@ -15737,7 +15760,7 @@
         <v>180021</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2">
       <c r="A516" t="s">
         <v>714</v>
       </c>
@@ -15745,7 +15768,7 @@
         <v>180023</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2">
       <c r="A517" t="s">
         <v>715</v>
       </c>
@@ -15753,7 +15776,7 @@
         <v>180024</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2">
       <c r="A518" t="s">
         <v>716</v>
       </c>
@@ -15761,7 +15784,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2">
       <c r="A519" t="s">
         <v>717</v>
       </c>
@@ -15769,7 +15792,7 @@
         <v>220001</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2">
       <c r="A520" t="s">
         <v>718</v>
       </c>
@@ -15777,7 +15800,7 @@
         <v>220002</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2">
       <c r="A521" t="s">
         <v>719</v>
       </c>
@@ -15785,7 +15808,7 @@
         <v>220003</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2">
       <c r="A522" t="s">
         <v>720</v>
       </c>
@@ -15793,7 +15816,7 @@
         <v>220004</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2">
       <c r="A523" t="s">
         <v>721</v>
       </c>
@@ -15801,7 +15824,7 @@
         <v>220005</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2">
       <c r="A524" t="s">
         <v>722</v>
       </c>
@@ -15809,7 +15832,7 @@
         <v>220006</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2">
       <c r="A525" t="s">
         <v>723</v>
       </c>
@@ -15817,7 +15840,7 @@
         <v>220007</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2">
       <c r="A526" t="s">
         <v>724</v>
       </c>
@@ -15825,7 +15848,7 @@
         <v>220008</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2">
       <c r="A527" t="s">
         <v>725</v>
       </c>
@@ -15833,7 +15856,7 @@
         <v>220009</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2">
       <c r="A528" t="s">
         <v>726</v>
       </c>
@@ -15841,7 +15864,7 @@
         <v>180027</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2">
       <c r="A529" t="s">
         <v>727</v>
       </c>
@@ -15849,7 +15872,7 @@
         <v>150108</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2">
       <c r="A530" t="s">
         <v>728</v>
       </c>
@@ -15857,7 +15880,7 @@
         <v>150109</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2">
       <c r="A531" t="s">
         <v>729</v>
       </c>
@@ -15865,7 +15888,7 @@
         <v>110106</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2">
       <c r="A532" t="s">
         <v>730</v>
       </c>
@@ -15873,7 +15896,7 @@
         <v>170101</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2">
       <c r="A533" t="s">
         <v>108</v>
       </c>
@@ -15881,7 +15904,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2">
       <c r="A534" t="s">
         <v>109</v>
       </c>
@@ -15889,7 +15912,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2">
       <c r="A535" t="s">
         <v>110</v>
       </c>
@@ -15897,7 +15920,7 @@
         <v>40003</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2">
       <c r="A536" t="s">
         <v>111</v>
       </c>
@@ -15905,7 +15928,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2">
       <c r="A537" t="s">
         <v>112</v>
       </c>
@@ -15913,7 +15936,7 @@
         <v>40005</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2">
       <c r="A538" t="s">
         <v>731</v>
       </c>
@@ -15921,7 +15944,7 @@
         <v>220010</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2">
       <c r="A539" t="s">
         <v>732</v>
       </c>
@@ -15929,7 +15952,7 @@
         <v>220011</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2">
       <c r="A540" t="s">
         <v>733</v>
       </c>
@@ -15937,7 +15960,7 @@
         <v>220012</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2">
       <c r="A541" t="s">
         <v>734</v>
       </c>
@@ -15945,7 +15968,7 @@
         <v>220013</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2">
       <c r="A542" t="s">
         <v>735</v>
       </c>
@@ -15953,7 +15976,7 @@
         <v>220014</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2">
       <c r="A543" t="s">
         <v>736</v>
       </c>
@@ -15961,7 +15984,7 @@
         <v>220015</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2">
       <c r="A544" t="s">
         <v>737</v>
       </c>
@@ -15969,7 +15992,7 @@
         <v>140121</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2">
       <c r="A545" t="s">
         <v>738</v>
       </c>
@@ -15977,7 +16000,7 @@
         <v>140122</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2">
       <c r="A546" t="s">
         <v>739</v>
       </c>
@@ -15985,7 +16008,7 @@
         <v>130112</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2">
       <c r="A547" t="s">
         <v>740</v>
       </c>
@@ -15993,7 +16016,7 @@
         <v>130113</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2">
       <c r="A548" t="s">
         <v>741</v>
       </c>
@@ -16001,7 +16024,7 @@
         <v>20019</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2">
       <c r="A549" t="s">
         <v>738</v>
       </c>
@@ -16009,7 +16032,7 @@
         <v>140122</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2">
       <c r="A550" t="s">
         <v>742</v>
       </c>
@@ -16017,7 +16040,7 @@
         <v>140123</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2">
       <c r="A551" t="s">
         <v>743</v>
       </c>
@@ -16025,7 +16048,7 @@
         <v>140124</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2">
       <c r="A552" t="s">
         <v>744</v>
       </c>
@@ -16033,7 +16056,7 @@
         <v>140125</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2">
       <c r="A553" t="s">
         <v>745</v>
       </c>
@@ -16041,7 +16064,7 @@
         <v>140126</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2">
       <c r="A554" t="s">
         <v>746</v>
       </c>
@@ -16049,7 +16072,7 @@
         <v>140127</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2">
       <c r="A555" t="s">
         <v>747</v>
       </c>
@@ -16057,7 +16080,7 @@
         <v>130114</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2">
       <c r="A556" t="s">
         <v>748</v>
       </c>
@@ -16065,7 +16088,7 @@
         <v>130115</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2">
       <c r="A557" t="s">
         <v>749</v>
       </c>
@@ -16073,7 +16096,7 @@
         <v>130116</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2">
       <c r="A558" t="s">
         <v>750</v>
       </c>
@@ -16081,7 +16104,7 @@
         <v>130117</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2">
       <c r="A559" t="s">
         <v>751</v>
       </c>
@@ -16089,7 +16112,7 @@
         <v>130118</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2">
       <c r="A560" t="s">
         <v>752</v>
       </c>
@@ -16097,7 +16120,7 @@
         <v>130119</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2">
       <c r="A561" t="s">
         <v>753</v>
       </c>
@@ -16105,7 +16128,7 @@
         <v>130120</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2">
       <c r="A562" t="s">
         <v>754</v>
       </c>
@@ -16113,7 +16136,7 @@
         <v>180035</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2">
       <c r="A563" t="s">
         <v>755</v>
       </c>
@@ -16121,7 +16144,7 @@
         <v>150110</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2">
       <c r="A564" t="s">
         <v>756</v>
       </c>
@@ -16129,7 +16152,7 @@
         <v>150111</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2">
       <c r="A565" t="s">
         <v>757</v>
       </c>
@@ -16137,7 +16160,7 @@
         <v>150112</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2">
       <c r="A566" t="s">
         <v>758</v>
       </c>
@@ -16145,7 +16168,7 @@
         <v>110107</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2">
       <c r="A567" t="s">
         <v>759</v>
       </c>
@@ -16153,7 +16176,7 @@
         <v>110108</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2">
       <c r="A568" t="s">
         <v>760</v>
       </c>
@@ -16161,7 +16184,7 @@
         <v>110109</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2">
       <c r="A569" t="s">
         <v>761</v>
       </c>
@@ -16169,7 +16192,7 @@
         <v>190004</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2">
       <c r="A570" t="s">
         <v>762</v>
       </c>
@@ -16177,7 +16200,7 @@
         <v>190005</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2">
       <c r="A571" t="s">
         <v>763</v>
       </c>
@@ -16185,7 +16208,7 @@
         <v>140128</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2">
       <c r="A572" t="s">
         <v>764</v>
       </c>
@@ -16193,7 +16216,7 @@
         <v>180036</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2">
       <c r="A573" t="s">
         <v>765</v>
       </c>
@@ -16201,7 +16224,7 @@
         <v>240001</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2">
       <c r="A574" t="s">
         <v>766</v>
       </c>
@@ -16209,7 +16232,7 @@
         <v>240002</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2">
       <c r="A575" t="s">
         <v>767</v>
       </c>
@@ -16217,7 +16240,7 @@
         <v>240003</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2">
       <c r="A576" t="s">
         <v>768</v>
       </c>
@@ -16225,7 +16248,7 @@
         <v>240004</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2">
       <c r="A577" t="s">
         <v>769</v>
       </c>
@@ -16233,7 +16256,7 @@
         <v>240005</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2">
       <c r="A578" t="s">
         <v>770</v>
       </c>
@@ -16241,7 +16264,7 @@
         <v>240006</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2">
       <c r="A579" t="s">
         <v>771</v>
       </c>
@@ -16249,7 +16272,7 @@
         <v>240007</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2">
       <c r="A580" t="s">
         <v>772</v>
       </c>
@@ -16257,7 +16280,7 @@
         <v>240008</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2">
       <c r="A581" t="s">
         <v>773</v>
       </c>
@@ -16265,7 +16288,7 @@
         <v>120205</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2">
       <c r="A582" t="s">
         <v>774</v>
       </c>
@@ -16273,7 +16296,7 @@
         <v>120105</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2">
       <c r="A583" t="s">
         <v>775</v>
       </c>
@@ -16281,7 +16304,7 @@
         <v>120305</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2">
       <c r="A584" t="s">
         <v>776</v>
       </c>
@@ -16289,7 +16312,7 @@
         <v>150113</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2">
       <c r="A585" t="s">
         <v>777</v>
       </c>
@@ -16297,7 +16320,7 @@
         <v>150114</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2">
       <c r="A586" t="s">
         <v>778</v>
       </c>
@@ -16305,7 +16328,7 @@
         <v>150115</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2">
       <c r="A587" t="s">
         <v>779</v>
       </c>
@@ -16313,7 +16336,7 @@
         <v>140129</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2">
       <c r="A588" t="s">
         <v>780</v>
       </c>
@@ -16321,7 +16344,7 @@
         <v>140130</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2">
       <c r="A589" t="s">
         <v>781</v>
       </c>
@@ -16329,7 +16352,7 @@
         <v>140131</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2">
       <c r="A590" t="s">
         <v>782</v>
       </c>
@@ -16337,7 +16360,7 @@
         <v>140132</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2">
       <c r="A591" t="s">
         <v>783</v>
       </c>
@@ -16345,7 +16368,7 @@
         <v>140133</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2">
       <c r="A592" t="s">
         <v>784</v>
       </c>
@@ -16353,7 +16376,7 @@
         <v>130121</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2">
       <c r="A593" t="s">
         <v>785</v>
       </c>
@@ -16361,7 +16384,7 @@
         <v>130122</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2">
       <c r="A594" t="s">
         <v>786</v>
       </c>
@@ -16369,7 +16392,7 @@
         <v>130123</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2">
       <c r="A595" t="s">
         <v>787</v>
       </c>
@@ -16377,7 +16400,7 @@
         <v>130124</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2">
       <c r="A596" t="s">
         <v>788</v>
       </c>
@@ -16385,7 +16408,7 @@
         <v>130125</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2">
       <c r="A597" t="s">
         <v>789</v>
       </c>
@@ -16393,7 +16416,7 @@
         <v>110110</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2">
       <c r="A598" t="s">
         <v>790</v>
       </c>
@@ -16401,7 +16424,7 @@
         <v>110111</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2">
       <c r="A599" t="s">
         <v>791</v>
       </c>
@@ -16409,7 +16432,7 @@
         <v>110112</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2">
       <c r="A600" t="s">
         <v>792</v>
       </c>
@@ -16417,7 +16440,7 @@
         <v>180037</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2">
       <c r="A601" t="s">
         <v>793</v>
       </c>
@@ -16425,7 +16448,7 @@
         <v>180038</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2">
       <c r="A602" t="s">
         <v>794</v>
       </c>
@@ -16433,7 +16456,7 @@
         <v>190006</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2">
       <c r="A603" t="s">
         <v>795</v>
       </c>
@@ -16441,7 +16464,7 @@
         <v>190007</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2">
       <c r="A604" t="s">
         <v>796</v>
       </c>
@@ -16449,7 +16472,7 @@
         <v>100202</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2">
       <c r="A605" t="s">
         <v>797</v>
       </c>
@@ -16457,7 +16480,7 @@
         <v>100203</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2">
       <c r="A606" t="s">
         <v>798</v>
       </c>
@@ -16465,7 +16488,7 @@
         <v>100204</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2">
       <c r="A607" t="s">
         <v>799</v>
       </c>
@@ -16473,7 +16496,7 @@
         <v>280001</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2">
       <c r="A608" t="s">
         <v>800</v>
       </c>
@@ -16481,7 +16504,7 @@
         <v>280002</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2">
       <c r="A609" t="s">
         <v>801</v>
       </c>
@@ -16489,7 +16512,7 @@
         <v>280003</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2">
       <c r="A610" t="s">
         <v>802</v>
       </c>
@@ -16497,7 +16520,7 @@
         <v>280004</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2">
       <c r="A611" t="s">
         <v>803</v>
       </c>
@@ -16505,7 +16528,7 @@
         <v>280005</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2">
       <c r="A612" t="s">
         <v>804</v>
       </c>
@@ -16513,7 +16536,7 @@
         <v>280006</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2">
       <c r="A613" t="s">
         <v>108</v>
       </c>
@@ -16521,7 +16544,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2">
       <c r="A614" t="s">
         <v>109</v>
       </c>
@@ -16529,7 +16552,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2">
       <c r="A615" t="s">
         <v>110</v>
       </c>
@@ -16537,7 +16560,7 @@
         <v>40003</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2">
       <c r="A616" t="s">
         <v>111</v>
       </c>
@@ -16545,7 +16568,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2">
       <c r="A617" t="s">
         <v>112</v>
       </c>
@@ -16553,7 +16576,7 @@
         <v>40005</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2">
       <c r="A618" t="s">
         <v>805</v>
       </c>
@@ -16561,7 +16584,7 @@
         <v>40006</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2">
       <c r="A619" t="s">
         <v>806</v>
       </c>
@@ -16569,7 +16592,7 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2">
       <c r="A620" t="s">
         <v>807</v>
       </c>
@@ -16577,7 +16600,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2">
       <c r="A621" t="s">
         <v>808</v>
       </c>
@@ -16585,7 +16608,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2">
       <c r="A622" t="s">
         <v>809</v>
       </c>
@@ -16593,7 +16616,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2">
       <c r="A623" t="s">
         <v>810</v>
       </c>
@@ -16601,7 +16624,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2">
       <c r="A624" t="s">
         <v>811</v>
       </c>
@@ -16609,7 +16632,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2">
       <c r="A625" t="s">
         <v>812</v>
       </c>
@@ -16617,7 +16640,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2">
       <c r="A626" t="s">
         <v>813</v>
       </c>
@@ -16625,7 +16648,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2">
       <c r="A627" t="s">
         <v>814</v>
       </c>
@@ -16633,7 +16656,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2">
       <c r="A628" t="s">
         <v>815</v>
       </c>
@@ -16641,7 +16664,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2">
       <c r="A629" t="s">
         <v>816</v>
       </c>
@@ -16649,7 +16672,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2">
       <c r="A630" t="s">
         <v>817</v>
       </c>
@@ -16657,7 +16680,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2">
       <c r="A631" t="s">
         <v>818</v>
       </c>
@@ -16665,7 +16688,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2">
       <c r="A632" t="s">
         <v>819</v>
       </c>
@@ -16673,7 +16696,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2">
       <c r="A633" t="s">
         <v>820</v>
       </c>
@@ -16681,7 +16704,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2">
       <c r="A634" t="s">
         <v>821</v>
       </c>
@@ -16689,7 +16712,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2">
       <c r="A635" t="s">
         <v>822</v>
       </c>
@@ -16697,7 +16720,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2">
       <c r="A636" t="s">
         <v>823</v>
       </c>
@@ -16705,7 +16728,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2">
       <c r="A637" t="s">
         <v>225</v>
       </c>
@@ -16713,7 +16736,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2">
       <c r="A638" t="s">
         <v>824</v>
       </c>
@@ -16721,7 +16744,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2">
       <c r="A639" t="s">
         <v>825</v>
       </c>
@@ -16729,7 +16752,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2">
       <c r="A640" t="s">
         <v>826</v>
       </c>
@@ -16737,7 +16760,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2">
       <c r="A641" t="s">
         <v>827</v>
       </c>
@@ -16745,7 +16768,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2">
       <c r="A642" t="s">
         <v>828</v>
       </c>
@@ -16753,7 +16776,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2">
       <c r="A643" t="s">
         <v>829</v>
       </c>
@@ -16761,7 +16784,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2">
       <c r="A644" t="s">
         <v>830</v>
       </c>
@@ -16769,7 +16792,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2">
       <c r="A645" t="s">
         <v>831</v>
       </c>
@@ -16777,7 +16800,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2">
       <c r="A646" t="s">
         <v>832</v>
       </c>
@@ -16785,7 +16808,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2">
       <c r="A647" t="s">
         <v>833</v>
       </c>
@@ -16793,7 +16816,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2">
       <c r="A648" t="s">
         <v>834</v>
       </c>
@@ -16801,7 +16824,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2">
       <c r="A649" t="s">
         <v>835</v>
       </c>
@@ -16809,7 +16832,7 @@
         <v>3411</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2">
       <c r="A650" t="s">
         <v>836</v>
       </c>
@@ -16817,7 +16840,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2">
       <c r="A651" t="s">
         <v>837</v>
       </c>
@@ -16825,7 +16848,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2">
       <c r="A652" t="s">
         <v>838</v>
       </c>
@@ -16833,7 +16856,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2">
       <c r="A653" t="s">
         <v>843</v>
       </c>
@@ -16841,7 +16864,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2">
       <c r="A654" t="s">
         <v>108</v>
       </c>
@@ -16849,7 +16872,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2">
       <c r="A655" t="s">
         <v>806</v>
       </c>
@@ -16857,7 +16880,7 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2">
       <c r="A656" t="s">
         <v>845</v>
       </c>
@@ -16865,7 +16888,7 @@
         <v>20033</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2">
       <c r="A657" t="s">
         <v>846</v>
       </c>
@@ -16873,7 +16896,7 @@
         <v>20034</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2">
       <c r="A658" t="s">
         <v>847</v>
       </c>
@@ -16881,7 +16904,7 @@
         <v>20035</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2">
       <c r="A659" t="s">
         <v>848</v>
       </c>
@@ -16889,7 +16912,7 @@
         <v>20036</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2">
       <c r="A660" t="s">
         <v>849</v>
       </c>
@@ -16897,7 +16920,7 @@
         <v>20037</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2">
       <c r="A661" t="s">
         <v>850</v>
       </c>
@@ -16905,7 +16928,7 @@
         <v>20038</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2">
       <c r="A662" t="s">
         <v>851</v>
       </c>
@@ -16927,13 +16950,13 @@
       <selection activeCell="J1" sqref="J1:K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="21" t="s">
         <v>881</v>
       </c>
@@ -16950,7 +16973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>855</v>
       </c>
@@ -16978,7 +17001,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>856</v>
       </c>
@@ -17008,7 +17031,7 @@
         <v>1.7111111111111112</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>857</v>
       </c>
@@ -17038,7 +17061,7 @@
         <v>2.7637426900584794</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>858</v>
       </c>
@@ -17068,7 +17091,7 @@
         <v>6.0970760233918124</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>859</v>
       </c>
@@ -17098,7 +17121,7 @@
         <v>10.097076023391812</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>860</v>
       </c>
@@ -17128,7 +17151,7 @@
         <v>13.968043765327296</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>861</v>
       </c>
@@ -17158,7 +17181,7 @@
         <v>18.968043765327295</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>862</v>
       </c>
@@ -17188,7 +17211,7 @@
         <v>25.068043765327296</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>863</v>
       </c>
@@ -17218,7 +17241,7 @@
         <v>32.268043765327299</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>864</v>
       </c>
@@ -17248,7 +17271,7 @@
         <v>40.568043765327303</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>865</v>
       </c>
@@ -17263,7 +17286,7 @@
         <v>50.028043765327304</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>867</v>
       </c>
@@ -17278,7 +17301,7 @@
         <v>60.348043765327304</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>868</v>
       </c>
@@ -17293,7 +17316,7 @@
         <v>71.528043765327311</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>869</v>
       </c>
@@ -17308,7 +17331,7 @@
         <v>83.568043765327303</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>870</v>
       </c>
@@ -17323,7 +17346,7 @@
         <v>96.468043765327309</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>871</v>
       </c>
@@ -17338,7 +17361,7 @@
         <v>110.22804376532731</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>872</v>
       </c>
@@ -17353,7 +17376,7 @@
         <v>124.84804376532732</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="J19" s="8">
         <v>15.48</v>
       </c>
@@ -17362,7 +17385,7 @@
         <v>140.32804376532732</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="J20" s="8">
         <v>16.34</v>
       </c>
@@ -17371,7 +17394,7 @@
         <v>156.66804376532733</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="J21" s="8">
         <v>17.2</v>
       </c>
@@ -17380,7 +17403,7 @@
         <v>173.86804376532731</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="J22" s="8">
         <v>18.059999999999999</v>
       </c>
@@ -17389,7 +17412,7 @@
         <v>191.92804376532732</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="J23" s="8">
         <v>18.919999999999998</v>
       </c>
@@ -17398,7 +17421,7 @@
         <v>210.8480437653273</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="J24" s="8">
         <v>19.78</v>
       </c>
@@ -17407,7 +17430,7 @@
         <v>230.62804376532731</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="J25" s="8">
         <v>20.64</v>
       </c>
@@ -17416,7 +17439,7 @@
         <v>251.26804376532732</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="J26" s="8">
         <v>21.5</v>
       </c>
@@ -17425,7 +17448,7 @@
         <v>272.76804376532732</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="J27" s="8">
         <v>22.36</v>
       </c>
@@ -17434,7 +17457,7 @@
         <v>295.12804376532733</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="J28" s="8">
         <v>23.22</v>
       </c>
@@ -17443,7 +17466,7 @@
         <v>318.34804376532736</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="J29" s="8">
         <v>24.08</v>
       </c>
@@ -17452,7 +17475,7 @@
         <v>342.42804376532735</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="J30" s="8">
         <v>24.94</v>
       </c>
@@ -17461,7 +17484,7 @@
         <v>367.36804376532734</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="J31" s="8">
         <v>25.8</v>
       </c>
@@ -17470,7 +17493,7 @@
         <v>393.16804376532735</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="J32" s="8">
         <v>26.66</v>
       </c>
@@ -17479,7 +17502,7 @@
         <v>419.82804376532738</v>
       </c>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:11">
       <c r="J33" s="8">
         <v>27.52</v>
       </c>
@@ -17488,7 +17511,7 @@
         <v>447.34804376532736</v>
       </c>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:11">
       <c r="J34" s="8">
         <v>28.38</v>
       </c>
@@ -17497,7 +17520,7 @@
         <v>475.72804376532736</v>
       </c>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:11">
       <c r="J35" s="8">
         <v>29.24</v>
       </c>
@@ -17506,7 +17529,7 @@
         <v>504.96804376532737</v>
       </c>
     </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:11">
       <c r="J36" s="8">
         <v>30.099999999999998</v>
       </c>
@@ -17515,7 +17538,7 @@
         <v>535.06804376532739</v>
       </c>
     </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:11">
       <c r="J37" s="8">
         <v>30.96</v>
       </c>
@@ -17543,21 +17566,21 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>894</v>
       </c>
@@ -17570,7 +17593,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -17615,7 +17638,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -17658,7 +17681,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -17702,7 +17725,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -17745,7 +17768,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -17789,7 +17812,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -17833,7 +17856,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -17877,7 +17900,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -17921,7 +17944,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -17965,7 +17988,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -18009,7 +18032,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -18053,7 +18076,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -18097,7 +18120,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -18141,7 +18164,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -18185,7 +18208,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -18229,7 +18252,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -18273,7 +18296,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -18317,7 +18340,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -18361,7 +18384,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -18405,7 +18428,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -18449,7 +18472,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -18493,7 +18516,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -18537,7 +18560,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -18581,7 +18604,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -18625,7 +18648,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -18669,7 +18692,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -18713,7 +18736,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -18757,7 +18780,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -18801,7 +18824,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -18845,7 +18868,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -18889,7 +18912,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -18933,7 +18956,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -18977,7 +19000,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -19021,7 +19044,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -19065,7 +19088,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -19109,7 +19132,7 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -19153,7 +19176,7 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -19197,7 +19220,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row r="39" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -19207,7 +19230,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -19217,7 +19240,7 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -19242,14 +19265,14 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" customWidth="1"/>
     <col min="3" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="21" t="s">
         <v>881</v>
       </c>
@@ -19287,7 +19310,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>915</v>
       </c>
@@ -19325,7 +19348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>860</v>
       </c>
@@ -19363,7 +19386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>861</v>
       </c>
@@ -19401,7 +19424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>867</v>
       </c>
@@ -19439,7 +19462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>868</v>
       </c>
@@ -19477,7 +19500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>869</v>
       </c>
@@ -19515,7 +19538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>870</v>
       </c>
@@ -19553,7 +19576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>871</v>
       </c>
@@ -19591,7 +19614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="C10">
         <f t="shared" ref="C10:L10" si="0">SUMPRODUCT($B$2:$B$9,C2:C9)</f>
         <v>30</v>
@@ -19646,78 +19669,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0535A995-A387-D84B-9BD1-FA42A25E46A9}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="27" t="s">
         <v>912</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="27" t="s">
         <v>913</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="27" t="s">
         <v>923</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="27" t="s">
         <v>924</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="27" t="s">
         <v>925</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="27" t="s">
         <v>916</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="27" t="s">
         <v>917</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="27" t="s">
         <v>918</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="27" t="s">
         <v>919</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="27" t="s">
         <v>920</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="27" t="s">
         <v>921</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="27" t="s">
         <v>922</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="27" t="s">
         <v>936</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="27" t="s">
         <v>941</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="27" t="s">
         <v>942</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="27" t="s">
         <v>940</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="27" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -19774,7 +19799,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -19831,7 +19856,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -19888,7 +19913,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -19929,7 +19954,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -19970,7 +19995,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -20010,23 +20035,35 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="O7" t="s">
+      <c r="O7" s="21" t="s">
         <v>944</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="21" t="s">
         <v>946</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="S7" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="21" t="s">
+        <v>979</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>981</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>982</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>983</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -20069,11 +20106,20 @@
       <c r="O8" t="s">
         <v>937</v>
       </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
       <c r="Q8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="R8" s="12">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -20116,11 +20162,20 @@
       <c r="O9" t="s">
         <v>938</v>
       </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
       <c r="Q9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="R9" s="12">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -20163,11 +20218,20 @@
       <c r="O10" t="s">
         <v>145</v>
       </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
       <c r="Q10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="R10" s="12">
+        <v>60</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -20210,11 +20274,20 @@
       <c r="O11" t="s">
         <v>153</v>
       </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
       <c r="Q11">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="R11" s="12">
+        <v>120</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -20255,7 +20328,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -20296,7 +20369,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -20337,7 +20410,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -20378,7 +20451,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -20419,7 +20492,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -20460,7 +20533,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -20501,7 +20574,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -20542,7 +20615,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -20583,7 +20656,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -20624,7 +20697,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -20665,7 +20738,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -20706,7 +20779,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -20747,7 +20820,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -20788,7 +20861,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -20829,7 +20902,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -20870,7 +20943,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -20911,7 +20984,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -20952,7 +21025,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -20993,7 +21066,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="7">
         <v>29</v>
       </c>
@@ -21034,7 +21107,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="7">
         <v>30</v>
       </c>
@@ -21075,7 +21148,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -21116,7 +21189,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="7">
         <v>32</v>
       </c>
@@ -21157,7 +21230,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -21198,7 +21271,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -21239,7 +21312,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -21280,7 +21353,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -21362,18 +21435,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418D2BE-14E1-4547-8054-78E2AB0E4091}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>927</v>
       </c>
@@ -21402,7 +21475,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -21439,7 +21512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -21476,7 +21549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -21513,7 +21586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -21550,7 +21623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -21587,7 +21660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -21624,7 +21697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -21661,7 +21734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -21698,7 +21771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -21735,7 +21808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -21772,7 +21845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -21809,7 +21882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -21846,7 +21919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -21883,7 +21956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -21920,7 +21993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -21957,7 +22030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -21994,7 +22067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -22031,7 +22104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -22068,7 +22141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -22105,7 +22178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -22142,7 +22215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -22179,7 +22252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -22216,7 +22289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -22248,12 +22321,12 @@
         <f t="shared" si="3"/>
         <v>7350</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="26">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>145</v>
       </c>
@@ -22290,7 +22363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -22327,7 +22400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -22364,7 +22437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>145</v>
       </c>
@@ -22401,7 +22474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -22438,7 +22511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -22475,7 +22548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -22512,7 +22585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -22549,7 +22622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -22586,7 +22659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -22623,7 +22696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -22660,7 +22733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -22697,7 +22770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -22734,7 +22807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -22771,7 +22844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -22808,7 +22881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>145</v>
       </c>
@@ -22845,7 +22918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>145</v>
       </c>
@@ -22882,7 +22955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -22919,7 +22992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>145</v>
       </c>
@@ -22956,7 +23029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -22993,7 +23066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>145</v>
       </c>
@@ -23030,7 +23103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>145</v>
       </c>
@@ -23067,7 +23140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -23104,7 +23177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -23141,7 +23214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -23178,7 +23251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -23215,7 +23288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -23252,7 +23325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -23289,7 +23362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>145</v>
       </c>
@@ -23326,7 +23399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -23363,7 +23436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -23400,7 +23473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -23437,7 +23510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -23474,7 +23547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -23511,7 +23584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -23548,7 +23621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -23585,7 +23658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -23622,7 +23695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -23659,7 +23732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -23696,7 +23769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -23733,7 +23806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -23770,7 +23843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -23807,7 +23880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -23844,7 +23917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -23881,7 +23954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>153</v>
       </c>
@@ -23918,7 +23991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -23955,7 +24028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -23992,7 +24065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>153</v>
       </c>
@@ -24029,7 +24102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -24066,7 +24139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -24103,7 +24176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>153</v>
       </c>
@@ -24140,7 +24213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -24177,7 +24250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -24214,7 +24287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>153</v>
       </c>
@@ -24251,7 +24324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -24288,7 +24361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -24325,7 +24398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -24362,7 +24435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>153</v>
       </c>
@@ -24399,7 +24472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -24436,7 +24509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -24473,7 +24546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>153</v>
       </c>
@@ -24510,7 +24583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -24547,7 +24620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -24584,7 +24657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -24621,7 +24694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>153</v>
       </c>
@@ -24658,7 +24731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -24695,7 +24768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -24732,7 +24805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -24769,7 +24842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -24806,7 +24879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>160</v>
       </c>
@@ -24843,7 +24916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -24880,7 +24953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>160</v>
       </c>
@@ -24917,7 +24990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>160</v>
       </c>
@@ -24954,7 +25027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>160</v>
       </c>
@@ -24991,7 +25064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -25028,7 +25101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>160</v>
       </c>
@@ -25065,7 +25138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -25102,7 +25175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>160</v>
       </c>
@@ -25139,7 +25212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>160</v>
       </c>
@@ -25186,16 +25259,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431CB2D-C2D0-4434-B0D6-DE69030EC8A7}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>975</v>
       </c>
@@ -25209,7 +25282,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -25223,7 +25296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -25237,7 +25310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -25251,7 +25324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -25265,7 +25338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -25279,7 +25352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -25293,7 +25366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -25307,7 +25380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -25321,7 +25394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -25335,7 +25408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -25349,7 +25422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -25363,7 +25436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -25391,13 +25464,13 @@
       <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>951</v>
       </c>
@@ -25405,7 +25478,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>947</v>
       </c>
@@ -25413,7 +25486,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>880</v>
       </c>
@@ -25421,7 +25494,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>948</v>
       </c>
@@ -25429,7 +25502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>949</v>
       </c>
@@ -25437,7 +25510,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>950</v>
       </c>
@@ -25445,7 +25518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>953</v>
       </c>
@@ -25453,7 +25526,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="B8">
         <f>SUM(B2:B7)</f>
         <v>1</v>
@@ -25473,14 +25546,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -25491,7 +25564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -25502,7 +25575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -25513,7 +25586,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -25524,7 +25597,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -25535,7 +25608,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -25546,7 +25619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -25557,7 +25630,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -25568,7 +25641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -25579,7 +25652,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -25590,7 +25663,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -25601,7 +25674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -25612,7 +25685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -25623,7 +25696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -25634,7 +25707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -25645,7 +25718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -25656,7 +25729,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -25667,7 +25740,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -25678,7 +25751,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -25689,7 +25762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -25700,7 +25773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -25711,7 +25784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -25722,7 +25795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -25733,7 +25806,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -25744,7 +25817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -25755,7 +25828,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -25766,7 +25839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -25777,7 +25850,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -25788,7 +25861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -25799,7 +25872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -25810,7 +25883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -25821,7 +25894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -25832,7 +25905,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -25843,7 +25916,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -25854,7 +25927,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -25865,7 +25938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -25876,7 +25949,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -25901,12 +25974,12 @@
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -25948,7 +26021,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -25998,7 +26071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>880</v>
       </c>
@@ -26048,7 +26121,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -26098,7 +26171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -26148,7 +26221,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
@@ -26198,7 +26271,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
         <v>112</v>
       </c>
@@ -26248,7 +26321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
@@ -26298,7 +26371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="3" t="s">
         <v>116</v>
       </c>
@@ -26348,7 +26421,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
         <v>117</v>
       </c>
@@ -26398,7 +26471,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -26449,7 +26522,7 @@
         <v>396.0929432013769</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="3" t="s">
         <v>114</v>
       </c>

--- a/[Work]/170数值/170数值规划.xlsx
+++ b/[Work]/170数值/170数值规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Notes\[Work]\170数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C674A507-87D2-45D6-A01D-5DBE298873E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD02AE9-202A-4B1E-B7FD-7EA17109136B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整体大纲" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1106">
   <si>
     <t>神秘猿·S 当前高级玩家使用量最多的坦克</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3177,10 +3177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>投放总价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3580,6 +3576,66 @@
   </si>
   <si>
     <t>T4碎片单天投放</t>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1部件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2部件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3部件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4部件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1部件投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2部件投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3部件投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4部件投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1部件单天投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2部件单天投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3部件单天投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4部件单天投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7912,10 +7968,10 @@
         <v>176</v>
       </c>
       <c r="E10" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>1005</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -7987,10 +8043,10 @@
         <v>183</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -8061,7 +8117,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B23" s="34">
         <f>F11/2200</f>
@@ -8096,41 +8152,41 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>913</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1016</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>1031</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>1032</v>
-      </c>
       <c r="N1" s="46" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R1" s="3">
         <v>5000</v>
@@ -8154,10 +8210,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -8169,13 +8225,13 @@
         <v>0.05</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O2" s="21">
         <v>10</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="R2" s="3">
         <v>0.3</v>
@@ -8199,10 +8255,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -8214,13 +8270,13 @@
         <v>0.25</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O3" s="21">
         <v>20</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R3" s="3">
         <f>R1/24*R2</f>
@@ -8245,10 +8301,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I4" s="3">
         <v>1</v>
@@ -8266,7 +8322,7 @@
         <v>30</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R4" s="3">
         <v>2</v>
@@ -8290,10 +8346,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -8305,7 +8361,7 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="44" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O5" s="44">
         <v>4</v>
@@ -8329,10 +8385,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I6" s="3">
         <v>2</v>
@@ -8362,10 +8418,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I7" s="3">
         <v>2</v>
@@ -8395,10 +8451,10 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -8428,10 +8484,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -8461,10 +8517,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I10" s="3">
         <v>3</v>
@@ -8494,10 +8550,10 @@
         <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I11" s="3">
         <v>3</v>
@@ -8527,10 +8583,10 @@
         <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I12" s="3">
         <v>3</v>
@@ -8554,10 +8610,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I13" s="3">
         <v>3</v>
@@ -8581,10 +8637,10 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I14" s="3">
         <v>4</v>
@@ -8608,10 +8664,10 @@
         <v>4</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I15" s="3">
         <v>4</v>
@@ -8635,10 +8691,10 @@
         <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I16" s="3">
         <v>4</v>
@@ -8662,10 +8718,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I17" s="3">
         <v>4</v>
@@ -8829,7 +8885,7 @@
         <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1" t="s">
         <v>186</v>
@@ -8844,16 +8900,16 @@
         <v>189</v>
       </c>
       <c r="H1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J1" t="s">
         <v>1029</v>
       </c>
-      <c r="J1" t="s">
-        <v>1030</v>
-      </c>
       <c r="K1" s="48" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L1" t="s">
         <v>190</v>
@@ -8891,10 +8947,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D2" s="17">
         <v>3</v>
@@ -8909,7 +8965,7 @@
         <v>825</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I2" s="17">
         <v>3</v>
@@ -9038,10 +9094,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D3" s="17">
         <v>3</v>
@@ -9056,7 +9112,7 @@
         <v>825</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I3" s="17">
         <v>3</v>
@@ -9185,10 +9241,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D4" s="17">
         <v>3</v>
@@ -9234,7 +9290,7 @@
         <v>480</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S4" s="17" t="s">
         <v>201</v>
@@ -9332,10 +9388,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D5" s="17">
         <v>3</v>
@@ -9381,7 +9437,7 @@
         <v>720</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S5" s="17" t="s">
         <v>201</v>
@@ -9479,10 +9535,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D6" s="17">
         <v>3</v>
@@ -9497,7 +9553,7 @@
         <v>826</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I6" s="17">
         <v>1.5</v>
@@ -9626,10 +9682,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D7" s="17">
         <v>3</v>
@@ -9644,7 +9700,7 @@
         <v>826</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I7" s="17">
         <v>1.5</v>
@@ -9773,10 +9829,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D8" s="17">
         <v>3</v>
@@ -9822,7 +9878,7 @@
         <v>480</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="S8" s="17" t="s">
         <v>201</v>
@@ -9920,10 +9976,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D9" s="17">
         <v>3</v>
@@ -9969,7 +10025,7 @@
         <v>720</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="S9" s="17" t="s">
         <v>201</v>
@@ -10067,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>135</v>
@@ -10214,7 +10270,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>135</v>
@@ -10361,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>135</v>
@@ -10508,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>135</v>
@@ -10557,7 +10613,7 @@
         <v>720</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="S13" s="37" t="s">
         <v>201</v>
@@ -10655,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>135</v>
@@ -10802,7 +10858,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>135</v>
@@ -10949,7 +11005,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>135</v>
@@ -11096,7 +11152,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>135</v>
@@ -11243,10 +11299,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D18" s="37">
         <v>3</v>
@@ -11390,10 +11446,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D19" s="37">
         <v>3</v>
@@ -11537,10 +11593,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D20" s="37">
         <v>3</v>
@@ -11684,10 +11740,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D21" s="37">
         <v>3</v>
@@ -11831,10 +11887,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D22" s="39">
         <v>3</v>
@@ -11978,10 +12034,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D23" s="39">
         <v>3</v>
@@ -12125,10 +12181,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D24" s="39">
         <v>3</v>
@@ -12272,10 +12328,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D25" s="39">
         <v>3</v>
@@ -12419,7 +12475,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>135</v>
@@ -12437,7 +12493,7 @@
         <v>828</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I26" s="39">
         <v>1.5</v>
@@ -12468,7 +12524,7 @@
         <v>120</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="S26" s="39" t="s">
         <v>201</v>
@@ -12566,7 +12622,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C27" s="39" t="s">
         <v>135</v>
@@ -12584,7 +12640,7 @@
         <v>828</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I27" s="39">
         <v>1.5</v>
@@ -12713,7 +12769,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>135</v>
@@ -12762,7 +12818,7 @@
         <v>480</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="S28" s="39" t="s">
         <v>201</v>
@@ -12860,7 +12916,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C29" s="39" t="s">
         <v>135</v>
@@ -13007,10 +13063,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D30" s="39">
         <v>3</v>
@@ -13056,7 +13112,7 @@
         <v>120</v>
       </c>
       <c r="R30" s="39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="S30" s="39" t="s">
         <v>201</v>
@@ -13154,10 +13210,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D31" s="39">
         <v>3</v>
@@ -13301,10 +13357,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D32" s="39">
         <v>3</v>
@@ -13350,7 +13406,7 @@
         <v>480</v>
       </c>
       <c r="R32" s="39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="S32" s="39" t="s">
         <v>201</v>
@@ -13448,10 +13504,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D33" s="39">
         <v>3</v>
@@ -13595,10 +13651,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D34" s="53">
         <v>3</v>
@@ -13742,10 +13798,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D35" s="53">
         <v>3</v>
@@ -13889,10 +13945,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D36" s="53">
         <v>3</v>
@@ -14036,10 +14092,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C37" s="53" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D37" s="53">
         <v>3</v>
@@ -14183,10 +14239,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D38" s="53">
         <v>3</v>
@@ -14330,10 +14386,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D39" s="53">
         <v>3</v>
@@ -14477,10 +14533,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D40" s="53">
         <v>3</v>
@@ -14624,10 +14680,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D41" s="53">
         <v>3</v>
@@ -14771,10 +14827,10 @@
         <v>5</v>
       </c>
       <c r="B42" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D42" s="53">
         <v>3</v>
@@ -14918,10 +14974,10 @@
         <v>5</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D43" s="53">
         <v>3</v>
@@ -15065,10 +15121,10 @@
         <v>5</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D44" s="53">
         <v>3</v>
@@ -15212,10 +15268,10 @@
         <v>5</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D45" s="53">
         <v>3</v>
@@ -15359,10 +15415,10 @@
         <v>6</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C46" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D46" s="53">
         <v>3</v>
@@ -15506,10 +15562,10 @@
         <v>6</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D47" s="53">
         <v>3</v>
@@ -15653,10 +15709,10 @@
         <v>6</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D48" s="53">
         <v>3</v>
@@ -15800,10 +15856,10 @@
         <v>6</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D49" s="53">
         <v>3</v>
@@ -15947,10 +16003,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D50" s="41">
         <v>3</v>
@@ -16094,10 +16150,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D51" s="41">
         <v>3</v>
@@ -16241,10 +16297,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D52" s="41">
         <v>3</v>
@@ -16388,10 +16444,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D53" s="41">
         <v>3</v>
@@ -16535,10 +16591,10 @@
         <v>4</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D54" s="41">
         <v>3</v>
@@ -16682,10 +16738,10 @@
         <v>4</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D55" s="41">
         <v>3</v>
@@ -16829,10 +16885,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D56" s="41">
         <v>3</v>
@@ -16976,10 +17032,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D57" s="41">
         <v>3</v>
@@ -17123,10 +17179,10 @@
         <v>5</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D58" s="41">
         <v>3</v>
@@ -17270,10 +17326,10 @@
         <v>5</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D59" s="41">
         <v>3</v>
@@ -17417,10 +17473,10 @@
         <v>5</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D60" s="41">
         <v>3</v>
@@ -17564,10 +17620,10 @@
         <v>5</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D61" s="41">
         <v>3</v>
@@ -17711,10 +17767,10 @@
         <v>6</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D62" s="41">
         <v>3</v>
@@ -17858,10 +17914,10 @@
         <v>6</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D63" s="41">
         <v>3</v>
@@ -18005,10 +18061,10 @@
         <v>6</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D64" s="41">
         <v>3</v>
@@ -18152,10 +18208,10 @@
         <v>6</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D65" s="41">
         <v>3</v>
@@ -18303,10 +18359,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418D2BE-14E1-4547-8054-78E2AB0E4091}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J8"/>
+    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18356,11 +18412,11 @@
         <v>0</v>
       </c>
       <c r="D2" s="26" t="str">
-        <f t="shared" ref="D2:D69" si="0">A2&amp;"_"&amp;B2</f>
+        <f t="shared" ref="D2:D76" si="0">A2&amp;"_"&amp;B2</f>
         <v>T1_低</v>
       </c>
       <c r="E2" s="26" t="str">
-        <f t="shared" ref="E2:E69" si="1">A2&amp;"_"&amp;B2&amp;"_"&amp;C2</f>
+        <f t="shared" ref="E2:E76" si="1">A2&amp;"_"&amp;B2&amp;"_"&amp;C2</f>
         <v>T1_低_0</v>
       </c>
       <c r="F2" s="26">
@@ -18445,11 +18501,11 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I69" si="3">IF(C4=1,G4,G4+I3)</f>
+        <f t="shared" ref="I4:I68" si="3">IF(C4=1,G4,G4+I3)</f>
         <v>985</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J69" si="4">C4</f>
+        <f t="shared" ref="J4:J76" si="4">C4</f>
         <v>2</v>
       </c>
     </row>
@@ -18698,7 +18754,7 @@
         <v>5350</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:H75" si="5">IF(C11=1,F11,F11+H10)</f>
+        <f t="shared" ref="H11:H82" si="5">IF(C11=1,F11,F11+H10)</f>
         <v>12</v>
       </c>
       <c r="I11">
@@ -20802,7 +20858,7 @@
         <v>80</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>269000</v>
       </c>
       <c r="H68">
         <f t="shared" si="5"/>
@@ -20810,7 +20866,7 @@
       </c>
       <c r="I68">
         <f t="shared" si="3"/>
-        <v>1611100</v>
+        <v>1880100</v>
       </c>
       <c r="J68">
         <f t="shared" si="4"/>
@@ -20822,36 +20878,36 @@
         <v>152</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="0"/>
-        <v>T4_中</v>
+        <v>T4_低</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>T4_中_1</v>
+        <v>T4_低_13</v>
       </c>
       <c r="F69">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G69">
-        <v>39000</v>
+        <v>269000</v>
       </c>
       <c r="H69">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>840</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
-        <v>39000</v>
+        <f t="shared" ref="I69:I75" si="6">IF(C69=1,G69,G69+I68)</f>
+        <v>2149100</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="J69:J75" si="7">C69</f>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -20859,36 +20915,36 @@
         <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" ref="D70:D106" si="6">A70&amp;"_"&amp;B70</f>
-        <v>T4_中</v>
+        <f t="shared" si="0"/>
+        <v>T4_低</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ref="E70:E106" si="7">A70&amp;"_"&amp;B70&amp;"_"&amp;C70</f>
-        <v>T4_中_2</v>
+        <f t="shared" si="1"/>
+        <v>T4_低_14</v>
       </c>
       <c r="F70">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G70">
-        <v>77900</v>
+        <v>269000</v>
       </c>
       <c r="H70">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>920</v>
       </c>
       <c r="I70">
-        <f t="shared" ref="I70:I106" si="8">IF(C70=1,G70,G70+I69)</f>
-        <v>116900</v>
+        <f t="shared" si="6"/>
+        <v>2418100</v>
       </c>
       <c r="J70">
-        <f t="shared" ref="J70:J106" si="9">C70</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -20896,36 +20952,36 @@
         <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_中</v>
+        <f t="shared" si="0"/>
+        <v>T4_低</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_3</v>
+        <f t="shared" si="1"/>
+        <v>T4_低_15</v>
       </c>
       <c r="F71">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G71">
-        <v>116900</v>
+        <v>269000</v>
       </c>
       <c r="H71">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I71">
-        <f t="shared" si="8"/>
-        <v>233800</v>
+        <f t="shared" si="6"/>
+        <v>2687100</v>
       </c>
       <c r="J71">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -20933,36 +20989,36 @@
         <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_中</v>
+        <f t="shared" si="0"/>
+        <v>T4_低</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_4</v>
+        <f t="shared" si="1"/>
+        <v>T4_低_16</v>
       </c>
       <c r="F72">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G72">
-        <v>158000</v>
+        <v>269000</v>
       </c>
       <c r="H72">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>1080</v>
       </c>
       <c r="I72">
-        <f t="shared" si="8"/>
-        <v>391800</v>
+        <f t="shared" si="6"/>
+        <v>2956100</v>
       </c>
       <c r="J72">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -20970,36 +21026,36 @@
         <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_中</v>
+        <f t="shared" si="0"/>
+        <v>T4_低</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_5</v>
+        <f t="shared" si="1"/>
+        <v>T4_低_17</v>
       </c>
       <c r="F73">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G73">
-        <v>197000</v>
+        <v>269000</v>
       </c>
       <c r="H73">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>1160</v>
       </c>
       <c r="I73">
-        <f t="shared" si="8"/>
-        <v>588800</v>
+        <f t="shared" si="6"/>
+        <v>3225100</v>
       </c>
       <c r="J73">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -21007,36 +21063,36 @@
         <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_中</v>
+        <f t="shared" si="0"/>
+        <v>T4_低</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_6</v>
+        <f t="shared" si="1"/>
+        <v>T4_低_18</v>
       </c>
       <c r="F74">
         <v>80</v>
       </c>
       <c r="G74">
-        <v>236000</v>
+        <v>269000</v>
       </c>
       <c r="H74">
         <f t="shared" si="5"/>
-        <v>280</v>
+        <v>1240</v>
       </c>
       <c r="I74">
-        <f t="shared" si="8"/>
-        <v>824800</v>
+        <f t="shared" si="6"/>
+        <v>3494100</v>
       </c>
       <c r="J74">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -21044,36 +21100,36 @@
         <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_中</v>
+        <f t="shared" si="0"/>
+        <v>T4_低</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_7</v>
+        <f t="shared" si="1"/>
+        <v>T4_低_19</v>
       </c>
       <c r="F75">
         <v>80</v>
       </c>
       <c r="G75">
-        <v>275000</v>
+        <v>269000</v>
       </c>
       <c r="H75">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>1320</v>
       </c>
       <c r="I75">
-        <f t="shared" si="8"/>
-        <v>1099800</v>
+        <f t="shared" si="6"/>
+        <v>3763100</v>
       </c>
       <c r="J75">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -21084,33 +21140,33 @@
         <v>141</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>T4_中</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_8</v>
+        <f t="shared" si="1"/>
+        <v>T4_中_1</v>
       </c>
       <c r="F76">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G76">
-        <v>314000</v>
+        <v>39000</v>
       </c>
       <c r="H76">
-        <f t="shared" ref="H76:H106" si="10">IF(C76=1,F76,F76+H75)</f>
-        <v>440</v>
+        <f>IF(C76=1,F76,F76+H68)</f>
+        <v>30</v>
       </c>
       <c r="I76">
-        <f t="shared" si="8"/>
-        <v>1413800</v>
+        <f>IF(C76=1,G76,G76+I68)</f>
+        <v>39000</v>
       </c>
       <c r="J76">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -21121,33 +21177,33 @@
         <v>141</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D77:D127" si="8">A77&amp;"_"&amp;B77</f>
         <v>T4_中</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_9</v>
+        <f t="shared" ref="E77:E127" si="9">A77&amp;"_"&amp;B77&amp;"_"&amp;C77</f>
+        <v>T4_中_2</v>
       </c>
       <c r="F77">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G77">
-        <v>353000</v>
+        <v>77900</v>
       </c>
       <c r="H77">
-        <f t="shared" si="10"/>
-        <v>520</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
       <c r="I77">
-        <f t="shared" si="8"/>
-        <v>1766800</v>
+        <f t="shared" ref="I77:I127" si="10">IF(C77=1,G77,G77+I76)</f>
+        <v>116900</v>
       </c>
       <c r="J77">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" ref="J77:J127" si="11">C77</f>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -21158,33 +21214,33 @@
         <v>141</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>T4_中</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_10</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_3</v>
       </c>
       <c r="F78">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G78">
-        <v>395000</v>
+        <v>116900</v>
       </c>
       <c r="H78">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="10"/>
-        <v>600</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="8"/>
-        <v>2161800</v>
+        <v>233800</v>
       </c>
       <c r="J78">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -21195,33 +21251,33 @@
         <v>141</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>T4_中</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_11</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_4</v>
       </c>
       <c r="F79">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G79">
-        <v>434000</v>
+        <v>158000</v>
       </c>
       <c r="H79">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="10"/>
-        <v>680</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="8"/>
-        <v>2595800</v>
+        <v>391800</v>
       </c>
       <c r="J79">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -21232,33 +21288,33 @@
         <v>141</v>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>T4_中</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_中_12</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_5</v>
       </c>
       <c r="F80">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>197000</v>
       </c>
       <c r="H80">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="10"/>
-        <v>760</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="8"/>
-        <v>2595800</v>
+        <v>588800</v>
       </c>
       <c r="J80">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -21266,36 +21322,36 @@
         <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="8"/>
+        <v>T4_中</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_1</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_6</v>
       </c>
       <c r="F81">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G81">
-        <v>57000</v>
+        <v>236000</v>
       </c>
       <c r="H81">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="10"/>
-        <v>30</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="8"/>
-        <v>57000</v>
+        <v>824800</v>
       </c>
       <c r="J81">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -21303,36 +21359,36 @@
         <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="8"/>
+        <v>T4_中</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_2</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_7</v>
       </c>
       <c r="F82">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G82">
-        <v>114000</v>
+        <v>275000</v>
       </c>
       <c r="H82">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="8"/>
-        <v>171000</v>
+        <v>1099800</v>
       </c>
       <c r="J82">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -21340,36 +21396,36 @@
         <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="8"/>
+        <v>T4_中</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_3</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_8</v>
       </c>
       <c r="F83">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G83">
-        <v>171000</v>
+        <v>314000</v>
       </c>
       <c r="H83">
+        <f t="shared" ref="H83:H127" si="12">IF(C83=1,F83,F83+H82)</f>
+        <v>440</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="8"/>
-        <v>342000</v>
+        <v>1413800</v>
       </c>
       <c r="J83">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -21377,36 +21433,36 @@
         <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="8"/>
+        <v>T4_中</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_4</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_9</v>
       </c>
       <c r="F84">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G84">
-        <v>231000</v>
+        <v>353000</v>
       </c>
       <c r="H84">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="10"/>
-        <v>150</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="8"/>
-        <v>573000</v>
+        <v>1766800</v>
       </c>
       <c r="J84">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -21414,36 +21470,36 @@
         <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="8"/>
+        <v>T4_中</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_5</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_10</v>
       </c>
       <c r="F85">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G85">
-        <v>288000</v>
+        <v>395000</v>
       </c>
       <c r="H85">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="8"/>
-        <v>861000</v>
+        <v>2161800</v>
       </c>
       <c r="J85">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -21451,36 +21507,36 @@
         <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="8"/>
+        <v>T4_中</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_6</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_11</v>
       </c>
       <c r="F86">
         <v>80</v>
       </c>
       <c r="G86">
-        <v>345000</v>
+        <v>434000</v>
       </c>
       <c r="H86">
+        <f t="shared" si="12"/>
+        <v>680</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="10"/>
-        <v>280</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="8"/>
-        <v>1206000</v>
+        <v>2595800</v>
       </c>
       <c r="J86">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -21488,36 +21544,36 @@
         <v>152</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="8"/>
+        <v>T4_中</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_7</v>
+        <f t="shared" si="9"/>
+        <v>T4_中_12</v>
       </c>
       <c r="F87">
         <v>80</v>
       </c>
       <c r="G87">
-        <v>402000</v>
+        <v>434000</v>
       </c>
       <c r="H87">
+        <f t="shared" si="12"/>
+        <v>760</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="10"/>
-        <v>360</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="8"/>
-        <v>1608000</v>
+        <v>3029800</v>
       </c>
       <c r="J87">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -21525,36 +21581,36 @@
         <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C88">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" ref="D88:D94" si="13">A88&amp;"_"&amp;B88</f>
+        <v>T4_中</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_8</v>
+        <f t="shared" ref="E88:E94" si="14">A88&amp;"_"&amp;B88&amp;"_"&amp;C88</f>
+        <v>T4_中_13</v>
       </c>
       <c r="F88">
         <v>80</v>
       </c>
       <c r="G88">
-        <v>459000</v>
+        <v>434000</v>
       </c>
       <c r="H88">
-        <f t="shared" si="10"/>
-        <v>440</v>
+        <f t="shared" si="12"/>
+        <v>840</v>
       </c>
       <c r="I88">
-        <f t="shared" si="8"/>
-        <v>2067000</v>
+        <f t="shared" ref="I88:I94" si="15">IF(C88=1,G88,G88+I87)</f>
+        <v>3463800</v>
       </c>
       <c r="J88">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" ref="J88:J94" si="16">C88</f>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -21562,36 +21618,36 @@
         <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="13"/>
+        <v>T4_中</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_9</v>
+        <f t="shared" si="14"/>
+        <v>T4_中_14</v>
       </c>
       <c r="F89">
         <v>80</v>
       </c>
       <c r="G89">
-        <v>516000</v>
+        <v>434000</v>
       </c>
       <c r="H89">
-        <f t="shared" si="10"/>
-        <v>520</v>
+        <f t="shared" si="12"/>
+        <v>920</v>
       </c>
       <c r="I89">
-        <f t="shared" si="8"/>
-        <v>2583000</v>
+        <f t="shared" si="15"/>
+        <v>3897800</v>
       </c>
       <c r="J89">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="16"/>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -21599,36 +21655,36 @@
         <v>152</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="13"/>
+        <v>T4_中</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_10</v>
+        <f t="shared" si="14"/>
+        <v>T4_中_15</v>
       </c>
       <c r="F90">
         <v>80</v>
       </c>
       <c r="G90">
-        <v>577000</v>
+        <v>434000</v>
       </c>
       <c r="H90">
-        <f t="shared" si="10"/>
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>1000</v>
       </c>
       <c r="I90">
-        <f t="shared" si="8"/>
-        <v>3160000</v>
+        <f t="shared" si="15"/>
+        <v>4331800</v>
       </c>
       <c r="J90">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -21636,36 +21692,36 @@
         <v>152</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="13"/>
+        <v>T4_中</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_11</v>
+        <f t="shared" si="14"/>
+        <v>T4_中_16</v>
       </c>
       <c r="F91">
         <v>80</v>
       </c>
       <c r="G91">
-        <v>634000</v>
+        <v>434000</v>
       </c>
       <c r="H91">
-        <f t="shared" si="10"/>
-        <v>680</v>
+        <f t="shared" si="12"/>
+        <v>1080</v>
       </c>
       <c r="I91">
-        <f t="shared" si="8"/>
-        <v>3794000</v>
+        <f t="shared" si="15"/>
+        <v>4765800</v>
       </c>
       <c r="J91">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -21673,553 +21729,1330 @@
         <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="6"/>
-        <v>T4_高</v>
+        <f t="shared" si="13"/>
+        <v>T4_中</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="7"/>
-        <v>T4_高_12</v>
+        <f t="shared" si="14"/>
+        <v>T4_中_17</v>
       </c>
       <c r="F92">
         <v>80</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>434000</v>
       </c>
       <c r="H92">
-        <f t="shared" si="10"/>
-        <v>760</v>
+        <f t="shared" si="12"/>
+        <v>1160</v>
       </c>
       <c r="I92">
-        <f t="shared" si="8"/>
-        <v>3794000</v>
+        <f t="shared" si="15"/>
+        <v>5199800</v>
       </c>
       <c r="J92">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="16"/>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="13"/>
+        <v>T4_中</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_1</v>
+        <f t="shared" si="14"/>
+        <v>T4_中_18</v>
       </c>
       <c r="F93">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G93">
-        <v>71000</v>
+        <v>434000</v>
       </c>
       <c r="H93">
-        <f t="shared" si="10"/>
-        <v>48</v>
+        <f t="shared" si="12"/>
+        <v>1240</v>
       </c>
       <c r="I93">
-        <f t="shared" si="8"/>
-        <v>71000</v>
+        <f t="shared" si="15"/>
+        <v>5633800</v>
       </c>
       <c r="J93">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="13"/>
+        <v>T4_中</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_2</v>
+        <f t="shared" si="14"/>
+        <v>T4_中_19</v>
       </c>
       <c r="F94">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G94">
-        <v>141000</v>
+        <v>434000</v>
       </c>
       <c r="H94">
-        <f t="shared" si="10"/>
-        <v>96</v>
+        <f t="shared" si="12"/>
+        <v>1320</v>
       </c>
       <c r="I94">
-        <f t="shared" si="8"/>
-        <v>212000</v>
+        <f t="shared" si="15"/>
+        <v>6067800</v>
       </c>
       <c r="J94">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="16"/>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_3</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_1</v>
       </c>
       <c r="F95">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="G95">
-        <v>212000</v>
+        <v>57000</v>
       </c>
       <c r="H95">
-        <f t="shared" si="10"/>
-        <v>160</v>
+        <f>IF(C95=1,F95,F95+H87)</f>
+        <v>30</v>
       </c>
       <c r="I95">
-        <f t="shared" si="8"/>
-        <v>424000</v>
+        <f>IF(C95=1,G95,G95+I87)</f>
+        <v>57000</v>
       </c>
       <c r="J95">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_4</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_2</v>
       </c>
       <c r="F96">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G96">
-        <v>283000</v>
+        <v>114000</v>
       </c>
       <c r="H96">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="10"/>
-        <v>240</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="8"/>
-        <v>707000</v>
+        <v>171000</v>
       </c>
       <c r="J96">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_5</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_3</v>
       </c>
       <c r="F97">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G97">
-        <v>354000</v>
+        <v>171000</v>
       </c>
       <c r="H97">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="10"/>
-        <v>320</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="8"/>
-        <v>1061000</v>
+        <v>342000</v>
       </c>
       <c r="J97">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_6</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_4</v>
       </c>
       <c r="F98">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G98">
-        <v>425000</v>
+        <v>231000</v>
       </c>
       <c r="H98">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="10"/>
-        <v>400</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="8"/>
-        <v>1486000</v>
+        <v>573000</v>
       </c>
       <c r="J98">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_7</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_5</v>
       </c>
       <c r="F99">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G99">
-        <v>496000</v>
+        <v>288000</v>
       </c>
       <c r="H99">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="8"/>
-        <v>1982000</v>
+        <v>861000</v>
       </c>
       <c r="J99">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B100" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_8</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_6</v>
       </c>
       <c r="F100">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G100">
-        <v>567000</v>
+        <v>345000</v>
       </c>
       <c r="H100">
+        <f t="shared" si="12"/>
+        <v>280</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="10"/>
-        <v>600</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="8"/>
-        <v>2549000</v>
+        <v>1206000</v>
       </c>
       <c r="J100">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C101">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_9</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_7</v>
       </c>
       <c r="F101">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G101">
-        <v>638000</v>
+        <v>402000</v>
       </c>
       <c r="H101">
+        <f t="shared" si="12"/>
+        <v>360</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="8"/>
-        <v>3187000</v>
+        <v>1608000</v>
       </c>
       <c r="J101">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_10</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_8</v>
       </c>
       <c r="F102">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G102">
-        <v>709000</v>
+        <v>459000</v>
       </c>
       <c r="H102">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="10"/>
-        <v>800</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="8"/>
-        <v>3896000</v>
+        <v>2067000</v>
       </c>
       <c r="J102">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_11</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_9</v>
       </c>
       <c r="F103">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G103">
-        <v>780000</v>
+        <v>516000</v>
       </c>
       <c r="H103">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="10"/>
-        <v>900</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="8"/>
-        <v>4676000</v>
+        <v>2583000</v>
       </c>
       <c r="J103">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_12</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_10</v>
       </c>
       <c r="F104">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G104">
-        <v>851000</v>
+        <v>577000</v>
       </c>
       <c r="H104">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="I104">
         <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="8"/>
-        <v>5527000</v>
+        <v>3160000</v>
       </c>
       <c r="J104">
-        <f t="shared" si="9"/>
-        <v>12</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B105" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C105">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="6"/>
-        <v>T5_低</v>
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="7"/>
-        <v>T5_低_13</v>
+        <f t="shared" si="9"/>
+        <v>T4_高_11</v>
       </c>
       <c r="F105">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G105">
-        <v>922000</v>
+        <v>634000</v>
       </c>
       <c r="H105">
+        <f t="shared" si="12"/>
+        <v>680</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="10"/>
-        <v>1100</v>
-      </c>
-      <c r="I105">
-        <f t="shared" si="8"/>
-        <v>6449000</v>
+        <v>3794000</v>
       </c>
       <c r="J105">
-        <f t="shared" si="9"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="8"/>
+        <v>T4_高</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="9"/>
+        <v>T4_高_12</v>
+      </c>
+      <c r="F106">
+        <v>80</v>
+      </c>
+      <c r="G106">
+        <v>634000</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="12"/>
+        <v>760</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="10"/>
+        <v>4428000</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>152</v>
+      </c>
+      <c r="B107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107">
+        <v>13</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" ref="D107:D113" si="17">A107&amp;"_"&amp;B107</f>
+        <v>T4_高</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" ref="E107:E113" si="18">A107&amp;"_"&amp;B107&amp;"_"&amp;C107</f>
+        <v>T4_高_13</v>
+      </c>
+      <c r="F107">
+        <v>80</v>
+      </c>
+      <c r="G107">
+        <v>634000</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="12"/>
+        <v>840</v>
+      </c>
+      <c r="I107">
+        <f t="shared" ref="I107:I113" si="19">IF(C107=1,G107,G107+I106)</f>
+        <v>5062000</v>
+      </c>
+      <c r="J107">
+        <f t="shared" ref="J107:J113" si="20">C107</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108">
+        <v>14</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="17"/>
+        <v>T4_高</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="18"/>
+        <v>T4_高_14</v>
+      </c>
+      <c r="F108">
+        <v>80</v>
+      </c>
+      <c r="G108">
+        <v>634000</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="12"/>
+        <v>920</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="19"/>
+        <v>5696000</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109">
+        <v>15</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="17"/>
+        <v>T4_高</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="18"/>
+        <v>T4_高_15</v>
+      </c>
+      <c r="F109">
+        <v>80</v>
+      </c>
+      <c r="G109">
+        <v>634000</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="19"/>
+        <v>6330000</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>152</v>
+      </c>
+      <c r="B110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C110">
+        <v>16</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="17"/>
+        <v>T4_高</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="18"/>
+        <v>T4_高_16</v>
+      </c>
+      <c r="F110">
+        <v>80</v>
+      </c>
+      <c r="G110">
+        <v>634000</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="12"/>
+        <v>1080</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="19"/>
+        <v>6964000</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111">
+        <v>17</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="17"/>
+        <v>T4_高</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="18"/>
+        <v>T4_高_17</v>
+      </c>
+      <c r="F111">
+        <v>80</v>
+      </c>
+      <c r="G111">
+        <v>634000</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="12"/>
+        <v>1160</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="19"/>
+        <v>7598000</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112">
+        <v>18</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="17"/>
+        <v>T4_高</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="18"/>
+        <v>T4_高_18</v>
+      </c>
+      <c r="F112">
+        <v>80</v>
+      </c>
+      <c r="G112">
+        <v>634000</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="12"/>
+        <v>1240</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="19"/>
+        <v>8232000</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113">
+        <v>19</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="17"/>
+        <v>T4_高</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="18"/>
+        <v>T4_高_19</v>
+      </c>
+      <c r="F113">
+        <v>80</v>
+      </c>
+      <c r="G113">
+        <v>634000</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="12"/>
+        <v>1320</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="19"/>
+        <v>8866000</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>159</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B114" t="s">
         <v>135</v>
       </c>
-      <c r="C106">
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_1</v>
+      </c>
+      <c r="F114">
+        <v>48</v>
+      </c>
+      <c r="G114">
+        <v>71000</v>
+      </c>
+      <c r="H114">
+        <f>IF(C114=1,F114,F114+H106)</f>
+        <v>48</v>
+      </c>
+      <c r="I114">
+        <f>IF(C114=1,G114,G114+I106)</f>
+        <v>71000</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_2</v>
+      </c>
+      <c r="F115">
+        <v>48</v>
+      </c>
+      <c r="G115">
+        <v>141000</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="10"/>
+        <v>212000</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_3</v>
+      </c>
+      <c r="F116">
+        <v>64</v>
+      </c>
+      <c r="G116">
+        <v>212000</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="12"/>
+        <v>160</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="10"/>
+        <v>424000</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_4</v>
+      </c>
+      <c r="F117">
+        <v>80</v>
+      </c>
+      <c r="G117">
+        <v>283000</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="10"/>
+        <v>707000</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_5</v>
+      </c>
+      <c r="F118">
+        <v>80</v>
+      </c>
+      <c r="G118">
+        <v>354000</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="12"/>
+        <v>320</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="10"/>
+        <v>1061000</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_6</v>
+      </c>
+      <c r="F119">
+        <v>80</v>
+      </c>
+      <c r="G119">
+        <v>425000</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="10"/>
+        <v>1486000</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120" t="s">
+        <v>135</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_7</v>
+      </c>
+      <c r="F120">
+        <v>100</v>
+      </c>
+      <c r="G120">
+        <v>496000</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="10"/>
+        <v>1982000</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121">
+        <v>8</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_8</v>
+      </c>
+      <c r="F121">
+        <v>100</v>
+      </c>
+      <c r="G121">
+        <v>567000</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="10"/>
+        <v>2549000</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122">
+        <v>9</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_9</v>
+      </c>
+      <c r="F122">
+        <v>100</v>
+      </c>
+      <c r="G122">
+        <v>638000</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="10"/>
+        <v>3187000</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>135</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_10</v>
+      </c>
+      <c r="F123">
+        <v>100</v>
+      </c>
+      <c r="G123">
+        <v>709000</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="10"/>
+        <v>3896000</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124">
+        <v>11</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E124" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_11</v>
+      </c>
+      <c r="F124">
+        <v>100</v>
+      </c>
+      <c r="G124">
+        <v>780000</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="12"/>
+        <v>900</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="10"/>
+        <v>4676000</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_12</v>
+      </c>
+      <c r="F125">
+        <v>100</v>
+      </c>
+      <c r="G125">
+        <v>851000</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="10"/>
+        <v>5527000</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126">
+        <v>13</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="8"/>
+        <v>T5_低</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="9"/>
+        <v>T5_低_13</v>
+      </c>
+      <c r="F126">
+        <v>100</v>
+      </c>
+      <c r="G126">
+        <v>922000</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="12"/>
+        <v>1100</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="10"/>
+        <v>6449000</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127">
         <v>14</v>
       </c>
-      <c r="D106" t="str">
-        <f t="shared" si="6"/>
+      <c r="D127" t="str">
+        <f t="shared" si="8"/>
         <v>T5_低</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="7"/>
+      <c r="E127" t="str">
+        <f t="shared" si="9"/>
         <v>T5_低_14</v>
       </c>
-      <c r="F106">
+      <c r="F127">
         <v>100</v>
       </c>
-      <c r="G106">
+      <c r="G127">
         <v>0</v>
       </c>
-      <c r="H106">
+      <c r="H127">
+        <f t="shared" si="12"/>
+        <v>1200</v>
+      </c>
+      <c r="I127">
         <f t="shared" si="10"/>
-        <v>1200</v>
-      </c>
-      <c r="I106">
-        <f t="shared" si="8"/>
         <v>6449000</v>
       </c>
-      <c r="J106">
-        <f t="shared" si="9"/>
+      <c r="J127">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
@@ -29184,7 +30017,7 @@
         <v>875</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="S2" s="31">
         <v>1</v>
@@ -29308,7 +30141,7 @@
         <v>953</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>951</v>
@@ -29375,7 +30208,7 @@
         <v>952</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>955</v>
@@ -31429,7 +32262,7 @@
     </row>
     <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -31444,52 +32277,52 @@
         <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="N41" s="3" t="s">
+      <c r="O41" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="Q41" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -33876,70 +34709,70 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1086</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="P1" s="19" t="s">
         <v>867</v>
       </c>
       <c r="Q1" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="R1" s="19" t="s">
         <v>1067</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>1068</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="V1" t="s">
         <v>1069</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1070</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>1071</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>1072</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>1073</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>1074</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>1075</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -35769,8 +36602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0535A995-A387-D84B-9BD1-FA42A25E46A9}">
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35810,7 +36643,7 @@
         <v>896</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>969</v>
@@ -35822,7 +36655,7 @@
         <v>971</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>891</v>
@@ -35834,7 +36667,7 @@
         <v>893</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="P1" s="24" t="s">
         <v>966</v>
@@ -35846,7 +36679,7 @@
         <v>968</v>
       </c>
       <c r="S1" s="24" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="U1" s="24" t="s">
         <v>907</v>
@@ -36051,11 +36884,11 @@
         <v>10.038518518518519</v>
       </c>
       <c r="M4" s="14">
-        <f>Q4*$B4+M3</f>
+        <f t="shared" ref="M4:M18" si="2">Q4*$B4+M3</f>
         <v>5.8177777777777777</v>
       </c>
       <c r="N4" s="14">
-        <f>R4*$B4+N3</f>
+        <f t="shared" ref="N4:N18" si="3">R4*$B4+N3</f>
         <v>0</v>
       </c>
       <c r="O4" s="14"/>
@@ -36063,7 +36896,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q4" s="14">
-        <f t="shared" ref="Q4:Q38" si="2">$Y$3</f>
+        <f t="shared" ref="Q4:Q38" si="4">$Y$3</f>
         <v>2.5499999999999998</v>
       </c>
       <c r="R4" s="14">
@@ -36080,11 +36913,11 @@
         <v>3</v>
       </c>
       <c r="X4" s="12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y4" s="14">
         <f t="shared" si="0"/>
-        <v>11.7</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
@@ -36127,11 +36960,11 @@
         <v>16.213957115009748</v>
       </c>
       <c r="M5" s="14">
-        <f>Q5*$B5+M4</f>
+        <f t="shared" si="2"/>
         <v>9.396725146198829</v>
       </c>
       <c r="N5" s="14">
-        <f>R5*$B5+N4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O5" s="14"/>
@@ -36139,13 +36972,29 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="Q5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R5" s="14">
         <v>0</v>
       </c>
       <c r="S5" s="14"/>
+      <c r="U5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1320</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3</v>
+      </c>
+      <c r="X5" s="12">
+        <v>600</v>
+      </c>
+      <c r="Y5" s="14">
+        <f>V5*W5/X5</f>
+        <v>6.6</v>
+      </c>
     </row>
     <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
@@ -36187,11 +37036,11 @@
         <v>26.77395711500975</v>
       </c>
       <c r="M6" s="14">
-        <f>Q6*$B6+M5</f>
+        <f t="shared" si="2"/>
         <v>14.496725146198829</v>
       </c>
       <c r="N6" s="14">
-        <f>R6*$B6+N5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="14"/>
@@ -36200,7 +37049,7 @@
         <v>5.28</v>
       </c>
       <c r="Q6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R6" s="14">
@@ -36230,7 +37079,7 @@
       </c>
       <c r="F7" s="21">
         <f>IF(J7=0,0,VLOOKUP(N7/J7,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="21"/>
       <c r="H7" s="21">
@@ -36248,51 +37097,27 @@
         <v>50.240623781676419</v>
       </c>
       <c r="M7" s="14">
-        <f>Q7*$B7+M6</f>
+        <f t="shared" si="2"/>
         <v>25.830058479532163</v>
       </c>
       <c r="N7" s="14">
-        <f>R7*$B7+N6</f>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="O7" s="14"/>
       <c r="P7" s="14">
-        <f t="shared" ref="P7:P38" si="3">$Y$2</f>
+        <f t="shared" ref="P7:P38" si="5">$Y$2</f>
         <v>5.28</v>
       </c>
       <c r="Q7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R7" s="14">
-        <f t="shared" ref="R7:R38" si="4">$Y$4</f>
-        <v>11.7</v>
+        <f t="shared" ref="R7:R38" si="6">$Y$4</f>
+        <v>5.85</v>
       </c>
       <c r="S7" s="14"/>
-      <c r="U7" s="24" t="s">
-        <v>915</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>916</v>
-      </c>
-      <c r="W7" s="24" t="s">
-        <v>917</v>
-      </c>
-      <c r="X7" s="30" t="s">
-        <v>985</v>
-      </c>
-      <c r="Y7" s="24" t="s">
-        <v>911</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="AB7" s="24" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -36316,7 +37141,7 @@
       </c>
       <c r="F8" s="21">
         <f>IF(J8=0,0,VLOOKUP(N8/J8,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21">
@@ -36334,52 +37159,27 @@
         <v>78.400623781676416</v>
       </c>
       <c r="M8" s="14">
-        <f>Q8*$B8+M7</f>
+        <f t="shared" si="2"/>
         <v>39.430058479532164</v>
       </c>
       <c r="N8" s="14">
-        <f>R8*$B8+N7</f>
-        <v>114.39999999999999</v>
+        <f t="shared" si="3"/>
+        <v>57.199999999999996</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q8" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R8" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S8" s="14"/>
-      <c r="U8" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="V8" s="3">
-        <v>8</v>
-      </c>
-      <c r="W8" s="3">
-        <v>18</v>
-      </c>
-      <c r="X8" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="12">
-        <v>60</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3">
-        <f>(V8*W8)*(1-Z8-AA8)/Y8</f>
-        <v>2.4</v>
-      </c>
     </row>
     <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
@@ -36403,7 +37203,7 @@
       </c>
       <c r="F9" s="21">
         <f>IF(J9=0,0,VLOOKUP(N9/J9,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21">
@@ -36421,52 +37221,27 @@
         <v>105.65223668490222</v>
       </c>
       <c r="M9" s="14">
-        <f>Q9*$B9+M8</f>
+        <f t="shared" si="2"/>
         <v>52.591348802112805</v>
       </c>
       <c r="N9" s="14">
-        <f>R9*$B9+N8</f>
-        <v>174.78709677419354</v>
+        <f t="shared" si="3"/>
+        <v>87.393548387096772</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q9" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R9" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S9" s="14"/>
-      <c r="U9" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="V9" s="3">
-        <v>8</v>
-      </c>
-      <c r="W9" s="3">
-        <v>18</v>
-      </c>
-      <c r="X9" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>120</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="3">
-        <f>(V9*W9)*(1-Z9-AA9)/Y9</f>
-        <v>0.96000000000000008</v>
-      </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -36490,7 +37265,7 @@
       </c>
       <c r="F10" s="21">
         <f>IF(J10=0,0,VLOOKUP(N10/J10,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21">
@@ -36508,52 +37283,27 @@
         <v>140.85223668490221</v>
       </c>
       <c r="M10" s="14">
-        <f>Q10*$B10+M9</f>
+        <f t="shared" si="2"/>
         <v>69.591348802112805</v>
       </c>
       <c r="N10" s="14">
-        <f>R10*$B10+N9</f>
-        <v>252.78709677419354</v>
+        <f t="shared" si="3"/>
+        <v>126.39354838709677</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S10" s="14"/>
-      <c r="U10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V10" s="3">
-        <v>8</v>
-      </c>
-      <c r="W10" s="3">
-        <v>18</v>
-      </c>
-      <c r="X10" s="5">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>200</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AB10" s="3">
-        <f>(V10*W10)*(1-Z10-AA10)/Y10</f>
-        <v>0.504</v>
-      </c>
     </row>
     <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -36577,7 +37327,7 @@
       </c>
       <c r="F11" s="21">
         <f>IF(J11=0,0,VLOOKUP(N11/J11,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21">
@@ -36595,25 +37345,25 @@
         <v>184.1482366849022</v>
       </c>
       <c r="M11" s="14">
-        <f>Q11*$B11+M10</f>
+        <f t="shared" si="2"/>
         <v>90.501348802112801</v>
       </c>
       <c r="N11" s="14">
-        <f>R11*$B11+N10</f>
-        <v>348.72709677419351</v>
+        <f t="shared" si="3"/>
+        <v>174.36354838709676</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q11" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R11" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S11" s="14"/>
       <c r="Z11" s="27"/>
@@ -36642,7 +37392,7 @@
       </c>
       <c r="F12" s="21">
         <f>IF(J12=0,0,VLOOKUP(N12/J12,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="21">
@@ -36660,25 +37410,25 @@
         <v>228.65863668490221</v>
       </c>
       <c r="M12" s="14">
-        <f>Q12*$B12+M11</f>
+        <f t="shared" si="2"/>
         <v>111.9978488021128</v>
       </c>
       <c r="N12" s="14">
-        <f>R12*$B12+N11</f>
-        <v>447.35809677419348</v>
+        <f t="shared" si="3"/>
+        <v>223.67904838709674</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q12" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R12" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S12" s="14"/>
       <c r="Z12" s="9"/>
@@ -36707,7 +37457,7 @@
       </c>
       <c r="F13" s="21">
         <f>IF(J13=0,0,VLOOKUP(N13/J13,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="21">
@@ -36725,25 +37475,25 @@
         <v>278.44903668490218</v>
       </c>
       <c r="M13" s="14">
-        <f>Q13*$B13+M12</f>
+        <f t="shared" si="2"/>
         <v>136.04434880211281</v>
       </c>
       <c r="N13" s="14">
-        <f>R13*$B13+N12</f>
-        <v>557.68909677419344</v>
+        <f t="shared" si="3"/>
+        <v>278.84454838709672</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q13" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S13" s="14"/>
       <c r="Z13" s="9"/>
@@ -36772,7 +37522,7 @@
       </c>
       <c r="F14" s="21">
         <f>IF(J14=0,0,VLOOKUP(N14/J14,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="21">
@@ -36790,25 +37540,25 @@
         <v>333.51943668490219</v>
       </c>
       <c r="M14" s="14">
-        <f>Q14*$B14+M13</f>
+        <f t="shared" si="2"/>
         <v>162.6408488021128</v>
       </c>
       <c r="N14" s="14">
-        <f>R14*$B14+N13</f>
-        <v>679.72009677419339</v>
+        <f t="shared" si="3"/>
+        <v>339.8600483870967</v>
       </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R14" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S14" s="14"/>
       <c r="Z14" s="9"/>
@@ -36837,7 +37587,7 @@
       </c>
       <c r="F15" s="21">
         <f>IF(J15=0,0,VLOOKUP(N15/J15,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21">
@@ -36855,25 +37605,25 @@
         <v>393.86983668490217</v>
       </c>
       <c r="M15" s="14">
-        <f>Q15*$B15+M14</f>
+        <f t="shared" si="2"/>
         <v>191.7873488021128</v>
       </c>
       <c r="N15" s="14">
-        <f>R15*$B15+N14</f>
-        <v>813.45109677419339</v>
+        <f t="shared" si="3"/>
+        <v>406.72554838709669</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R15" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S15" s="14"/>
       <c r="U15" s="9"/>
@@ -36908,7 +37658,7 @@
       </c>
       <c r="F16" s="21">
         <f>IF(J16=0,0,VLOOKUP(N16/J16,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21">
@@ -36926,25 +37676,25 @@
         <v>459.50023668490218</v>
       </c>
       <c r="M16" s="14">
-        <f>Q16*$B16+M15</f>
+        <f t="shared" si="2"/>
         <v>223.48384880211279</v>
       </c>
       <c r="N16" s="14">
-        <f>R16*$B16+N15</f>
-        <v>958.88209677419331</v>
+        <f t="shared" si="3"/>
+        <v>479.44104838709666</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R16" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S16" s="14"/>
     </row>
@@ -36970,7 +37720,7 @@
       </c>
       <c r="F17" s="21">
         <f>IF(J17=0,0,VLOOKUP(N17/J17,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21">
@@ -36988,25 +37738,25 @@
         <v>530.41063668490222</v>
       </c>
       <c r="M17" s="14">
-        <f>Q17*$B17+M16</f>
+        <f t="shared" si="2"/>
         <v>257.73034880211276</v>
       </c>
       <c r="N17" s="14">
-        <f>R17*$B17+N16</f>
-        <v>1116.0130967741934</v>
+        <f t="shared" si="3"/>
+        <v>558.0065483870967</v>
       </c>
       <c r="O17" s="14"/>
       <c r="P17" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R17" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S17" s="14"/>
     </row>
@@ -37032,7 +37782,7 @@
       </c>
       <c r="F18" s="21">
         <f>IF(J18=0,0,VLOOKUP(N18/J18,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21">
@@ -37050,25 +37800,25 @@
         <v>606.60103668490217</v>
       </c>
       <c r="M18" s="14">
-        <f>Q18*$B18+M17</f>
+        <f t="shared" si="2"/>
         <v>294.52684880211274</v>
       </c>
       <c r="N18" s="14">
-        <f>R18*$B18+N17</f>
-        <v>1284.8440967741933</v>
+        <f t="shared" si="3"/>
+        <v>642.42204838709665</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R18" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S18" s="14"/>
     </row>
@@ -37094,7 +37844,7 @@
       </c>
       <c r="F19" s="21">
         <f>IF(J19=0,0,VLOOKUP(N19/J19,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21">
@@ -37112,25 +37862,25 @@
         <v>688.07143668490221</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" ref="M19:M38" si="5">Q19*$B19+M18</f>
+        <f t="shared" ref="M19:M38" si="7">Q19*$B19+M18</f>
         <v>333.87334880211273</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" ref="N19:N38" si="6">R19*$B19+N18</f>
-        <v>1465.3750967741933</v>
+        <f t="shared" ref="N19:N38" si="8">R19*$B19+N18</f>
+        <v>732.68754838709663</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R19" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S19" s="14"/>
     </row>
@@ -37156,7 +37906,7 @@
       </c>
       <c r="F20" s="21">
         <f>IF(J20=0,0,VLOOKUP(N20/J20,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21">
@@ -37174,25 +37924,25 @@
         <v>774.82183668490222</v>
       </c>
       <c r="M20" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>375.76984880211273</v>
       </c>
       <c r="N20" s="14">
-        <f t="shared" si="6"/>
-        <v>1657.6060967741932</v>
+        <f t="shared" si="8"/>
+        <v>828.80304838709662</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R20" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S20" s="14"/>
     </row>
@@ -37218,7 +37968,7 @@
       </c>
       <c r="F21" s="21">
         <f>IF(J21=0,0,VLOOKUP(N21/J21,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21">
@@ -37236,25 +37986,25 @@
         <v>871.97383668490227</v>
       </c>
       <c r="M21" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>422.68984880211275</v>
       </c>
       <c r="N21" s="14">
-        <f t="shared" si="6"/>
-        <v>1872.8860967741932</v>
+        <f t="shared" si="8"/>
+        <v>936.44304838709661</v>
       </c>
       <c r="O21" s="14"/>
       <c r="P21" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R21" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S21" s="14"/>
     </row>
@@ -37280,7 +38030,7 @@
       </c>
       <c r="F22" s="21">
         <f>IF(J22=0,0,VLOOKUP(N22/J22,坦克升星消耗!$H$26:$J$36,3,TRUE))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="21">
@@ -37298,25 +38048,25 @@
         <v>976.51783668490225</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>473.17984880211276</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="6"/>
-        <v>2104.5460967741933</v>
+        <f t="shared" si="8"/>
+        <v>1052.2730483870967</v>
       </c>
       <c r="O22" s="14"/>
       <c r="P22" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q22" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R22" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S22" s="14"/>
     </row>
@@ -37360,25 +38110,25 @@
         <v>1088.4538366849022</v>
       </c>
       <c r="M23" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>527.23984880211276</v>
       </c>
       <c r="N23" s="14">
-        <f t="shared" si="6"/>
-        <v>2352.5860967741933</v>
+        <f t="shared" si="8"/>
+        <v>1176.2930483870966</v>
       </c>
       <c r="O23" s="14"/>
       <c r="P23" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q23" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R23" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S23" s="14"/>
     </row>
@@ -37422,25 +38172,25 @@
         <v>1207.7818366849021</v>
       </c>
       <c r="M24" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>584.86984880211276</v>
       </c>
       <c r="N24" s="14">
-        <f t="shared" si="6"/>
-        <v>2617.0060967741933</v>
+        <f t="shared" si="8"/>
+        <v>1308.5030483870967</v>
       </c>
       <c r="O24" s="14"/>
       <c r="P24" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q24" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R24" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S24" s="14"/>
     </row>
@@ -37484,25 +38234,25 @@
         <v>1334.5018366849022</v>
       </c>
       <c r="M25" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>646.0698488021128</v>
       </c>
       <c r="N25" s="14">
-        <f t="shared" si="6"/>
-        <v>2897.8060967741931</v>
+        <f t="shared" si="8"/>
+        <v>1448.9030483870965</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q25" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R25" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S25" s="14"/>
     </row>
@@ -37546,25 +38296,25 @@
         <v>1468.6138366849023</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>710.83984880211278</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" si="6"/>
-        <v>3194.9860967741929</v>
+        <f t="shared" si="8"/>
+        <v>1597.4930483870965</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R26" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S26" s="14"/>
     </row>
@@ -37608,25 +38358,25 @@
         <v>1610.1178366849022</v>
       </c>
       <c r="M27" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>779.17984880211282</v>
       </c>
       <c r="N27" s="14">
-        <f t="shared" si="6"/>
-        <v>3508.5460967741928</v>
+        <f t="shared" si="8"/>
+        <v>1754.2730483870964</v>
       </c>
       <c r="O27" s="14"/>
       <c r="P27" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q27" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R27" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S27" s="14"/>
     </row>
@@ -37670,25 +38420,25 @@
         <v>1759.0138366849021</v>
       </c>
       <c r="M28" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>851.08984880211278</v>
       </c>
       <c r="N28" s="14">
-        <f t="shared" si="6"/>
-        <v>3838.4860967741929</v>
+        <f t="shared" si="8"/>
+        <v>1919.2430483870965</v>
       </c>
       <c r="O28" s="14"/>
       <c r="P28" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q28" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S28" s="14"/>
     </row>
@@ -37732,25 +38482,25 @@
         <v>1915.3018366849021</v>
       </c>
       <c r="M29" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>926.5698488021128</v>
       </c>
       <c r="N29" s="14">
-        <f t="shared" si="6"/>
-        <v>4184.8060967741931</v>
+        <f t="shared" si="8"/>
+        <v>2092.4030483870965</v>
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q29" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S29" s="14"/>
     </row>
@@ -37794,25 +38544,25 @@
         <v>2092.7098366849023</v>
       </c>
       <c r="M30" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1012.2498488021128</v>
       </c>
       <c r="N30" s="14">
-        <f t="shared" si="6"/>
-        <v>4577.926096774193</v>
+        <f t="shared" si="8"/>
+        <v>2288.9630483870965</v>
       </c>
       <c r="O30" s="14"/>
       <c r="P30" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q30" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S30" s="14"/>
     </row>
@@ -37856,25 +38606,25 @@
         <v>2283.8458366849022</v>
       </c>
       <c r="M31" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1104.5598488021128</v>
       </c>
       <c r="N31" s="14">
-        <f t="shared" si="6"/>
-        <v>5001.4660967741929</v>
+        <f t="shared" si="8"/>
+        <v>2500.7330483870965</v>
       </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q31" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S31" s="14"/>
     </row>
@@ -37918,25 +38668,25 @@
         <v>2488.7098366849023</v>
       </c>
       <c r="M32" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1203.4998488021129</v>
       </c>
       <c r="N32" s="14">
-        <f t="shared" si="6"/>
-        <v>5455.426096774193</v>
+        <f t="shared" si="8"/>
+        <v>2727.7130483870965</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q32" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S32" s="14"/>
     </row>
@@ -37980,25 +38730,25 @@
         <v>2707.3018366849024</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1309.0698488021128</v>
       </c>
       <c r="N33" s="14">
-        <f t="shared" si="6"/>
-        <v>5939.8060967741931</v>
+        <f t="shared" si="8"/>
+        <v>2969.9030483870965</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q33" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S33" s="14"/>
     </row>
@@ -38042,25 +38792,25 @@
         <v>2939.6218366849025</v>
       </c>
       <c r="M34" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1421.2698488021128</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="6"/>
-        <v>6454.6060967741932</v>
+        <f t="shared" si="8"/>
+        <v>3227.3030483870966</v>
       </c>
       <c r="O34" s="14"/>
       <c r="P34" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q34" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S34" s="14"/>
     </row>
@@ -38104,25 +38854,25 @@
         <v>3185.6698366849023</v>
       </c>
       <c r="M35" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1540.0998488021128</v>
       </c>
       <c r="N35" s="14">
-        <f t="shared" si="6"/>
-        <v>6999.8260967741935</v>
+        <f t="shared" si="8"/>
+        <v>3499.9130483870968</v>
       </c>
       <c r="O35" s="14"/>
       <c r="P35" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q35" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S35" s="14"/>
     </row>
@@ -38166,25 +38916,25 @@
         <v>3445.4458366849021</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1665.5598488021128</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="6"/>
-        <v>7575.4660967741938</v>
+        <f t="shared" si="8"/>
+        <v>3787.7330483870969</v>
       </c>
       <c r="O36" s="14"/>
       <c r="P36" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q36" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S36" s="14"/>
     </row>
@@ -38228,25 +38978,25 @@
         <v>3718.949836684902</v>
       </c>
       <c r="M37" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1797.6498488021127</v>
       </c>
       <c r="N37" s="14">
-        <f t="shared" si="6"/>
-        <v>8181.5260967741942</v>
+        <f t="shared" si="8"/>
+        <v>4090.7630483870971</v>
       </c>
       <c r="O37" s="14"/>
       <c r="P37" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q37" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S37" s="14"/>
     </row>
@@ -38290,25 +39040,25 @@
         <v>4006.181836684902</v>
       </c>
       <c r="M38" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1936.3698488021128</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="6"/>
-        <v>8818.0060967741938</v>
+        <f t="shared" si="8"/>
+        <v>4409.0030483870969</v>
       </c>
       <c r="O38" s="14"/>
       <c r="P38" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.28</v>
       </c>
       <c r="Q38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5499999999999998</v>
       </c>
       <c r="R38" s="14">
-        <f t="shared" si="4"/>
-        <v>11.7</v>
+        <f t="shared" si="6"/>
+        <v>5.85</v>
       </c>
       <c r="S38" s="14"/>
     </row>
@@ -38352,12 +39102,1253 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15326FDA-1AD6-457F-A3C6-2F8AC2D93E34}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB2:AB4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>1105</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>985</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="V2" s="3">
+        <v>8</v>
+      </c>
+      <c r="W2" s="3">
+        <v>18</v>
+      </c>
+      <c r="X2" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>(V2*W2)*(1-Z2-AA2)/Y2</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <f>时间预估!G3</f>
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="14">
+        <f>时间预估!H3</f>
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="U3" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>18</v>
+      </c>
+      <c r="X3" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>(V3*W3)*(1-Z3-AA3)/Y3</f>
+        <v>0.96000000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <f>时间预估!G4</f>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="C4" s="14">
+        <f>时间预估!H4</f>
+        <v>2.2814814814814817</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="U4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V4" s="3">
+        <v>8</v>
+      </c>
+      <c r="W4" s="3">
+        <v>18</v>
+      </c>
+      <c r="X4" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>(V4*W4)*(1-Z4-AA4)/Y4</f>
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <f>时间预估!G5</f>
+        <v>1.4035087719298245</v>
+      </c>
+      <c r="C5" s="14">
+        <f>时间预估!H5</f>
+        <v>3.6849902534113061</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14">
+        <f>时间预估!G6</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="14">
+        <f>时间预估!H6</f>
+        <v>5.6849902534113061</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
+        <f>时间预估!G7</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="C7" s="14">
+        <f>时间预估!H7</f>
+        <v>10.12943469785575</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14">
+        <f>时间预估!G8</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="C8" s="14">
+        <f>时间预估!H8</f>
+        <v>15.462768031189082</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14">
+        <f>时间预估!G9</f>
+        <v>5.161290322580645</v>
+      </c>
+      <c r="C9" s="14">
+        <f>时间预估!H9</f>
+        <v>20.624058353769726</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14">
+        <f>时间预估!G10</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="C10" s="14">
+        <f>时间预估!H10</f>
+        <v>27.290725020436394</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14">
+        <f>时间预估!G11</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C11" s="14">
+        <f>时间预估!H11</f>
+        <v>35.490725020436393</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="14">
+        <f>时间预估!G12</f>
+        <v>8.43</v>
+      </c>
+      <c r="C12" s="14">
+        <f>时间预估!H12</f>
+        <v>43.920725020436393</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14">
+        <f>时间预估!G13</f>
+        <v>9.43</v>
+      </c>
+      <c r="C13" s="14">
+        <f>时间预估!H13</f>
+        <v>53.350725020436393</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14">
+        <f>时间预估!G14</f>
+        <v>10.43</v>
+      </c>
+      <c r="C14" s="14">
+        <f>时间预估!H14</f>
+        <v>63.780725020436392</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14">
+        <f>时间预估!G15</f>
+        <v>11.43</v>
+      </c>
+      <c r="C15" s="14">
+        <f>时间预估!H15</f>
+        <v>75.210725020436399</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14">
+        <f>时间预估!G16</f>
+        <v>12.43</v>
+      </c>
+      <c r="C16" s="14">
+        <f>时间预估!H16</f>
+        <v>87.640725020436406</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="14">
+        <f>时间预估!G17</f>
+        <v>13.43</v>
+      </c>
+      <c r="C17" s="14">
+        <f>时间预估!H17</f>
+        <v>101.07072502043641</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="14">
+        <f>时间预估!G18</f>
+        <v>14.43</v>
+      </c>
+      <c r="C18" s="14">
+        <f>时间预估!H18</f>
+        <v>115.50072502043642</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="14">
+        <f>时间预估!G19</f>
+        <v>15.43</v>
+      </c>
+      <c r="C19" s="14">
+        <f>时间预估!H19</f>
+        <v>130.93072502043643</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="14">
+        <f>时间预估!G20</f>
+        <v>16.43</v>
+      </c>
+      <c r="C20" s="14">
+        <f>时间预估!H20</f>
+        <v>147.36072502043643</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="14">
+        <f>时间预估!G21</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C21" s="14">
+        <f>时间预估!H21</f>
+        <v>165.76072502043644</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <f>时间预估!G22</f>
+        <v>19.8</v>
+      </c>
+      <c r="C22" s="14">
+        <f>时间预估!H22</f>
+        <v>185.56072502043645</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14">
+        <f>时间预估!G23</f>
+        <v>21.2</v>
+      </c>
+      <c r="C23" s="14">
+        <f>时间预估!H23</f>
+        <v>206.76072502043644</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="14">
+        <f>时间预估!G24</f>
+        <v>22.599999999999998</v>
+      </c>
+      <c r="C24" s="14">
+        <f>时间预估!H24</f>
+        <v>229.36072502043643</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14">
+        <f>时间预估!G25</f>
+        <v>23.999999999999996</v>
+      </c>
+      <c r="C25" s="14">
+        <f>时间预估!H25</f>
+        <v>253.36072502043643</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14">
+        <f>时间预估!G26</f>
+        <v>25.399999999999995</v>
+      </c>
+      <c r="C26" s="14">
+        <f>时间预估!H26</f>
+        <v>278.76072502043644</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14">
+        <f>时间预估!G27</f>
+        <v>26.8</v>
+      </c>
+      <c r="C27" s="14">
+        <f>时间预估!H27</f>
+        <v>305.56072502043645</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14">
+        <f>时间预估!G28</f>
+        <v>28.2</v>
+      </c>
+      <c r="C28" s="14">
+        <f>时间预估!H28</f>
+        <v>333.76072502043644</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14">
+        <f>时间预估!G29</f>
+        <v>29.599999999999998</v>
+      </c>
+      <c r="C29" s="14">
+        <f>时间预估!H29</f>
+        <v>363.36072502043646</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="14">
+        <f>时间预估!G30</f>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="C30" s="14">
+        <f>时间预估!H30</f>
+        <v>396.96072502043648</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="14">
+        <f>时间预估!G31</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C31" s="14">
+        <f>时间预估!H31</f>
+        <v>433.16072502043647</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="14">
+        <f>时间预估!G32</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C32" s="14">
+        <f>时间预估!H32</f>
+        <v>471.96072502043648</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="14">
+        <f>时间预估!G33</f>
+        <v>41.400000000000006</v>
+      </c>
+      <c r="C33" s="14">
+        <f>时间预估!H33</f>
+        <v>513.36072502043646</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="14">
+        <f>时间预估!G34</f>
+        <v>44</v>
+      </c>
+      <c r="C34" s="14">
+        <f>时间预估!H34</f>
+        <v>557.36072502043646</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="14">
+        <f>时间预估!G35</f>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="C35" s="14">
+        <f>时间预估!H35</f>
+        <v>603.96072502043648</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="14">
+        <f>时间预估!G36</f>
+        <v>49.2</v>
+      </c>
+      <c r="C36" s="14">
+        <f>时间预估!H36</f>
+        <v>653.16072502043653</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="14">
+        <f>时间预估!G37</f>
+        <v>51.8</v>
+      </c>
+      <c r="C37" s="14">
+        <f>时间预估!H37</f>
+        <v>704.96072502043648</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="14">
+        <f>时间预估!G38</f>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="C38" s="14">
+        <f>时间预估!H38</f>
+        <v>759.36072502043646</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38367,8 +40358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF02CC35-7E02-4B86-9D0B-012141746925}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38402,7 +40393,7 @@
         <v>947</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M1" s="29" t="s">
         <v>108</v>
@@ -38433,23 +40424,23 @@
       </c>
       <c r="C2" s="14">
         <f>$B2*M2</f>
-        <v>0.52800000000000002</v>
+        <v>0</v>
       </c>
       <c r="D2" s="14">
         <f t="shared" ref="D2:H7" si="0">$B2*N2</f>
-        <v>0.52800000000000002</v>
+        <v>0</v>
       </c>
       <c r="E2" s="14">
         <f t="shared" si="0"/>
-        <v>0.52800000000000002</v>
+        <v>0</v>
       </c>
       <c r="F2" s="14">
         <f t="shared" si="0"/>
-        <v>2.1120000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" si="0"/>
-        <v>0.79200000000000004</v>
+        <v>0</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" si="0"/>
@@ -38457,33 +40448,33 @@
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2:I6" si="1">B2-SUM(C2:H2)</f>
-        <v>0</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="K2">
         <f>VLOOKUP(A2,宝箱规划!$A$14:$B$23,2,FALSE)</f>
-        <v>27.6</v>
+        <v>30</v>
       </c>
       <c r="M2" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="R2" s="3">
         <v>0.15</v>
       </c>
       <c r="S2">
         <f>SUM(M2:R2)</f>
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -38496,7 +40487,7 @@
       </c>
       <c r="C3" s="14">
         <f t="shared" ref="C3:C7" si="2">$B3*M3</f>
-        <v>0.255</v>
+        <v>0.51</v>
       </c>
       <c r="D3" s="14">
         <f t="shared" si="0"/>
@@ -38504,11 +40495,11 @@
       </c>
       <c r="E3" s="14">
         <f t="shared" si="0"/>
-        <v>0.255</v>
+        <v>0.51</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="0"/>
-        <v>0.7649999999999999</v>
+        <v>0.255</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" si="0"/>
@@ -38527,16 +40518,16 @@
         <v>45</v>
       </c>
       <c r="M3" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N3" s="3">
         <v>0.2</v>
       </c>
       <c r="O3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P3" s="3">
         <v>0.1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0.3</v>
       </c>
       <c r="Q3" s="3">
         <v>0.15</v>
@@ -38555,31 +40546,31 @@
       </c>
       <c r="B4" s="3">
         <f>坦克升星成长线规划!Y4</f>
-        <v>11.7</v>
+        <v>5.85</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="2"/>
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="D4" s="14">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="0"/>
-        <v>1.7549999999999999</v>
+        <v>0.87749999999999995</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>1.7549999999999999</v>
+        <v>0.87749999999999995</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="I4" s="22">
         <f t="shared" si="1"/>
@@ -38587,7 +40578,7 @@
       </c>
       <c r="K4">
         <f>VLOOKUP(A4,宝箱规划!$A$14:$B$23,2,FALSE)</f>
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="M4" s="3">
         <v>0.2</v>
@@ -38617,7 +40608,7 @@
         <v>979</v>
       </c>
       <c r="B5" s="3">
-        <f>坦克升星成长线规划!AB8</f>
+        <f>部件升星成长规划!AB2</f>
         <v>2.4</v>
       </c>
       <c r="C5" s="14">
@@ -38650,7 +40641,7 @@
       </c>
       <c r="K5">
         <f>VLOOKUP(A5,宝箱规划!$A$14:$B$23,2,FALSE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3">
         <v>0.2</v>
@@ -38680,7 +40671,7 @@
         <v>980</v>
       </c>
       <c r="B6" s="3">
-        <f>坦克升星成长线规划!AB9</f>
+        <f>部件升星成长规划!AB3</f>
         <v>0.96000000000000008</v>
       </c>
       <c r="C6" s="14">
@@ -38713,7 +40704,7 @@
       </c>
       <c r="K6">
         <f>VLOOKUP(A6,宝箱规划!$A$14:$B$23,2,FALSE)</f>
-        <v>52.9</v>
+        <v>50</v>
       </c>
       <c r="M6" s="3">
         <v>0.2</v>
@@ -38743,7 +40734,7 @@
         <v>982</v>
       </c>
       <c r="B7" s="3">
-        <f>坦克升星成长线规划!AB10</f>
+        <f>部件升星成长规划!AB4</f>
         <v>0.504</v>
       </c>
       <c r="C7" s="14">
@@ -38776,7 +40767,7 @@
       </c>
       <c r="K7">
         <f>VLOOKUP(A7,宝箱规划!$A$14:$B$23,2,FALSE)</f>
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M7" s="3">
         <v>0.2</v>
@@ -38804,36 +40795,36 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8">
         <f>SUMPRODUCT(C2:C7,$K$2:$K$7)</f>
-        <v>200.39099999999999</v>
+        <v>192.62999999999997</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:H8" si="5">SUMPRODUCT(D2:D7,$K$2:$K$7)</f>
-        <v>211.86599999999999</v>
+        <v>192.62999999999997</v>
       </c>
       <c r="E8">
         <f t="shared" si="5"/>
-        <v>200.39099999999999</v>
+        <v>192.62999999999997</v>
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
-        <v>223.47359999999998</v>
+        <v>138.73499999999999</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>169.82909999999998</v>
+        <v>144.47249999999997</v>
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>126.2433</v>
+        <v>125.81249999999999</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B13" s="14">
         <f>SUMPRODUCT(B2:B7,K2:K7)</f>
-        <v>1132.194</v>
+        <v>1121.5500000000002</v>
       </c>
     </row>
   </sheetData>
@@ -38860,7 +40851,7 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K31" sqref="K27:K31"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38878,13 +40869,13 @@
         <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>107</v>
@@ -38936,7 +40927,7 @@
         <v>876</v>
       </c>
       <c r="J2" s="14">
-        <v>0.26400000000000001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="14">
         <v>0.52800000000000002</v>
@@ -38978,7 +40969,7 @@
         <v>877</v>
       </c>
       <c r="J3" s="14">
-        <v>0.1275</v>
+        <v>0.51</v>
       </c>
       <c r="K3" s="14">
         <v>0.51</v>
@@ -39020,7 +41011,7 @@
         <v>878</v>
       </c>
       <c r="J4" s="14">
-        <v>1.4624999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="K4" s="14">
         <v>2.1</v>
@@ -39146,7 +41137,7 @@
         <v>881</v>
       </c>
       <c r="J7" s="14">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="K7" s="14">
         <v>0.4</v>
@@ -39188,7 +41179,7 @@
         <v>882</v>
       </c>
       <c r="J8" s="14">
-        <v>9.6000000000000016E-2</v>
+        <v>0.19200000000000003</v>
       </c>
       <c r="K8" s="14">
         <v>0.19200000000000003</v>
@@ -39230,7 +41221,7 @@
         <v>883</v>
       </c>
       <c r="J9" s="14">
-        <v>5.04E-2</v>
+        <v>0.1008</v>
       </c>
       <c r="K9" s="14">
         <v>0.1008</v>
@@ -39311,24 +41302,24 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" ref="J11" si="1">SUMPRODUCT(J2:J10,$B$15:$B$23)</f>
-        <v>118.038</v>
+        <f>SUMPRODUCT(J2:J10,$B$15:$B$23)</f>
+        <v>192.62999999999997</v>
       </c>
       <c r="K11">
         <f>SUMPRODUCT(K2:K10,$B$15:$B$23)</f>
-        <v>195.46600000000001</v>
+        <v>318.47000000000003</v>
       </c>
       <c r="L11">
         <f>SUMPRODUCT(L2:L10,$B$15:$B$23)</f>
-        <v>182.935</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="M11">
         <f>SUMPRODUCT(M2:M10,$B$15:$B$23)</f>
-        <v>500.26</v>
+        <v>726.2</v>
       </c>
       <c r="N11">
         <f>SUMPRODUCT(N2:N10,$B$15:$B$23)</f>
-        <v>1594.0441023335475</v>
+        <v>2278.7766645257975</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -39360,34 +41351,34 @@
         <v>986</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>987</v>
+        <v>1091</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="I14" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="P14" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -39395,7 +41386,7 @@
         <v>876</v>
       </c>
       <c r="B15" s="3">
-        <v>27.6</v>
+        <v>30</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -39407,8 +41398,8 @@
         <v>2</v>
       </c>
       <c r="K15" s="34">
-        <f t="shared" ref="K15:K23" si="2">IF(L15=0,0,(J2/L15)/J15)</f>
-        <v>8.8000000000000009E-2</v>
+        <f t="shared" ref="K15:K23" si="1">IF(L15=0,0,(J2/L15)/J15)</f>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>1.5</v>
@@ -39420,7 +41411,7 @@
         <v>3</v>
       </c>
       <c r="Q15" s="34">
-        <f t="shared" ref="Q15:Q23" si="3">IF(R15=0,0,(K2/R15)/P15)</f>
+        <f t="shared" ref="Q15:Q23" si="2">IF(R15=0,0,(K2/R15)/P15)</f>
         <v>0.11733333333333335</v>
       </c>
       <c r="R15" s="3">
@@ -39444,8 +41435,8 @@
         <v>2</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="2"/>
-        <v>6.3750000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.255</v>
       </c>
       <c r="L16" s="3">
         <v>1</v>
@@ -39457,7 +41448,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.17</v>
       </c>
       <c r="R16" s="3">
@@ -39469,7 +41460,7 @@
         <v>878</v>
       </c>
       <c r="B17" s="3">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -39481,8 +41472,8 @@
         <v>2</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="2"/>
-        <v>0.73124999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.58499999999999996</v>
       </c>
       <c r="L17" s="3">
         <v>1</v>
@@ -39494,7 +41485,7 @@
         <v>3</v>
       </c>
       <c r="Q17" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="R17" s="3">
@@ -39506,7 +41497,7 @@
         <v>879</v>
       </c>
       <c r="B18" s="3">
-        <v>444</v>
+        <v>270</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -39518,7 +41509,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="3">
@@ -39531,7 +41522,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R18" s="3">
@@ -39543,7 +41534,7 @@
         <v>880</v>
       </c>
       <c r="B19" s="3">
-        <v>1600</v>
+        <v>2160</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -39555,7 +41546,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="3">
@@ -39568,7 +41559,7 @@
         <v>3</v>
       </c>
       <c r="Q19" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R19" s="3">
@@ -39580,7 +41571,7 @@
         <v>881</v>
       </c>
       <c r="B20" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -39592,8 +41583,8 @@
         <v>2</v>
       </c>
       <c r="K20" s="34">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
+        <f t="shared" si="1"/>
+        <v>0.16</v>
       </c>
       <c r="L20" s="3">
         <v>1.5</v>
@@ -39605,7 +41596,7 @@
         <v>3</v>
       </c>
       <c r="Q20" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="R20" s="3">
@@ -39617,7 +41608,7 @@
         <v>882</v>
       </c>
       <c r="B21" s="3">
-        <v>52.9</v>
+        <v>50</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -39629,8 +41620,8 @@
         <v>2</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="2"/>
-        <v>3.2000000000000008E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.4000000000000015E-2</v>
       </c>
       <c r="L21" s="3">
         <v>1.5</v>
@@ -39642,7 +41633,7 @@
         <v>3</v>
       </c>
       <c r="Q21" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.4000000000000015E-2</v>
       </c>
       <c r="R21" s="3">
@@ -39654,7 +41645,7 @@
         <v>883</v>
       </c>
       <c r="B22" s="3">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -39666,8 +41657,8 @@
         <v>2</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="2"/>
-        <v>1.6799999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="L22" s="3">
         <v>1.5</v>
@@ -39679,7 +41670,7 @@
         <v>3</v>
       </c>
       <c r="Q22" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="R22" s="3">
@@ -39703,29 +41694,33 @@
         <v>2</v>
       </c>
       <c r="K23" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B24" s="5">
+        <v>300</v>
+      </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -39733,7 +41728,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="45">
         <f>SUM(K15:K23)</f>
-        <v>1.0118</v>
+        <v>1.0976000000000001</v>
       </c>
       <c r="L24" s="9"/>
       <c r="O24" s="9"/>
@@ -39744,42 +41739,50 @@
       </c>
       <c r="R24" s="9"/>
     </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B25" s="5">
+        <v>600</v>
+      </c>
+    </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="I26" s="3" t="s">
         <v>115</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K26" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>1010</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>116</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Q26" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>1010</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>117</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="W26" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="X26" s="3" t="s">
         <v>1009</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -39790,7 +41793,7 @@
         <v>2</v>
       </c>
       <c r="K27" s="34">
-        <f t="shared" ref="K27:K35" si="4">IF(L27=0,0,(L2/L27)/J27)</f>
+        <f t="shared" ref="K27:K35" si="3">IF(L27=0,0,(L2/L27)/J27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="3">
@@ -39803,7 +41806,7 @@
         <v>3</v>
       </c>
       <c r="Q27" s="34">
-        <f t="shared" ref="Q27:Q35" si="5">IF(R27=0,0,(M2/R27)/P27)</f>
+        <f t="shared" ref="Q27:Q35" si="4">IF(R27=0,0,(M2/R27)/P27)</f>
         <v>0</v>
       </c>
       <c r="R27" s="3">
@@ -39816,7 +41819,7 @@
         <v>5</v>
       </c>
       <c r="W27" s="34">
-        <f t="shared" ref="W27:W35" si="6">IF(X27=0,0,(N2/X27)/V27)</f>
+        <f t="shared" ref="W27:W35" si="5">IF(X27=0,0,(N2/X27)/V27)</f>
         <v>0</v>
       </c>
       <c r="X27" s="3">
@@ -39831,7 +41834,7 @@
         <v>2</v>
       </c>
       <c r="K28" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L28" s="3">
@@ -39844,7 +41847,7 @@
         <v>3</v>
       </c>
       <c r="Q28" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.3492063492063489E-2</v>
       </c>
       <c r="R28" s="3">
@@ -39857,7 +41860,7 @@
         <v>5</v>
       </c>
       <c r="W28" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333333332E-2</v>
       </c>
       <c r="X28" s="3">
@@ -39872,7 +41875,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="L29" s="3">
@@ -39885,7 +41888,7 @@
         <v>3</v>
       </c>
       <c r="Q29" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.66888888888888876</v>
       </c>
       <c r="R29" s="3">
@@ -39898,7 +41901,7 @@
         <v>5</v>
       </c>
       <c r="W29" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.2690909090909091</v>
       </c>
       <c r="X29" s="3">
@@ -39913,22 +41916,22 @@
         <v>2</v>
       </c>
       <c r="K30" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="P30" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="P30" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q30" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="R30" s="3">
         <v>0</v>
       </c>
@@ -39939,7 +41942,7 @@
         <v>5</v>
       </c>
       <c r="W30" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X30" s="3">
@@ -39954,7 +41957,7 @@
         <v>2</v>
       </c>
       <c r="K31" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L31" s="3">
@@ -39967,7 +41970,7 @@
         <v>3</v>
       </c>
       <c r="Q31" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="R31" s="3">
@@ -39980,7 +41983,7 @@
         <v>5</v>
       </c>
       <c r="W31" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="X31" s="3">
@@ -39995,7 +41998,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L32" s="3">
@@ -40008,7 +42011,7 @@
         <v>3</v>
       </c>
       <c r="Q32" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="R32" s="3">
@@ -40021,7 +42024,7 @@
         <v>5</v>
       </c>
       <c r="W32" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X32" s="3">
@@ -40036,7 +42039,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L33" s="3">
@@ -40049,7 +42052,7 @@
         <v>3</v>
       </c>
       <c r="Q33" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="R33" s="3">
@@ -40062,7 +42065,7 @@
         <v>5</v>
       </c>
       <c r="W33" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.27799999999999997</v>
       </c>
       <c r="X33" s="3">
@@ -40077,7 +42080,7 @@
         <v>2</v>
       </c>
       <c r="K34" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="L34" s="3">
@@ -40090,7 +42093,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="R34" s="3">
@@ -40103,7 +42106,7 @@
         <v>5</v>
       </c>
       <c r="W34" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.31513594519374855</v>
       </c>
       <c r="X34" s="3">
@@ -40118,22 +42121,22 @@
         <v>2</v>
       </c>
       <c r="K35" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="P35" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="34">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="P35" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>1</v>
       </c>
@@ -40144,7 +42147,7 @@
         <v>5</v>
       </c>
       <c r="W35" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.1408691928923144E-2</v>
       </c>
       <c r="X35" s="3">
@@ -40261,7 +42264,7 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A7" sqref="A5:XFD7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/[Work]/170数值/170数值规划.xlsx
+++ b/[Work]/170数值/170数值规划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Notes\[Work]\170数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD02AE9-202A-4B1E-B7FD-7EA17109136B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22FAE3C-0E80-4B21-8A8A-567D0ECFDC19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="875" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整体大纲" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="1111">
   <si>
     <t>神秘猿·S 当前高级玩家使用量最多的坦克</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3635,6 +3635,25 @@
   </si>
   <si>
     <t>T4部件单天投放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3替代比例</t>
+  </si>
+  <si>
+    <t>Rank8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计消耗部件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星级-查找用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3703,7 +3722,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3737,6 +3756,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3788,7 +3813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3865,6 +3890,9 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -18361,8 +18389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B418D2BE-14E1-4547-8054-78E2AB0E4091}">
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23064,18 +23092,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431CB2D-C2D0-4434-B0D6-DE69030EC8A7}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>939</v>
       </c>
@@ -23088,8 +23118,14 @@
       <c r="D1" s="2" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -23102,8 +23138,15 @@
       <c r="D2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -23116,8 +23159,15 @@
       <c r="D3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F13" si="0">B3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -23130,8 +23180,15 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -23144,8 +23201,15 @@
       <c r="D5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -23158,8 +23222,15 @@
       <c r="D6" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -23172,8 +23243,15 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -23186,8 +23264,15 @@
       <c r="D8" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -23200,8 +23285,15 @@
       <c r="D9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -23214,8 +23306,15 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -23228,8 +23327,15 @@
       <c r="D11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -23242,8 +23348,15 @@
       <c r="D12" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -23255,6 +23368,13 @@
       </c>
       <c r="D13" s="3">
         <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -36602,8 +36722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0535A995-A387-D84B-9BD1-FA42A25E46A9}">
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39102,10 +39222,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15326FDA-1AD6-457F-A3C6-2F8AC2D93E34}">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB2:AB4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39116,10 +39236,11 @@
     <col min="16" max="19" width="15.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="29" max="29" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
@@ -39198,11 +39319,14 @@
       <c r="AA1" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AC1" s="24" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -39212,22 +39336,58 @@
       <c r="C2" s="14">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <f>$AC$2</f>
+        <v>2.4</v>
+      </c>
+      <c r="Q2" s="3">
+        <f>$AC$3</f>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R2" s="3">
+        <f>$AC$4</f>
+        <v>0.504</v>
+      </c>
+      <c r="S2" s="3">
+        <f>$AC$5</f>
+        <v>0</v>
+      </c>
       <c r="U2" s="3" t="s">
         <v>908</v>
       </c>
@@ -39250,11 +39410,14 @@
         <v>0</v>
       </c>
       <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
         <f>(V2*W2)*(1-Z2-AA2)/Y2</f>
         <v>2.4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -39266,22 +39429,70 @@
         <f>时间预估!H3</f>
         <v>0.8</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="D3" s="3">
+        <f>IF(H3=0,0,VLOOKUP(L3/H3,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <f>IF(I3=0,0,VLOOKUP(M3/I3,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>IF(J3=0,0,VLOOKUP(N3/J3,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>IF(K3=0,0,VLOOKUP(O3/K3,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f>IF(L3&lt;18,ROUNDDOWN(L3,0),18)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:K3" si="0">IF(M3&lt;18,ROUNDDOWN(M3,0),18)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f>P3*$B3+L2</f>
+        <v>1.92</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:O3" si="1">Q3*$B3+M2</f>
+        <v>0.76800000000000013</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4032</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P38" si="2">$AC$2</f>
+        <v>2.4</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" ref="Q3:Q38" si="3">$AC$3</f>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R38" si="4">$AC$4</f>
+        <v>0.504</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" ref="S3:S38" si="5">$AC$5</f>
+        <v>0</v>
+      </c>
       <c r="U3" s="3" t="s">
         <v>909</v>
       </c>
@@ -39304,11 +39515,14 @@
         <v>0</v>
       </c>
       <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
         <f>(V3*W3)*(1-Z3-AA3)/Y3</f>
         <v>0.96000000000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -39320,22 +39534,70 @@
         <f>时间预估!H4</f>
         <v>2.2814814814814817</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="D4" s="3">
+        <f>IF(H4=0,0,VLOOKUP(L4/H4,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <f>IF(I4=0,0,VLOOKUP(M4/I4,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <f>IF(J4=0,0,VLOOKUP(N4/J4,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <f>IF(K4=0,0,VLOOKUP(O4/K4,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H38" si="6">IF(L4&lt;18,ROUNDDOWN(L4,0),18)</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I38" si="7">IF(M4&lt;18,ROUNDDOWN(M4,0),18)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4:J38" si="8">IF(N4&lt;18,ROUNDDOWN(N4,0),18)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K38" si="9">IF(O4&lt;18,ROUNDDOWN(O4,0),18)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" ref="L4:L38" si="10">P4*$B4+L3</f>
+        <v>5.4755555555555553</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M38" si="11">Q4*$B4+M3</f>
+        <v>2.1902222222222223</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N38" si="12">R4*$B4+N3</f>
+        <v>1.1498666666666666</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O38" si="13">S4*$B4+O3</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="U4" s="3" t="s">
         <v>144</v>
       </c>
@@ -39358,11 +39620,14 @@
         <v>0.1</v>
       </c>
       <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
         <f>(V4*W4)*(1-Z4-AA4)/Y4</f>
         <v>0.504</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -39374,24 +39639,91 @@
         <f>时间预估!H5</f>
         <v>3.6849902534113061</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D5" s="3">
+        <f>IF(H5=0,0,VLOOKUP(L5/H5,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <f>IF(I5=0,0,VLOOKUP(M5/I5,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>IF(J5=0,0,VLOOKUP(N5/J5,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <f>IF(K5=0,0,VLOOKUP(O5/K5,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="10"/>
+        <v>8.843976608187134</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="11"/>
+        <v>3.5375906432748536</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="12"/>
+        <v>1.8572350877192982</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V5" s="3">
+        <v>8</v>
+      </c>
+      <c r="W5" s="3">
+        <v>18</v>
+      </c>
+      <c r="X5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>400</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -39403,24 +39735,72 @@
         <f>时间预估!H6</f>
         <v>5.6849902534113061</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <f>IF(H6=0,0,VLOOKUP(L6/H6,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <f>IF(I6=0,0,VLOOKUP(M6/I6,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <f>IF(J6=0,0,VLOOKUP(N6/J6,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <f>IF(K6=0,0,VLOOKUP(O6/K6,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="10"/>
+        <v>13.643976608187135</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="11"/>
+        <v>5.4575906432748535</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="12"/>
+        <v>2.8652350877192982</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -39432,24 +39812,72 @@
         <f>时间预估!H7</f>
         <v>10.12943469785575</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <f>IF(H7=0,0,VLOOKUP(L7/H7,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <f>IF(I7=0,0,VLOOKUP(M7/I7,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>IF(J7=0,0,VLOOKUP(N7/J7,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <f>IF(K7=0,0,VLOOKUP(O7/K7,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="10"/>
+        <v>24.310643274853803</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="11"/>
+        <v>9.724257309941521</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="12"/>
+        <v>5.1052350877192989</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -39461,24 +39889,72 @@
         <f>时间预估!H8</f>
         <v>15.462768031189082</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <f>IF(H8=0,0,VLOOKUP(L8/H8,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <f>IF(I8=0,0,VLOOKUP(M8/I8,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <f>IF(J8=0,0,VLOOKUP(N8/J8,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <f>IF(K8=0,0,VLOOKUP(O8/K8,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="10"/>
+        <v>37.1106432748538</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="11"/>
+        <v>14.844257309941522</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="12"/>
+        <v>7.7932350877192986</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -39490,24 +39966,72 @@
         <f>时间预估!H9</f>
         <v>20.624058353769726</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D9" s="3">
+        <f>IF(H9=0,0,VLOOKUP(L9/H9,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <f>IF(I9=0,0,VLOOKUP(M9/I9,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>IF(J9=0,0,VLOOKUP(N9/J9,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <f>IF(K9=0,0,VLOOKUP(O9/K9,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="10"/>
+        <v>49.497740049047351</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="11"/>
+        <v>19.799096019618943</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="12"/>
+        <v>10.394525410299943</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -39519,24 +40043,72 @@
         <f>时间预估!H10</f>
         <v>27.290725020436394</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D10" s="3">
+        <f>IF(H10=0,0,VLOOKUP(L10/H10,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <f>IF(I10=0,0,VLOOKUP(M10/I10,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <f>IF(J10=0,0,VLOOKUP(N10/J10,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <f>IF(K10=0,0,VLOOKUP(O10/K10,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="10"/>
+        <v>65.497740049047351</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="11"/>
+        <v>26.199096019618942</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="12"/>
+        <v>13.754525410299944</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -39548,24 +40120,72 @@
         <f>时间预估!H11</f>
         <v>35.490725020436393</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="3">
+        <f>IF(H11=0,0,VLOOKUP(L11/H11,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <f>IF(I11=0,0,VLOOKUP(M11/I11,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>IF(J11=0,0,VLOOKUP(N11/J11,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <f>IF(K11=0,0,VLOOKUP(O11/K11,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="10"/>
+        <v>85.177740049047344</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="11"/>
+        <v>34.071096019618942</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="12"/>
+        <v>17.887325410299944</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -39577,24 +40197,72 @@
         <f>时间预估!H12</f>
         <v>43.920725020436393</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D12" s="3">
+        <f>IF(H12=0,0,VLOOKUP(L12/H12,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="3">
+        <f>IF(I12=0,0,VLOOKUP(M12/I12,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <f>IF(J12=0,0,VLOOKUP(N12/J12,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <f>IF(K12=0,0,VLOOKUP(O12/K12,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="10"/>
+        <v>105.40974004904734</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="11"/>
+        <v>42.163896019618946</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="12"/>
+        <v>22.136045410299943</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -39606,24 +40274,72 @@
         <f>时间预估!H13</f>
         <v>53.350725020436393</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D13" s="3">
+        <f>IF(H13=0,0,VLOOKUP(L13/H13,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <f>IF(I13=0,0,VLOOKUP(M13/I13,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
+        <f>IF(J13=0,0,VLOOKUP(N13/J13,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <f>IF(K13=0,0,VLOOKUP(O13/K13,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="10"/>
+        <v>128.04174004904735</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="11"/>
+        <v>51.216696019618951</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="12"/>
+        <v>26.888765410299943</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -39635,24 +40351,72 @@
         <f>时间预估!H14</f>
         <v>63.780725020436392</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D14" s="64">
+        <f>IF(H14=0,0,VLOOKUP(L14/H14,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <f>IF(I14=0,0,VLOOKUP(M14/I14,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <f>IF(J14=0,0,VLOOKUP(N14/J14,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <f>IF(K14=0,0,VLOOKUP(O14/K14,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="10"/>
+        <v>153.07374004904736</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="11"/>
+        <v>61.229496019618949</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="12"/>
+        <v>32.145485410299941</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -39664,24 +40428,72 @@
         <f>时间预估!H15</f>
         <v>75.210725020436399</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="3">
+        <f>IF(H15=0,0,VLOOKUP(L15/H15,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <f>IF(I15=0,0,VLOOKUP(M15/I15,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <f>IF(J15=0,0,VLOOKUP(N15/J15,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <f>IF(K15=0,0,VLOOKUP(O15/K15,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="10"/>
+        <v>180.50574004904735</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="11"/>
+        <v>72.202296019618956</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="12"/>
+        <v>37.90620541029994</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -39693,22 +40505,70 @@
         <f>时间预估!H16</f>
         <v>87.640725020436406</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="D16" s="3">
+        <f>IF(H16=0,0,VLOOKUP(L16/H16,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <f>IF(I16=0,0,VLOOKUP(M16/I16,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <f>IF(J16=0,0,VLOOKUP(N16/J16,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <f>IF(K16=0,0,VLOOKUP(O16/K16,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="10"/>
+        <v>210.33774004904734</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="11"/>
+        <v>84.135096019618956</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="12"/>
+        <v>44.170925410299937</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -39722,22 +40582,70 @@
         <f>时间预估!H17</f>
         <v>101.07072502043641</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="D17" s="3">
+        <f>IF(H17=0,0,VLOOKUP(L17/H17,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <f>IF(I17=0,0,VLOOKUP(M17/I17,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <f>IF(J17=0,0,VLOOKUP(N17/J17,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <f>IF(K17=0,0,VLOOKUP(O17/K17,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="10"/>
+        <v>242.56974004904734</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="11"/>
+        <v>97.027896019618964</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="12"/>
+        <v>50.939645410299939</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
@@ -39751,22 +40659,70 @@
         <f>时间预估!H18</f>
         <v>115.50072502043642</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="D18" s="3">
+        <f>IF(H18=0,0,VLOOKUP(L18/H18,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <f>IF(I18=0,0,VLOOKUP(M18/I18,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <f>IF(J18=0,0,VLOOKUP(N18/J18,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <f>IF(K18=0,0,VLOOKUP(O18/K18,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="10"/>
+        <v>277.20174004904732</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="11"/>
+        <v>110.88069601961897</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="12"/>
+        <v>58.212365410299938</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
@@ -39780,22 +40736,70 @@
         <f>时间预估!H19</f>
         <v>130.93072502043643</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="D19" s="3">
+        <f>IF(H19=0,0,VLOOKUP(L19/H19,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <f>IF(I19=0,0,VLOOKUP(M19/I19,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
+        <f>IF(J19=0,0,VLOOKUP(N19/J19,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <f>IF(K19=0,0,VLOOKUP(O19/K19,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="10"/>
+        <v>314.2337400490473</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="11"/>
+        <v>125.69349601961896</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="12"/>
+        <v>65.989085410299936</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -39809,22 +40813,70 @@
         <f>时间预估!H20</f>
         <v>147.36072502043643</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="D20" s="3">
+        <f>IF(H20=0,0,VLOOKUP(L20/H20,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <f>IF(I20=0,0,VLOOKUP(M20/I20,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <f>IF(J20=0,0,VLOOKUP(N20/J20,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <f>IF(K20=0,0,VLOOKUP(O20/K20,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="10"/>
+        <v>353.66574004904732</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="11"/>
+        <v>141.46629601961897</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="12"/>
+        <v>74.269805410299938</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
@@ -39838,22 +40890,70 @@
         <f>时间预估!H21</f>
         <v>165.76072502043644</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+      <c r="D21" s="3">
+        <f>IF(H21=0,0,VLOOKUP(L21/H21,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E21" s="64">
+        <f>IF(I21=0,0,VLOOKUP(M21/I21,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <f>IF(J21=0,0,VLOOKUP(N21/J21,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <f>IF(K21=0,0,VLOOKUP(O21/K21,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="10"/>
+        <v>397.82574004904734</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="11"/>
+        <v>159.13029601961898</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="12"/>
+        <v>83.54340541029994</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
@@ -39867,22 +40967,70 @@
         <f>时间预估!H22</f>
         <v>185.56072502043645</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="D22" s="3">
+        <f>IF(H22=0,0,VLOOKUP(L22/H22,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <f>IF(I22=0,0,VLOOKUP(M22/I22,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <f>IF(J22=0,0,VLOOKUP(N22/J22,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <f>IF(K22=0,0,VLOOKUP(O22/K22,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="10"/>
+        <v>445.34574004904732</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="11"/>
+        <v>178.13829601961899</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="12"/>
+        <v>93.522605410299946</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
@@ -39896,22 +41044,70 @@
         <f>时间预估!H23</f>
         <v>206.76072502043644</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="D23" s="3">
+        <f>IF(H23=0,0,VLOOKUP(L23/H23,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <f>IF(I23=0,0,VLOOKUP(M23/I23,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
+        <f>IF(J23=0,0,VLOOKUP(N23/J23,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
+        <f>IF(K23=0,0,VLOOKUP(O23/K23,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="10"/>
+        <v>496.22574004904732</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="11"/>
+        <v>198.490296019619</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="12"/>
+        <v>104.20740541029994</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -39925,22 +41121,70 @@
         <f>时间预估!H24</f>
         <v>229.36072502043643</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="D24" s="3">
+        <f>IF(H24=0,0,VLOOKUP(L24/H24,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <f>IF(I24=0,0,VLOOKUP(M24/I24,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
+        <f>IF(J24=0,0,VLOOKUP(N24/J24,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <f>IF(K24=0,0,VLOOKUP(O24/K24,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="10"/>
+        <v>550.46574004904733</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="11"/>
+        <v>220.18629601961899</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="12"/>
+        <v>115.59780541029994</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
@@ -39954,22 +41198,70 @@
         <f>时间预估!H25</f>
         <v>253.36072502043643</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+      <c r="D25" s="3">
+        <f>IF(H25=0,0,VLOOKUP(L25/H25,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <f>IF(I25=0,0,VLOOKUP(M25/I25,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <f>IF(J25=0,0,VLOOKUP(N25/J25,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="3">
+        <f>IF(K25=0,0,VLOOKUP(O25/K25,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="10"/>
+        <v>608.06574004904735</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="11"/>
+        <v>243.22629601961899</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="12"/>
+        <v>127.69380541029994</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S25" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
@@ -39983,22 +41275,70 @@
         <f>时间预估!H26</f>
         <v>278.76072502043644</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="D26" s="3">
+        <f>IF(H26=0,0,VLOOKUP(L26/H26,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <f>IF(I26=0,0,VLOOKUP(M26/I26,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <f>IF(J26=0,0,VLOOKUP(N26/J26,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <f>IF(K26=0,0,VLOOKUP(O26/K26,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="10"/>
+        <v>669.02574004904739</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="11"/>
+        <v>267.610296019619</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="12"/>
+        <v>140.49540541029995</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -40012,22 +41352,70 @@
         <f>时间预估!H27</f>
         <v>305.56072502043645</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+      <c r="D27" s="3">
+        <f>IF(H27=0,0,VLOOKUP(L27/H27,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <f>IF(I27=0,0,VLOOKUP(M27/I27,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F27" s="64">
+        <f>IF(J27=0,0,VLOOKUP(N27/J27,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <f>IF(K27=0,0,VLOOKUP(O27/K27,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="10"/>
+        <v>733.34574004904744</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="11"/>
+        <v>293.33829601961901</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="12"/>
+        <v>154.00260541029996</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
@@ -40041,22 +41429,70 @@
         <f>时间预估!H28</f>
         <v>333.76072502043644</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="D28" s="3">
+        <f>IF(H28=0,0,VLOOKUP(L28/H28,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <f>IF(I28=0,0,VLOOKUP(M28/I28,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
+        <f>IF(J28=0,0,VLOOKUP(N28/J28,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <f>IF(K28=0,0,VLOOKUP(O28/K28,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="10"/>
+        <v>801.02574004904739</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="11"/>
+        <v>320.41029601961901</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="12"/>
+        <v>168.21540541029995</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
@@ -40070,22 +41506,70 @@
         <f>时间预估!H29</f>
         <v>363.36072502043646</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="D29" s="3">
+        <f>IF(H29=0,0,VLOOKUP(L29/H29,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <f>IF(I29=0,0,VLOOKUP(M29/I29,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <f>IF(J29=0,0,VLOOKUP(N29/J29,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <f>IF(K29=0,0,VLOOKUP(O29/K29,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="10"/>
+        <v>872.06574004904735</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="11"/>
+        <v>348.82629601961901</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="12"/>
+        <v>183.13380541029994</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
@@ -40099,22 +41583,70 @@
         <f>时间预估!H30</f>
         <v>396.96072502043648</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="D30" s="3">
+        <f>IF(H30=0,0,VLOOKUP(L30/H30,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
+        <f>IF(I30=0,0,VLOOKUP(M30/I30,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="3">
+        <f>IF(J30=0,0,VLOOKUP(N30/J30,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G30" s="3">
+        <f>IF(K30=0,0,VLOOKUP(O30/K30,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="10"/>
+        <v>952.70574004904734</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="11"/>
+        <v>381.08229601961898</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="12"/>
+        <v>200.06820541029992</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R30" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S30" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
@@ -40128,22 +41660,70 @@
         <f>时间预估!H31</f>
         <v>433.16072502043647</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="D31" s="3">
+        <f>IF(H31=0,0,VLOOKUP(L31/H31,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <f>IF(I31=0,0,VLOOKUP(M31/I31,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <f>IF(J31=0,0,VLOOKUP(N31/J31,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <f>IF(K31=0,0,VLOOKUP(O31/K31,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="10"/>
+        <v>1039.5857400490474</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="11"/>
+        <v>415.83429601961899</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="12"/>
+        <v>218.31300541029992</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
@@ -40157,22 +41737,70 @@
         <f>时间预估!H32</f>
         <v>471.96072502043648</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="D32" s="3">
+        <f>IF(H32=0,0,VLOOKUP(L32/H32,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <f>IF(I32=0,0,VLOOKUP(M32/I32,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <f>IF(J32=0,0,VLOOKUP(N32/J32,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
+        <f>IF(K32=0,0,VLOOKUP(O32/K32,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="10"/>
+        <v>1132.7057400490473</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="11"/>
+        <v>453.08229601961898</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="12"/>
+        <v>237.86820541029994</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R32" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S32" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
@@ -40186,22 +41814,70 @@
         <f>时间预估!H33</f>
         <v>513.36072502043646</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="D33" s="3">
+        <f>IF(H33=0,0,VLOOKUP(L33/H33,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <f>IF(I33=0,0,VLOOKUP(M33/I33,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
+        <f>IF(J33=0,0,VLOOKUP(N33/J33,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <f>IF(K33=0,0,VLOOKUP(O33/K33,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="10"/>
+        <v>1232.0657400490472</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="11"/>
+        <v>492.82629601961901</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="12"/>
+        <v>258.73380541029996</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
@@ -40215,22 +41891,70 @@
         <f>时间预估!H34</f>
         <v>557.36072502043646</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="D34" s="3">
+        <f>IF(H34=0,0,VLOOKUP(L34/H34,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <f>IF(I34=0,0,VLOOKUP(M34/I34,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F34" s="3">
+        <f>IF(J34=0,0,VLOOKUP(N34/J34,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <f>IF(K34=0,0,VLOOKUP(O34/K34,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="10"/>
+        <v>1337.6657400490471</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="11"/>
+        <v>535.06629601961902</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="12"/>
+        <v>280.90980541029995</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
@@ -40244,22 +41968,70 @@
         <f>时间预估!H35</f>
         <v>603.96072502043648</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="D35" s="3">
+        <f>IF(H35=0,0,VLOOKUP(L35/H35,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <f>IF(I35=0,0,VLOOKUP(M35/I35,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
+        <f>IF(J35=0,0,VLOOKUP(N35/J35,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <f>IF(K35=0,0,VLOOKUP(O35/K35,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="10"/>
+        <v>1449.5057400490471</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="11"/>
+        <v>579.80229601961901</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="12"/>
+        <v>304.39620541029996</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
@@ -40273,22 +42045,70 @@
         <f>时间预估!H36</f>
         <v>653.16072502043653</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="D36" s="3">
+        <f>IF(H36=0,0,VLOOKUP(L36/H36,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <f>IF(I36=0,0,VLOOKUP(M36/I36,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <f>IF(J36=0,0,VLOOKUP(N36/J36,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G36" s="3">
+        <f>IF(K36=0,0,VLOOKUP(O36/K36,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="10"/>
+        <v>1567.585740049047</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="11"/>
+        <v>627.03429601961898</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="12"/>
+        <v>329.19300541029997</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
@@ -40302,22 +42122,70 @@
         <f>时间预估!H37</f>
         <v>704.96072502043648</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="D37" s="3">
+        <f>IF(H37=0,0,VLOOKUP(L37/H37,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E37" s="3">
+        <f>IF(I37=0,0,VLOOKUP(M37/I37,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F37" s="3">
+        <f>IF(J37=0,0,VLOOKUP(N37/J37,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <f>IF(K37=0,0,VLOOKUP(O37/K37,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="10"/>
+        <v>1691.9057400490469</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="11"/>
+        <v>676.76229601961893</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="12"/>
+        <v>355.30020541029995</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R37" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S37" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
@@ -40331,35 +42199,139 @@
         <f>时间预估!H38</f>
         <v>759.36072502043646</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="D38" s="3">
+        <f>IF(H38=0,0,VLOOKUP(L38/H38,部件升星消耗!$E$2:$F$4,2,TRUE))</f>
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
+        <f>IF(I38=0,0,VLOOKUP(M38/I38,部件升星消耗!$E$5:$F$7,2,TRUE))</f>
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
+        <f>IF(J38=0,0,VLOOKUP(N38/J38,部件升星消耗!$E$8:$F$10,2,TRUE))</f>
+        <v>5</v>
+      </c>
+      <c r="G38" s="3">
+        <f>IF(K38=0,0,VLOOKUP(O38/K38,部件升星消耗!$E$11:$F$13,2,TRUE))</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="10"/>
+        <v>1822.4657400490469</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="11"/>
+        <v>728.98629601961898</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="12"/>
+        <v>382.71780541029995</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="R38" s="3">
+        <f t="shared" si="4"/>
+        <v>0.504</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:F38">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DD6D85C3-220E-4995-B0A0-C7C8D8E8B8B2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:J38">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{491DFDCF-9F60-4FDE-8243-BD495C90D61B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DD6D85C3-220E-4995-B0A0-C7C8D8E8B8B2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:F38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{491DFDCF-9F60-4FDE-8243-BD495C90D61B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:J38</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF02CC35-7E02-4B86-9D0B-012141746925}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40392,6 +42364,9 @@
       <c r="H1" s="29" t="s">
         <v>947</v>
       </c>
+      <c r="K1" s="62" t="s">
+        <v>1106</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>991</v>
       </c>
@@ -40427,27 +42402,27 @@
         <v>0</v>
       </c>
       <c r="D2" s="14">
-        <f t="shared" ref="D2:H7" si="0">$B2*N2</f>
+        <f t="shared" ref="D2:D7" si="0">$B2*N2</f>
         <v>0</v>
       </c>
       <c r="E2" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E2:E7" si="1">$B2*O2</f>
         <v>0</v>
       </c>
       <c r="F2" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:F7" si="2">$B2*P2</f>
         <v>0</v>
       </c>
       <c r="G2" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G2:G7" si="3">$B2*Q2</f>
         <v>0</v>
       </c>
       <c r="H2" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H2:H7" si="4">$B2*R2</f>
         <v>0.79200000000000004</v>
       </c>
       <c r="I2" s="22">
-        <f t="shared" ref="I2:I6" si="1">B2-SUM(C2:H2)</f>
+        <f t="shared" ref="I2:I6" si="5">B2-SUM(C2:H2)</f>
         <v>4.4880000000000004</v>
       </c>
       <c r="K2">
@@ -40486,7 +42461,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="C3" s="14">
-        <f t="shared" ref="C3:C7" si="2">$B3*M3</f>
+        <f t="shared" ref="C3:C7" si="6">$B3*M3</f>
         <v>0.51</v>
       </c>
       <c r="D3" s="14">
@@ -40494,23 +42469,23 @@
         <v>0.51</v>
       </c>
       <c r="E3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.255</v>
       </c>
       <c r="G3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.38249999999999995</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.38249999999999995</v>
       </c>
       <c r="I3" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K3">
@@ -40536,7 +42511,7 @@
         <v>0.15</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S7" si="3">SUM(M3:R3)</f>
+        <f t="shared" ref="S3:S7" si="7">SUM(M3:R3)</f>
         <v>1</v>
       </c>
     </row>
@@ -40549,7 +42524,7 @@
         <v>5.85</v>
       </c>
       <c r="C4" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.17</v>
       </c>
       <c r="D4" s="14">
@@ -40557,23 +42532,23 @@
         <v>1.17</v>
       </c>
       <c r="E4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.17</v>
       </c>
       <c r="F4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.87749999999999995</v>
       </c>
       <c r="G4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.87749999999999995</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="I4" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K4">
@@ -40599,7 +42574,7 @@
         <v>0.1</v>
       </c>
       <c r="S4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -40608,11 +42583,11 @@
         <v>979</v>
       </c>
       <c r="B5" s="3">
-        <f>部件升星成长规划!AB2</f>
+        <f>部件升星成长规划!AC2</f>
         <v>2.4</v>
       </c>
       <c r="C5" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
       <c r="D5" s="14">
@@ -40620,23 +42595,23 @@
         <v>0.48</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="F5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.24</v>
       </c>
       <c r="I5" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K5">
@@ -40662,7 +42637,7 @@
         <v>0.1</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -40671,11 +42646,11 @@
         <v>980</v>
       </c>
       <c r="B6" s="3">
-        <f>部件升星成长规划!AB3</f>
+        <f>部件升星成长规划!AC3</f>
         <v>0.96000000000000008</v>
       </c>
       <c r="C6" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19200000000000003</v>
       </c>
       <c r="D6" s="14">
@@ -40683,23 +42658,23 @@
         <v>0.19200000000000003</v>
       </c>
       <c r="E6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19200000000000003</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14400000000000002</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.14400000000000002</v>
       </c>
       <c r="H6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.6000000000000016E-2</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K6">
@@ -40725,7 +42700,7 @@
         <v>0.1</v>
       </c>
       <c r="S6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -40734,11 +42709,11 @@
         <v>982</v>
       </c>
       <c r="B7" s="3">
-        <f>部件升星成长规划!AB4</f>
+        <f>部件升星成长规划!AC4</f>
         <v>0.504</v>
       </c>
       <c r="C7" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.1008</v>
       </c>
       <c r="D7" s="14">
@@ -40746,23 +42721,23 @@
         <v>0.1008</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1008</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.5600000000000001E-2</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.5600000000000001E-2</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.04E-2</v>
       </c>
       <c r="I7" s="22">
-        <f t="shared" ref="I7" si="4">B7-SUM(C7:H7)</f>
+        <f t="shared" ref="I7" si="8">B7-SUM(C7:H7)</f>
         <v>0</v>
       </c>
       <c r="K7">
@@ -40788,47 +42763,511 @@
         <v>0.1</v>
       </c>
       <c r="S7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8">
-        <f>SUMPRODUCT(C2:C7,$K$2:$K$7)</f>
+        <f>SUMPRODUCT(C2:C7,$K$11:$K$16)</f>
         <v>192.62999999999997</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:H8" si="5">SUMPRODUCT(D2:D7,$K$2:$K$7)</f>
+        <f t="shared" ref="D8:H8" si="9">SUMPRODUCT(D2:D7,$K$11:$K$16)</f>
         <v>192.62999999999997</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>192.62999999999997</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>138.73499999999999</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>144.47249999999997</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>125.81249999999999</v>
       </c>
     </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="28" t="s">
+        <v>981</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>945</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>947</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>945</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>946</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>976</v>
+      </c>
+      <c r="B11" s="3">
+        <f>坦克升星成长线规划!Y2</f>
+        <v>5.28</v>
+      </c>
+      <c r="C11" s="14">
+        <f>$B11*M11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" ref="D11:H16" si="10">$B11*N11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="10"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I11" s="22">
+        <f t="shared" ref="I11:I15" si="11">B11-SUM(C11:H11)</f>
+        <v>4.4880000000000004</v>
+      </c>
+      <c r="K11">
+        <f>VLOOKUP(A11,宝箱规划!$A$14:$B$23,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="S11">
+        <f>SUM(M11:R11)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="B12" s="3">
+        <f>坦克升星成长线规划!Y3</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" ref="C12:C16" si="12">$B12*M12</f>
+        <v>0.51</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="10"/>
+        <v>0.51</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="10"/>
+        <v>0.51</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="10"/>
+        <v>0.255</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="10"/>
+        <v>0.38249999999999995</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="10"/>
+        <v>0.38249999999999995</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>VLOOKUP(A12,宝箱规划!$A$14:$B$23,2,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12:S16" si="13">SUM(M12:R12)</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="B13" s="3">
+        <f>坦克升星成长线规划!Y4</f>
+        <v>5.85</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="12"/>
+        <v>1.17</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="10"/>
+        <v>1.17</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="10"/>
+        <v>1.17</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="10"/>
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="10"/>
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="10"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>VLOOKUP(A13,宝箱规划!$A$14:$B$23,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>979</v>
+      </c>
+      <c r="B14" s="3">
+        <f>部件升星成长规划!AC2</f>
+        <v>2.4</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="12"/>
+        <v>0.48</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="10"/>
+        <v>0.48</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="10"/>
+        <v>0.48</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="10"/>
+        <v>0.36</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="10"/>
+        <v>0.36</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="10"/>
+        <v>0.24</v>
+      </c>
+      <c r="I14" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>VLOOKUP(A14,宝箱规划!$A$14:$B$23,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="B15" s="3">
+        <f>部件升星成长规划!AC3</f>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="C15" s="14">
+        <f t="shared" si="12"/>
+        <v>0.19200000000000003</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="10"/>
+        <v>0.19200000000000003</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="10"/>
+        <v>0.19200000000000003</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="10"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="10"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="10"/>
+        <v>9.6000000000000016E-2</v>
+      </c>
+      <c r="I15" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>VLOOKUP(A15,宝箱规划!$A$14:$B$23,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>982</v>
+      </c>
+      <c r="B16" s="3">
+        <f>部件升星成长规划!AC4</f>
+        <v>0.504</v>
+      </c>
+      <c r="C16" s="14">
+        <f t="shared" si="12"/>
+        <v>0.1008</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="10"/>
+        <v>0.1008</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="10"/>
+        <v>0.1008</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="10"/>
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="10"/>
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="10"/>
+        <v>5.04E-2</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" ref="I16" si="14">B16-SUM(C16:H16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>VLOOKUP(A16,宝箱规划!$A$14:$B$23,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>SUMPRODUCT(C11:C16,$K$11:$K$16)</f>
+        <v>192.62999999999997</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:H17" si="15">SUMPRODUCT(D11:D16,$K$11:$K$16)</f>
+        <v>192.62999999999997</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="15"/>
+        <v>192.62999999999997</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="15"/>
+        <v>138.73499999999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="15"/>
+        <v>144.47249999999997</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="15"/>
+        <v>125.81249999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>987</v>
       </c>
-      <c r="B13" s="14">
-        <f>SUMPRODUCT(B2:B7,K2:K7)</f>
+      <c r="B22" s="14">
+        <f>SUMPRODUCT(B11:B16,K11:K16)</f>
         <v>1121.5500000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="M11:R16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M2:R7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -40848,10 +43287,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62067918-F1DC-4CF0-85C8-0E19EC12C159}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40861,7 +43300,7 @@
     <col min="23" max="23" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -40883,7 +43322,9 @@
       <c r="G1" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>1106</v>
+      </c>
       <c r="J1" s="3" t="s">
         <v>108</v>
       </c>
@@ -40899,8 +43340,32 @@
       <c r="N1" s="3" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>108</v>
       </c>
@@ -40941,8 +43406,34 @@
       <c r="N2" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P2" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>2</v>
+      </c>
+      <c r="R2" s="34">
+        <f>IF(S2=0,0,(J2/S2)/Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="W2" s="3">
+        <v>3</v>
+      </c>
+      <c r="X2" s="34">
+        <f>IF(Y2=0,0,(K2/Y2)/W2)</f>
+        <v>0.11733333333333335</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>866</v>
       </c>
@@ -40983,8 +43474,34 @@
       <c r="N3" s="14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P3" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="34">
+        <f>IF(S3=0,0,(J3/S3)/Q3)</f>
+        <v>0.255</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="W3" s="3">
+        <v>3</v>
+      </c>
+      <c r="X3" s="34">
+        <f>IF(Y3=0,0,(K3/Y3)/W3)</f>
+        <v>0.17</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
@@ -41025,8 +43542,34 @@
       <c r="N4" s="14">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P4" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2</v>
+      </c>
+      <c r="R4" s="34">
+        <f>IF(S4=0,0,(J4/S4)/Q4)</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3</v>
+      </c>
+      <c r="X4" s="34">
+        <f>IF(Y4=0,0,(K4/Y4)/W4)</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -41067,8 +43610,34 @@
       <c r="N5" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P5" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2</v>
+      </c>
+      <c r="R5" s="34">
+        <f>IF(S5=0,0,(J5/S5)/Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3</v>
+      </c>
+      <c r="X5" s="34">
+        <f>IF(Y5=0,0,(K5/Y5)/W5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
@@ -41109,8 +43678,34 @@
       <c r="N6" s="14">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P6" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2</v>
+      </c>
+      <c r="R6" s="34">
+        <f>IF(S6=0,0,(J6/S6)/Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="W6" s="3">
+        <v>3</v>
+      </c>
+      <c r="X6" s="34">
+        <f>IF(Y6=0,0,(K6/Y6)/W6)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>112</v>
       </c>
@@ -41151,8 +43746,34 @@
       <c r="N7" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P7" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2</v>
+      </c>
+      <c r="R7" s="34">
+        <f>IF(S7=0,0,(J7/S7)/Q7)</f>
+        <v>0.16</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="W7" s="3">
+        <v>3</v>
+      </c>
+      <c r="X7" s="34">
+        <f>IF(Y7=0,0,(K7/Y7)/W7)</f>
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
@@ -41193,8 +43814,34 @@
       <c r="N8" s="14">
         <v>2.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2</v>
+      </c>
+      <c r="R8" s="34">
+        <f>IF(S8=0,0,(J8/S8)/Q8)</f>
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3</v>
+      </c>
+      <c r="X8" s="34">
+        <f>IF(Y8=0,0,(K8/Y8)/W8)</f>
+        <v>6.4000000000000015E-2</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>116</v>
       </c>
@@ -41235,8 +43882,34 @@
       <c r="N9" s="14">
         <v>1.5756797259687427</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2</v>
+      </c>
+      <c r="R9" s="34">
+        <f>IF(S9=0,0,(J9/S9)/Q9)</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3</v>
+      </c>
+      <c r="X9" s="34">
+        <f>IF(Y9=0,0,(K9/Y9)/W9)</f>
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>117</v>
       </c>
@@ -41277,8 +43950,34 @@
       <c r="N10" s="14">
         <v>0.10704345964461572</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>2</v>
+      </c>
+      <c r="R10" s="34">
+        <f>IF(S10=0,0,(J10/S10)/Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3</v>
+      </c>
+      <c r="X10" s="34">
+        <f>IF(Y10=0,0,(K10/Y10)/W10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -41321,8 +44020,22 @@
         <f>SUMPRODUCT(N2:N10,$B$15:$B$23)</f>
         <v>2278.7766645257975</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="45">
+        <f>SUM(R2:R10)</f>
+        <v>1.0976000000000001</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="45">
+        <f>SUM(X2:X10)</f>
+        <v>1.0122837606837607</v>
+      </c>
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>114</v>
       </c>
@@ -41346,7 +44059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>986</v>
       </c>
@@ -41356,32 +44069,50 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="V14" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="W14" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>876</v>
       </c>
@@ -41394,31 +44125,49 @@
       <c r="I15" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="14">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="34">
-        <f t="shared" ref="K15:K23" si="1">IF(L15=0,0,(J2/L15)/J15)</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="R15" s="34">
+        <f>IF(S15=0,0,(J15/S15)/Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>1.5</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="P15" s="3">
+      <c r="W15" s="3">
         <v>3</v>
       </c>
-      <c r="Q15" s="34">
-        <f t="shared" ref="Q15:Q23" si="2">IF(R15=0,0,(K2/R15)/P15)</f>
+      <c r="X15" s="34">
+        <f>IF(Y15=0,0,(K15/Y15)/W15)</f>
         <v>0.11733333333333335</v>
       </c>
-      <c r="R15" s="3">
+      <c r="Y15" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>877</v>
       </c>
@@ -41431,31 +44180,49 @@
       <c r="I16" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="14">
+        <v>0.51</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.51</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="34">
-        <f t="shared" si="1"/>
+      <c r="R16" s="34">
+        <f>IF(S16=0,0,(J16/S16)/Q16)</f>
         <v>0.255</v>
       </c>
-      <c r="L16" s="3">
+      <c r="S16" s="3">
         <v>1</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="P16" s="3">
+      <c r="W16" s="3">
         <v>3</v>
       </c>
-      <c r="Q16" s="34">
-        <f t="shared" si="2"/>
+      <c r="X16" s="34">
+        <f>IF(Y16=0,0,(K16/Y16)/W16)</f>
         <v>0.17</v>
       </c>
-      <c r="R16" s="3">
+      <c r="Y16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>878</v>
       </c>
@@ -41468,31 +44235,49 @@
       <c r="I17" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="14">
+        <v>1.17</v>
+      </c>
+      <c r="K17" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="L17" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="M17" s="14">
+        <v>3.01</v>
+      </c>
+      <c r="N17" s="14">
+        <v>7.4</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2</v>
       </c>
-      <c r="K17" s="34">
-        <f t="shared" si="1"/>
+      <c r="R17" s="34">
+        <f>IF(S17=0,0,(J17/S17)/Q17)</f>
         <v>0.58499999999999996</v>
       </c>
-      <c r="L17" s="3">
+      <c r="S17" s="3">
         <v>1</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="P17" s="3">
+      <c r="W17" s="3">
         <v>3</v>
       </c>
-      <c r="Q17" s="34">
-        <f t="shared" si="2"/>
+      <c r="X17" s="34">
+        <f>IF(Y17=0,0,(K17/Y17)/W17)</f>
         <v>0.53846153846153844</v>
       </c>
-      <c r="R17" s="3">
+      <c r="Y17" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>879</v>
       </c>
@@ -41505,31 +44290,49 @@
       <c r="I18" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="14">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="R18" s="34">
+        <f>IF(S18=0,0,(J18/S18)/Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="P18" s="3">
+      <c r="W18" s="3">
         <v>3</v>
       </c>
-      <c r="Q18" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X18" s="34">
+        <f>IF(Y18=0,0,(K18/Y18)/W18)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>880</v>
       </c>
@@ -41542,31 +44345,49 @@
       <c r="I19" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+      <c r="L19" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q19" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3" t="s">
+      <c r="R19" s="34">
+        <f>IF(S19=0,0,(J19/S19)/Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="P19" s="3">
+      <c r="W19" s="3">
         <v>3</v>
       </c>
-      <c r="Q19" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X19" s="34">
+        <f>IF(Y19=0,0,(K19/Y19)/W19)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>881</v>
       </c>
@@ -41579,31 +44400,49 @@
       <c r="I20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="M20" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2</v>
       </c>
-      <c r="K20" s="34">
-        <f t="shared" si="1"/>
+      <c r="R20" s="34">
+        <f>IF(S20=0,0,(J20/S20)/Q20)</f>
         <v>0.16</v>
       </c>
-      <c r="L20" s="3">
+      <c r="S20" s="3">
         <v>1.5</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="P20" s="3">
+      <c r="W20" s="3">
         <v>3</v>
       </c>
-      <c r="Q20" s="34">
-        <f t="shared" si="2"/>
+      <c r="X20" s="34">
+        <f>IF(Y20=0,0,(K20/Y20)/W20)</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="R20" s="3">
+      <c r="Y20" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>882</v>
       </c>
@@ -41616,31 +44455,49 @@
       <c r="I21" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="14">
+        <v>0.19200000000000003</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.19200000000000003</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="14">
+        <v>2.78</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2</v>
       </c>
-      <c r="K21" s="34">
-        <f t="shared" si="1"/>
+      <c r="R21" s="34">
+        <f>IF(S21=0,0,(J21/S21)/Q21)</f>
         <v>6.4000000000000015E-2</v>
       </c>
-      <c r="L21" s="3">
+      <c r="S21" s="3">
         <v>1.5</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="P21" s="3">
+      <c r="W21" s="3">
         <v>3</v>
       </c>
-      <c r="Q21" s="34">
-        <f t="shared" si="2"/>
+      <c r="X21" s="34">
+        <f>IF(Y21=0,0,(K21/Y21)/W21)</f>
         <v>6.4000000000000015E-2</v>
       </c>
-      <c r="R21" s="3">
+      <c r="Y21" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>883</v>
       </c>
@@ -41653,31 +44510,49 @@
       <c r="I22" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="14">
+        <v>0.1008</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.1008</v>
+      </c>
+      <c r="L22" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="N22" s="14">
+        <v>1.5756797259687427</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2</v>
       </c>
-      <c r="K22" s="34">
-        <f t="shared" si="1"/>
+      <c r="R22" s="34">
+        <f>IF(S22=0,0,(J22/S22)/Q22)</f>
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="L22" s="3">
+      <c r="S22" s="3">
         <v>1.5</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="P22" s="3">
+      <c r="W22" s="3">
         <v>3</v>
       </c>
-      <c r="Q22" s="34">
-        <f t="shared" si="2"/>
+      <c r="X22" s="34">
+        <f>IF(Y22=0,0,(K22/Y22)/W22)</f>
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="R22" s="3">
+      <c r="Y22" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>884</v>
       </c>
@@ -41690,31 +44565,49 @@
       <c r="I23" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0.10704345964461572</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q23" s="3">
         <v>2</v>
       </c>
-      <c r="K23" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
+      <c r="R23" s="34">
+        <f>IF(S23=0,0,(J23/S23)/Q23)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="P23" s="3">
+      <c r="W23" s="3">
         <v>3</v>
       </c>
-      <c r="Q23" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X23" s="34">
+        <f>IF(Y23=0,0,(K23/Y23)/W23)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>1092</v>
       </c>
@@ -41724,22 +44617,42 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="45">
-        <f>SUM(K15:K23)</f>
+      <c r="J24">
+        <f>SUMPRODUCT(J15:J23,$B$15:$B$23)</f>
+        <v>192.62999999999997</v>
+      </c>
+      <c r="K24">
+        <f>SUMPRODUCT(K15:K23,$B$15:$B$23)</f>
+        <v>318.47000000000003</v>
+      </c>
+      <c r="L24">
+        <f>SUMPRODUCT(L15:L23,$B$15:$B$23)</f>
+        <v>310.60000000000002</v>
+      </c>
+      <c r="M24">
+        <f>SUMPRODUCT(M15:M23,$B$15:$B$23)</f>
+        <v>726.2</v>
+      </c>
+      <c r="N24">
+        <f>SUMPRODUCT(N15:N23,$B$15:$B$23)</f>
+        <v>2278.7766645257975</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="45">
+        <f>SUM(R15:R23)</f>
         <v>1.0976000000000001</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="45">
-        <f>SUM(Q15:Q23)</f>
+      <c r="S24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="45">
+        <f>SUM(X15:X23)</f>
         <v>1.0122837606837607</v>
       </c>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="9"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>1093</v>
       </c>
@@ -41747,431 +44660,431 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I26" s="3" t="s">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="Y26" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="AB26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="AC26" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="AD26" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="AE26" s="3" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I27" s="3" t="s">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="J27" s="3">
+      <c r="Q27" s="3">
         <v>2</v>
       </c>
-      <c r="K27" s="34">
-        <f t="shared" ref="K27:K35" si="3">IF(L27=0,0,(L2/L27)/J27)</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
+      <c r="R27" s="34">
+        <f>IF(S27=0,0,(L2/S27)/Q27)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="P27" s="3">
+      <c r="W27" s="3">
         <v>3</v>
       </c>
-      <c r="Q27" s="34">
-        <f t="shared" ref="Q27:Q35" si="4">IF(R27=0,0,(M2/R27)/P27)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3" t="s">
+      <c r="X27" s="34">
+        <f>IF(Y27=0,0,(M2/Y27)/W27)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="V27" s="3">
+      <c r="AC27" s="3">
         <v>5</v>
       </c>
-      <c r="W27" s="34">
-        <f t="shared" ref="W27:W35" si="5">IF(X27=0,0,(N2/X27)/V27)</f>
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I28" s="3" t="s">
+      <c r="AD27" s="34">
+        <f>IF(AE27=0,0,(N2/AE27)/AC27)</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P28" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="J28" s="3">
+      <c r="Q28" s="3">
         <v>2</v>
       </c>
-      <c r="K28" s="34">
-        <f t="shared" si="3"/>
+      <c r="R28" s="34">
+        <f>IF(S28=0,0,(L3/S28)/Q28)</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L28" s="3">
+      <c r="S28" s="3">
         <v>2</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="P28" s="3">
+      <c r="W28" s="3">
         <v>3</v>
       </c>
-      <c r="Q28" s="34">
-        <f t="shared" si="4"/>
+      <c r="X28" s="34">
+        <f>IF(Y28=0,0,(M3/Y28)/W28)</f>
         <v>6.3492063492063489E-2</v>
       </c>
-      <c r="R28" s="3">
+      <c r="Y28" s="3">
         <v>6.3</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="AB28" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="V28" s="3">
+      <c r="AC28" s="3">
         <v>5</v>
       </c>
-      <c r="W28" s="34">
-        <f t="shared" si="5"/>
+      <c r="AD28" s="34">
+        <f>IF(AE28=0,0,(N3/AE28)/AC28)</f>
         <v>1.3333333333333332E-2</v>
       </c>
-      <c r="X28" s="3">
+      <c r="AE28" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I29" s="3" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="J29" s="3">
+      <c r="Q29" s="3">
         <v>2</v>
       </c>
-      <c r="K29" s="34">
-        <f t="shared" si="3"/>
+      <c r="R29" s="34">
+        <f>IF(S29=0,0,(L4/S29)/Q29)</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="L29" s="3">
+      <c r="S29" s="3">
         <v>1.5</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="P29" s="3">
+      <c r="W29" s="3">
         <v>3</v>
       </c>
-      <c r="Q29" s="34">
-        <f t="shared" si="4"/>
+      <c r="X29" s="34">
+        <f>IF(Y29=0,0,(M4/Y29)/W29)</f>
         <v>0.66888888888888876</v>
       </c>
-      <c r="R29" s="3">
+      <c r="Y29" s="3">
         <v>1.5</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="AB29" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="V29" s="3">
+      <c r="AC29" s="3">
         <v>5</v>
       </c>
-      <c r="W29" s="34">
-        <f t="shared" si="5"/>
+      <c r="AD29" s="34">
+        <f>IF(AE29=0,0,(N4/AE29)/AC29)</f>
         <v>0.2690909090909091</v>
       </c>
-      <c r="X29" s="3">
+      <c r="AE29" s="3">
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I30" s="3" t="s">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P30" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="J30" s="3">
+      <c r="Q30" s="3">
         <v>2</v>
       </c>
-      <c r="K30" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3" t="s">
+      <c r="R30" s="34">
+        <f>IF(S30=0,0,(L5/S30)/Q30)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="P30" s="3">
+      <c r="W30" s="3">
         <v>3</v>
       </c>
-      <c r="Q30" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="3" t="s">
+      <c r="X30" s="34">
+        <f>IF(Y30=0,0,(M5/Y30)/W30)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="V30" s="3">
+      <c r="AC30" s="3">
         <v>5</v>
       </c>
-      <c r="W30" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I31" s="3" t="s">
+      <c r="AD30" s="34">
+        <f>IF(AE30=0,0,(N5/AE30)/AC30)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P31" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="J31" s="3">
+      <c r="Q31" s="3">
         <v>2</v>
       </c>
-      <c r="K31" s="34">
-        <f t="shared" si="3"/>
+      <c r="R31" s="34">
+        <f>IF(S31=0,0,(L6/S31)/Q31)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L31" s="3">
+      <c r="S31" s="3">
         <v>1</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="P31" s="3">
+      <c r="W31" s="3">
         <v>3</v>
       </c>
-      <c r="Q31" s="34">
-        <f t="shared" si="4"/>
+      <c r="X31" s="34">
+        <f>IF(Y31=0,0,(M6/Y31)/W31)</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="R31" s="3">
+      <c r="Y31" s="3">
         <v>1</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="AB31" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="V31" s="3">
+      <c r="AC31" s="3">
         <v>5</v>
       </c>
-      <c r="W31" s="34">
-        <f t="shared" si="5"/>
+      <c r="AD31" s="34">
+        <f>IF(AE31=0,0,(N6/AE31)/AC31)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="X31" s="3">
+      <c r="AE31" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="I32" s="3" t="s">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="J32" s="3">
+      <c r="Q32" s="3">
         <v>2</v>
       </c>
-      <c r="K32" s="34">
-        <f t="shared" si="3"/>
+      <c r="R32" s="34">
+        <f>IF(S32=0,0,(L7/S32)/Q32)</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L32" s="3">
+      <c r="S32" s="3">
         <v>2</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="P32" s="3">
+      <c r="W32" s="3">
         <v>3</v>
       </c>
-      <c r="Q32" s="34">
-        <f t="shared" si="4"/>
+      <c r="X32" s="34">
+        <f>IF(Y32=0,0,(M7/Y32)/W32)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="R32" s="3">
+      <c r="Y32" s="3">
         <v>5</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="AB32" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="V32" s="3">
+      <c r="AC32" s="3">
         <v>5</v>
       </c>
-      <c r="W32" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="AD32" s="34">
+        <f>IF(AE32=0,0,(N7/AE32)/AC32)</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="9:24" x14ac:dyDescent="0.2">
-      <c r="I33" s="3" t="s">
+    <row r="33" spans="16:31" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="J33" s="3">
+      <c r="Q33" s="3">
         <v>2</v>
       </c>
-      <c r="K33" s="34">
-        <f t="shared" si="3"/>
+      <c r="R33" s="34">
+        <f>IF(S33=0,0,(L8/S33)/Q33)</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L33" s="3">
+      <c r="S33" s="3">
         <v>1</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="P33" s="3">
+      <c r="W33" s="3">
         <v>3</v>
       </c>
-      <c r="Q33" s="34">
-        <f t="shared" si="4"/>
+      <c r="X33" s="34">
+        <f>IF(Y33=0,0,(M8/Y33)/W33)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="R33" s="3">
+      <c r="Y33" s="3">
         <v>2.5</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="AB33" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="V33" s="3">
+      <c r="AC33" s="3">
         <v>5</v>
       </c>
-      <c r="W33" s="34">
-        <f t="shared" si="5"/>
+      <c r="AD33" s="34">
+        <f>IF(AE33=0,0,(N8/AE33)/AC33)</f>
         <v>0.27799999999999997</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AE33" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="9:24" x14ac:dyDescent="0.2">
-      <c r="I34" s="3" t="s">
+    <row r="34" spans="16:31" x14ac:dyDescent="0.2">
+      <c r="P34" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="J34" s="3">
+      <c r="Q34" s="3">
         <v>2</v>
       </c>
-      <c r="K34" s="34">
-        <f t="shared" si="3"/>
+      <c r="R34" s="34">
+        <f>IF(S34=0,0,(L9/S34)/Q34)</f>
         <v>0.05</v>
       </c>
-      <c r="L34" s="3">
+      <c r="S34" s="3">
         <v>1</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="P34" s="3">
+      <c r="W34" s="3">
         <v>3</v>
       </c>
-      <c r="Q34" s="34">
-        <f t="shared" si="4"/>
+      <c r="X34" s="34">
+        <f>IF(Y34=0,0,(M9/Y34)/W34)</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="R34" s="3">
+      <c r="Y34" s="3">
         <v>2</v>
       </c>
-      <c r="U34" s="3" t="s">
+      <c r="AB34" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="V34" s="3">
+      <c r="AC34" s="3">
         <v>5</v>
       </c>
-      <c r="W34" s="34">
-        <f t="shared" si="5"/>
+      <c r="AD34" s="34">
+        <f>IF(AE34=0,0,(N9/AE34)/AC34)</f>
         <v>0.31513594519374855</v>
       </c>
-      <c r="X34" s="3">
+      <c r="AE34" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="9:24" x14ac:dyDescent="0.2">
-      <c r="I35" s="3" t="s">
+    <row r="35" spans="16:31" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="J35" s="3">
+      <c r="Q35" s="3">
         <v>2</v>
       </c>
-      <c r="K35" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
+      <c r="R35" s="34">
+        <f>IF(S35=0,0,(L10/S35)/Q35)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="P35" s="3">
+      <c r="W35" s="3">
         <v>3</v>
       </c>
-      <c r="Q35" s="34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="X35" s="34">
+        <f>IF(Y35=0,0,(M10/Y35)/W35)</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="AB35" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="V35" s="3">
+      <c r="AC35" s="3">
         <v>5</v>
       </c>
-      <c r="W35" s="34">
-        <f t="shared" si="5"/>
+      <c r="AD35" s="34">
+        <f>IF(AE35=0,0,(N10/AE35)/AC35)</f>
         <v>2.1408691928923144E-2</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AE35" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="9:24" x14ac:dyDescent="0.2">
-      <c r="K36" s="45">
-        <f>SUM(K27:K35)</f>
+    <row r="36" spans="16:31" x14ac:dyDescent="0.2">
+      <c r="R36" s="45">
+        <f>SUM(R27:R35)</f>
         <v>0.98</v>
       </c>
-      <c r="Q36" s="45">
-        <f>SUM(Q27:Q35)</f>
+      <c r="X36" s="45">
+        <f>SUM(X27:X35)</f>
         <v>0.99904761904761885</v>
       </c>
-      <c r="W36" s="45">
-        <f>SUM(W27:W35)</f>
+      <c r="AD36" s="45">
+        <f>SUM(AD27:AD35)</f>
         <v>0.99296887954691404</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:N10">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42182,8 +45095,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K23">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="R2:R10">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42194,7 +45107,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:Q23">
+  <conditionalFormatting sqref="X2:X10">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:R35">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -42206,8 +45131,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K35">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="X27:X35">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -42218,7 +45143,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:Q35">
+  <conditionalFormatting sqref="AD27:AD35">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:N23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:R23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -42230,7 +45191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:W35">
+  <conditionalFormatting sqref="X15:X23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -42242,8 +45203,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K10">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="J15:K23">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
